--- a/Pliki pokaz/Centrum - zespół orgniazacji przewozów - grafik.xlsx
+++ b/Pliki pokaz/Centrum - zespół orgniazacji przewozów - grafik.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\ITEGER\staż\obecności\All_Reader\Pliki pokaz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD364498-08F1-4A71-8FEF-14402536D7C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9AC363A-D0BF-48D3-9478-B2B4DC24A887}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <x:bookViews>
-    <x:workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="0" activeTab="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <x:workbookView xWindow="10515" yWindow="375" windowWidth="16650" windowHeight="14895" firstSheet="0" activeTab="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="Listopad 2024" sheetId="19" r:id="rId1"/>
@@ -1417,10 +1417,10 @@
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
     <x:pageSetUpPr fitToPage="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:BK90"/>
+  <x:dimension ref="A1:BK91"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="A56" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <x:selection activeCell="A58" sqref="A58 58:58"/>
+    <x:sheetView tabSelected="1" topLeftCell="A53" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <x:selection activeCell="A62" sqref="A62"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -8687,2738 +8687,2807 @@
       <x:c r="BJ60" s="54"/>
       <x:c r="BK60" s="21"/>
     </x:row>
-    <x:row r="61" spans="1:63" ht="20.1" customHeight="1" x14ac:dyDescent="0.25">
-      <x:c r="A61" s="56" t="s">
+    <x:row r="61" spans="1:63" ht="20.1" customHeight="1" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <x:c r="A61" s="72"/>
+      <x:c r="B61" s="22">
+        <x:v>0.25</x:v>
+      </x:c>
+      <x:c r="C61" s="23">
+        <x:v>0.25</x:v>
+      </x:c>
+      <x:c r="D61" s="23"/>
+      <x:c r="E61" s="23"/>
+      <x:c r="F61" s="23"/>
+      <x:c r="G61" s="23"/>
+      <x:c r="H61" s="75"/>
+      <x:c r="I61" s="75"/>
+      <x:c r="J61" s="23"/>
+      <x:c r="K61" s="23"/>
+      <x:c r="L61" s="76"/>
+      <x:c r="M61" s="76"/>
+      <x:c r="N61" s="74"/>
+      <x:c r="O61" s="74"/>
+      <x:c r="P61" s="75"/>
+      <x:c r="Q61" s="75"/>
+      <x:c r="R61" s="23"/>
+      <x:c r="S61" s="23"/>
+      <x:c r="T61" s="23"/>
+      <x:c r="U61" s="23"/>
+      <x:c r="V61" s="23"/>
+      <x:c r="W61" s="23"/>
+      <x:c r="X61" s="74"/>
+      <x:c r="Y61" s="74"/>
+      <x:c r="Z61" s="23"/>
+      <x:c r="AA61" s="23"/>
+      <x:c r="AB61" s="23"/>
+      <x:c r="AC61" s="23"/>
+      <x:c r="AD61" s="23"/>
+      <x:c r="AE61" s="23"/>
+      <x:c r="AF61" s="76"/>
+      <x:c r="AG61" s="76"/>
+      <x:c r="AH61" s="75"/>
+      <x:c r="AI61" s="75"/>
+      <x:c r="AJ61" s="76"/>
+      <x:c r="AK61" s="76"/>
+      <x:c r="AL61" s="23"/>
+      <x:c r="AM61" s="23"/>
+      <x:c r="AN61" s="76"/>
+      <x:c r="AO61" s="76"/>
+      <x:c r="AP61" s="23"/>
+      <x:c r="AQ61" s="23"/>
+      <x:c r="AR61" s="23"/>
+      <x:c r="AS61" s="23"/>
+      <x:c r="AT61" s="23"/>
+      <x:c r="AU61" s="23"/>
+      <x:c r="AV61" s="75"/>
+      <x:c r="AW61" s="75"/>
+      <x:c r="AX61" s="23"/>
+      <x:c r="AY61" s="23"/>
+      <x:c r="AZ61" s="23"/>
+      <x:c r="BA61" s="23"/>
+      <x:c r="BB61" s="23"/>
+      <x:c r="BC61" s="23"/>
+      <x:c r="BD61" s="76"/>
+      <x:c r="BE61" s="76"/>
+      <x:c r="BF61" s="23"/>
+      <x:c r="BG61" s="23"/>
+      <x:c r="BH61" s="23"/>
+      <x:c r="BI61" s="43"/>
+      <x:c r="BJ61" s="54"/>
+      <x:c r="BK61" s="21"/>
+    </x:row>
+    <x:row r="62" spans="1:63" ht="20.1" customHeight="1" x14ac:dyDescent="0.25">
+      <x:c r="A62" s="56" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="B61" s="9">
+      <x:c r="B62" s="9">
         <x:f>(C60-B60)*24</x:f>
       </x:c>
-      <x:c r="C61" s="8"/>
-      <x:c r="D61" s="8">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="E61" s="8"/>
-      <x:c r="F61" s="8">
+      <x:c r="C62" s="8"/>
+      <x:c r="D62" s="8">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="E62" s="8"/>
+      <x:c r="F62" s="8">
         <x:f>(G60-F60)*24</x:f>
       </x:c>
-      <x:c r="G61" s="8"/>
-      <x:c r="H61" s="8">
+      <x:c r="G62" s="8"/>
+      <x:c r="H62" s="8">
         <x:f>(I60-H60)*24</x:f>
       </x:c>
-      <x:c r="I61" s="8"/>
-      <x:c r="J61" s="8">
+      <x:c r="I62" s="8"/>
+      <x:c r="J62" s="8">
         <x:f>(K60-J60)*24</x:f>
       </x:c>
-      <x:c r="K61" s="8"/>
-      <x:c r="L61" s="8">
+      <x:c r="K62" s="8"/>
+      <x:c r="L62" s="8">
         <x:f>(M60-L60)*24</x:f>
       </x:c>
-      <x:c r="M61" s="8"/>
-      <x:c r="N61" s="8">
+      <x:c r="M62" s="8"/>
+      <x:c r="N62" s="8">
         <x:f>(O60-N60)*24</x:f>
       </x:c>
-      <x:c r="O61" s="8"/>
-      <x:c r="P61" s="8">
+      <x:c r="O62" s="8"/>
+      <x:c r="P62" s="8">
         <x:f>(Q60-P60)*24</x:f>
       </x:c>
-      <x:c r="Q61" s="8"/>
-      <x:c r="R61" s="8">
+      <x:c r="Q62" s="8"/>
+      <x:c r="R62" s="8">
         <x:f>(S60-R60)*24</x:f>
       </x:c>
-      <x:c r="S61" s="8"/>
-      <x:c r="T61" s="8">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="U61" s="8"/>
-      <x:c r="V61" s="8">
+      <x:c r="S62" s="8"/>
+      <x:c r="T62" s="8">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="U62" s="8"/>
+      <x:c r="V62" s="8">
         <x:f>(W60-V60)*24</x:f>
       </x:c>
-      <x:c r="W61" s="8"/>
-      <x:c r="X61" s="8">
+      <x:c r="W62" s="8"/>
+      <x:c r="X62" s="8">
         <x:f>(Y60-X60)*24</x:f>
       </x:c>
-      <x:c r="Y61" s="8"/>
-      <x:c r="Z61" s="8">
+      <x:c r="Y62" s="8"/>
+      <x:c r="Z62" s="8">
         <x:f>(AA60-Z60)*24</x:f>
       </x:c>
-      <x:c r="AA61" s="8"/>
-      <x:c r="AB61" s="8">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="AC61" s="8"/>
-      <x:c r="AD61" s="8">
+      <x:c r="AA62" s="8"/>
+      <x:c r="AB62" s="8">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="AC62" s="8"/>
+      <x:c r="AD62" s="8">
         <x:f>(AE60-AD60)*24</x:f>
       </x:c>
-      <x:c r="AE61" s="8"/>
-      <x:c r="AF61" s="8">
+      <x:c r="AE62" s="8"/>
+      <x:c r="AF62" s="8">
         <x:f>(AG60-AF60)*24</x:f>
       </x:c>
-      <x:c r="AG61" s="8"/>
-      <x:c r="AH61" s="8">
+      <x:c r="AG62" s="8"/>
+      <x:c r="AH62" s="8">
         <x:f>(AI60-AH60)*24</x:f>
       </x:c>
-      <x:c r="AI61" s="8"/>
-      <x:c r="AJ61" s="8">
+      <x:c r="AI62" s="8"/>
+      <x:c r="AJ62" s="8">
         <x:f>(AK60-AJ60)*24</x:f>
       </x:c>
-      <x:c r="AK61" s="8"/>
-      <x:c r="AL61" s="8">
+      <x:c r="AK62" s="8"/>
+      <x:c r="AL62" s="8">
         <x:f>(AM60-AL60)*24</x:f>
       </x:c>
-      <x:c r="AM61" s="8"/>
-      <x:c r="AN61" s="8">
+      <x:c r="AM62" s="8"/>
+      <x:c r="AN62" s="8">
         <x:f>(AO60-AN60)*24</x:f>
       </x:c>
-      <x:c r="AO61" s="8"/>
-      <x:c r="AP61" s="8">
+      <x:c r="AO62" s="8"/>
+      <x:c r="AP62" s="8">
         <x:f>(AQ60-AP60)*24</x:f>
       </x:c>
-      <x:c r="AQ61" s="8"/>
-      <x:c r="AR61" s="8">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="AS61" s="8"/>
-      <x:c r="AT61" s="8">
+      <x:c r="AQ62" s="8"/>
+      <x:c r="AR62" s="8">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="AS62" s="8"/>
+      <x:c r="AT62" s="8">
         <x:f>(AU60-AT60)*24</x:f>
       </x:c>
-      <x:c r="AU61" s="8"/>
-      <x:c r="AV61" s="8">
+      <x:c r="AU62" s="8"/>
+      <x:c r="AV62" s="8">
         <x:f>(AW60-AV60)*24</x:f>
       </x:c>
-      <x:c r="AW61" s="8"/>
-      <x:c r="AX61" s="8">
+      <x:c r="AW62" s="8"/>
+      <x:c r="AX62" s="8">
         <x:f>(AY60-AX60)*24</x:f>
       </x:c>
-      <x:c r="AY61" s="8"/>
-      <x:c r="AZ61" s="8">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="BA61" s="8"/>
-      <x:c r="BB61" s="8">
+      <x:c r="AY62" s="8"/>
+      <x:c r="AZ62" s="8">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="BA62" s="8"/>
+      <x:c r="BB62" s="8">
         <x:f>(BC60-BB60)*24</x:f>
       </x:c>
-      <x:c r="BC61" s="8"/>
-      <x:c r="BD61" s="8">
+      <x:c r="BC62" s="8"/>
+      <x:c r="BD62" s="8">
         <x:f>(BE60-BD60)*24</x:f>
       </x:c>
-      <x:c r="BE61" s="8"/>
-      <x:c r="BF61" s="8">
+      <x:c r="BE62" s="8"/>
+      <x:c r="BF62" s="8">
         <x:f>(BG60-BF60)*24</x:f>
       </x:c>
-      <x:c r="BG61" s="8"/>
-      <x:c r="BH61" s="8">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="BI61" s="7"/>
-      <x:c r="BJ61" s="54">
-        <x:f>SUM(B61:BI61)</x:f>
-      </x:c>
-      <x:c r="BK61" s="20"/>
+      <x:c r="BG62" s="8"/>
+      <x:c r="BH62" s="8">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="BI62" s="7"/>
+      <x:c r="BJ62" s="54">
+        <x:f>SUM(B62:BI62)</x:f>
+      </x:c>
+      <x:c r="BK62" s="20"/>
     </x:row>
-    <x:row r="62" spans="1:63" ht="20.1" customHeight="1" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <x:c r="A62" s="72" t="s">
+    <x:row r="63" spans="1:63" ht="20.1" customHeight="1" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <x:c r="A63" s="72" t="s">
         <x:v>34</x:v>
       </x:c>
-      <x:c r="B62" s="73"/>
-      <x:c r="C62" s="74"/>
-      <x:c r="D62" s="76"/>
-      <x:c r="E62" s="76"/>
-      <x:c r="F62" s="23">
-        <x:v>0.291666666666667</x:v>
-      </x:c>
-      <x:c r="G62" s="23">
-        <x:v>0.791666666666667</x:v>
-      </x:c>
-      <x:c r="H62" s="23">
-        <x:v>0.291666666666667</x:v>
-      </x:c>
-      <x:c r="I62" s="23">
-        <x:v>0.791666666666667</x:v>
-      </x:c>
-      <x:c r="J62" s="75"/>
-      <x:c r="K62" s="75"/>
-      <x:c r="L62" s="23">
-        <x:v>0.291666666666667</x:v>
-      </x:c>
-      <x:c r="M62" s="23">
-        <x:v>0.791666666666667</x:v>
-      </x:c>
-      <x:c r="N62" s="23"/>
-      <x:c r="O62" s="23"/>
-      <x:c r="P62" s="23"/>
-      <x:c r="Q62" s="23"/>
-      <x:c r="R62" s="76"/>
-      <x:c r="S62" s="76"/>
-      <x:c r="T62" s="75"/>
-      <x:c r="U62" s="75"/>
-      <x:c r="V62" s="23">
-        <x:v>0.291666666666667</x:v>
-      </x:c>
-      <x:c r="W62" s="23">
-        <x:v>0.791666666666667</x:v>
-      </x:c>
-      <x:c r="X62" s="74"/>
-      <x:c r="Y62" s="74"/>
-      <x:c r="Z62" s="23"/>
-      <x:c r="AA62" s="23"/>
-      <x:c r="AB62" s="23">
-        <x:v>0.291666666666667</x:v>
-      </x:c>
-      <x:c r="AC62" s="23">
-        <x:v>0.791666666666667</x:v>
-      </x:c>
-      <x:c r="AD62" s="75"/>
-      <x:c r="AE62" s="75"/>
-      <x:c r="AF62" s="76"/>
-      <x:c r="AG62" s="76"/>
-      <x:c r="AH62" s="23">
-        <x:v>0.291666666666667</x:v>
-      </x:c>
-      <x:c r="AI62" s="23">
-        <x:v>0.791666666666667</x:v>
-      </x:c>
-      <x:c r="AJ62" s="23">
-        <x:v>0.791666666666667</x:v>
-      </x:c>
-      <x:c r="AK62" s="23">
-        <x:v>0.291666666666667</x:v>
-      </x:c>
-      <x:c r="AL62" s="23"/>
-      <x:c r="AM62" s="23"/>
-      <x:c r="AN62" s="23">
-        <x:v>0.291666666666667</x:v>
-      </x:c>
-      <x:c r="AO62" s="23">
-        <x:v>0.791666666666667</x:v>
-      </x:c>
-      <x:c r="AP62" s="76"/>
-      <x:c r="AQ62" s="76"/>
-      <x:c r="AR62" s="23">
-        <x:v>0.291666666666667</x:v>
-      </x:c>
-      <x:c r="AS62" s="23">
+      <x:c r="B63" s="73"/>
+      <x:c r="C63" s="74"/>
+      <x:c r="D63" s="76"/>
+      <x:c r="E63" s="76"/>
+      <x:c r="F63" s="23">
+        <x:v>0.291666666666667</x:v>
+      </x:c>
+      <x:c r="G63" s="23">
+        <x:v>0.791666666666667</x:v>
+      </x:c>
+      <x:c r="H63" s="23">
+        <x:v>0.291666666666667</x:v>
+      </x:c>
+      <x:c r="I63" s="23">
+        <x:v>0.791666666666667</x:v>
+      </x:c>
+      <x:c r="J63" s="75"/>
+      <x:c r="K63" s="75"/>
+      <x:c r="L63" s="23">
+        <x:v>0.291666666666667</x:v>
+      </x:c>
+      <x:c r="M63" s="23">
+        <x:v>0.791666666666667</x:v>
+      </x:c>
+      <x:c r="N63" s="23"/>
+      <x:c r="O63" s="23"/>
+      <x:c r="P63" s="23"/>
+      <x:c r="Q63" s="23"/>
+      <x:c r="R63" s="76"/>
+      <x:c r="S63" s="76"/>
+      <x:c r="T63" s="75"/>
+      <x:c r="U63" s="75"/>
+      <x:c r="V63" s="23">
+        <x:v>0.291666666666667</x:v>
+      </x:c>
+      <x:c r="W63" s="23">
+        <x:v>0.791666666666667</x:v>
+      </x:c>
+      <x:c r="X63" s="74"/>
+      <x:c r="Y63" s="74"/>
+      <x:c r="Z63" s="23"/>
+      <x:c r="AA63" s="23"/>
+      <x:c r="AB63" s="23">
+        <x:v>0.291666666666667</x:v>
+      </x:c>
+      <x:c r="AC63" s="23">
+        <x:v>0.791666666666667</x:v>
+      </x:c>
+      <x:c r="AD63" s="75"/>
+      <x:c r="AE63" s="75"/>
+      <x:c r="AF63" s="76"/>
+      <x:c r="AG63" s="76"/>
+      <x:c r="AH63" s="23">
+        <x:v>0.291666666666667</x:v>
+      </x:c>
+      <x:c r="AI63" s="23">
+        <x:v>0.791666666666667</x:v>
+      </x:c>
+      <x:c r="AJ63" s="23">
+        <x:v>0.791666666666667</x:v>
+      </x:c>
+      <x:c r="AK63" s="23">
+        <x:v>0.291666666666667</x:v>
+      </x:c>
+      <x:c r="AL63" s="23"/>
+      <x:c r="AM63" s="23"/>
+      <x:c r="AN63" s="23">
+        <x:v>0.291666666666667</x:v>
+      </x:c>
+      <x:c r="AO63" s="23">
+        <x:v>0.791666666666667</x:v>
+      </x:c>
+      <x:c r="AP63" s="76"/>
+      <x:c r="AQ63" s="76"/>
+      <x:c r="AR63" s="23">
+        <x:v>0.291666666666667</x:v>
+      </x:c>
+      <x:c r="AS63" s="23">
         <x:v>0.625</x:v>
       </x:c>
-      <x:c r="AT62" s="23">
-        <x:v>0.291666666666667</x:v>
-      </x:c>
-      <x:c r="AU62" s="23">
-        <x:v>0.791666666666667</x:v>
-      </x:c>
-      <x:c r="AV62" s="23">
-        <x:v>0.791666666666667</x:v>
-      </x:c>
-      <x:c r="AW62" s="23">
-        <x:v>0.291666666666667</x:v>
-      </x:c>
-      <x:c r="AX62" s="23"/>
-      <x:c r="AY62" s="23"/>
-      <x:c r="AZ62" s="75"/>
-      <x:c r="BA62" s="75"/>
-      <x:c r="BB62" s="23"/>
-      <x:c r="BC62" s="23"/>
-      <x:c r="BD62" s="23">
-        <x:v>0.291666666666667</x:v>
-      </x:c>
-      <x:c r="BE62" s="23">
-        <x:v>0.791666666666667</x:v>
-      </x:c>
-      <x:c r="BF62" s="23">
-        <x:v>0.791666666666667</x:v>
-      </x:c>
-      <x:c r="BG62" s="23">
-        <x:v>0.291666666666667</x:v>
-      </x:c>
-      <x:c r="BH62" s="76"/>
-      <x:c r="BI62" s="79"/>
-      <x:c r="BJ62" s="54"/>
-      <x:c r="BK62" s="21"/>
-    </x:row>
-    <x:row r="63" spans="1:63" ht="20.1" customHeight="1" x14ac:dyDescent="0.25">
-      <x:c r="A63" s="56" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="B63" s="9">
-        <x:f>(C62-B62)*24</x:f>
-      </x:c>
-      <x:c r="C63" s="8"/>
-      <x:c r="D63" s="8">
-        <x:f>(E62-D62)*24</x:f>
-      </x:c>
-      <x:c r="E63" s="8"/>
-      <x:c r="F63" s="8">
-        <x:f>(G62-F62)*24</x:f>
-      </x:c>
-      <x:c r="G63" s="8"/>
-      <x:c r="H63" s="8">
-        <x:f>(I62-H62)*24</x:f>
-      </x:c>
-      <x:c r="I63" s="8"/>
-      <x:c r="J63" s="8">
-        <x:f>(K62-J62)*24</x:f>
-      </x:c>
-      <x:c r="K63" s="8"/>
-      <x:c r="L63" s="8">
-        <x:f>(M62-L62)*24</x:f>
-      </x:c>
-      <x:c r="M63" s="8"/>
-      <x:c r="N63" s="8">
-        <x:f>(O62-N62)*24</x:f>
-      </x:c>
-      <x:c r="O63" s="8"/>
-      <x:c r="P63" s="8">
-        <x:f>(Q62-P62)*24</x:f>
-      </x:c>
-      <x:c r="Q63" s="8"/>
-      <x:c r="R63" s="8">
-        <x:f>(S62-R62)*24</x:f>
-      </x:c>
-      <x:c r="S63" s="8"/>
-      <x:c r="T63" s="8">
-        <x:f>(U62-T62)*24</x:f>
-      </x:c>
-      <x:c r="U63" s="8"/>
-      <x:c r="V63" s="8">
-        <x:f>(W62-V62)*24</x:f>
-      </x:c>
-      <x:c r="W63" s="8"/>
-      <x:c r="X63" s="8">
-        <x:f>(Y62-X62)*24</x:f>
-      </x:c>
-      <x:c r="Y63" s="8"/>
-      <x:c r="Z63" s="8">
-        <x:f>(AA62-Z62)*24</x:f>
-      </x:c>
-      <x:c r="AA63" s="8"/>
-      <x:c r="AB63" s="8">
-        <x:f>(AC62-AB62)*24</x:f>
-      </x:c>
-      <x:c r="AC63" s="8"/>
-      <x:c r="AD63" s="8">
-        <x:f>(AE62-AD62)*24</x:f>
-      </x:c>
-      <x:c r="AE63" s="8"/>
-      <x:c r="AF63" s="8">
-        <x:f>(AG62-AF62)*24</x:f>
-      </x:c>
-      <x:c r="AG63" s="8"/>
-      <x:c r="AH63" s="8">
-        <x:f>(AI62-AH62)*24</x:f>
-      </x:c>
-      <x:c r="AI63" s="8"/>
-      <x:c r="AJ63" s="8">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="AK63" s="8"/>
-      <x:c r="AL63" s="8">
-        <x:f>(AM62-AL62)*24</x:f>
-      </x:c>
-      <x:c r="AM63" s="8"/>
-      <x:c r="AN63" s="8">
-        <x:f>(AO62-AN62)*24</x:f>
-      </x:c>
-      <x:c r="AO63" s="8"/>
-      <x:c r="AP63" s="8">
-        <x:f>(AQ62-AP62)*24</x:f>
-      </x:c>
-      <x:c r="AQ63" s="8"/>
-      <x:c r="AR63" s="8">
-        <x:f>(AS62-AR62)*24</x:f>
-      </x:c>
-      <x:c r="AS63" s="8"/>
-      <x:c r="AT63" s="8">
-        <x:f>(AU62-AT62)*24</x:f>
-      </x:c>
-      <x:c r="AU63" s="8"/>
-      <x:c r="AV63" s="8">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="AW63" s="8"/>
-      <x:c r="AX63" s="8">
-        <x:f>(AY62-AX62)*24</x:f>
-      </x:c>
-      <x:c r="AY63" s="8"/>
-      <x:c r="AZ63" s="8">
-        <x:f>(BA62-AZ62)*24</x:f>
-      </x:c>
-      <x:c r="BA63" s="8"/>
-      <x:c r="BB63" s="8">
-        <x:f>(BC62-BB62)*24</x:f>
-      </x:c>
-      <x:c r="BC63" s="8"/>
-      <x:c r="BD63" s="8">
-        <x:f>(BE62-BD62)*24</x:f>
-      </x:c>
-      <x:c r="BE63" s="8"/>
-      <x:c r="BF63" s="8">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="BG63" s="8"/>
-      <x:c r="BH63" s="8">
-        <x:f>(BI62-BH62)*24</x:f>
-      </x:c>
-      <x:c r="BI63" s="7"/>
-      <x:c r="BJ63" s="54">
-        <x:f>SUM(B63:BI63)</x:f>
-      </x:c>
-      <x:c r="BK63" s="20"/>
+      <x:c r="AT63" s="23">
+        <x:v>0.291666666666667</x:v>
+      </x:c>
+      <x:c r="AU63" s="23">
+        <x:v>0.791666666666667</x:v>
+      </x:c>
+      <x:c r="AV63" s="23">
+        <x:v>0.791666666666667</x:v>
+      </x:c>
+      <x:c r="AW63" s="23">
+        <x:v>0.291666666666667</x:v>
+      </x:c>
+      <x:c r="AX63" s="23"/>
+      <x:c r="AY63" s="23"/>
+      <x:c r="AZ63" s="75"/>
+      <x:c r="BA63" s="75"/>
+      <x:c r="BB63" s="23"/>
+      <x:c r="BC63" s="23"/>
+      <x:c r="BD63" s="23">
+        <x:v>0.291666666666667</x:v>
+      </x:c>
+      <x:c r="BE63" s="23">
+        <x:v>0.791666666666667</x:v>
+      </x:c>
+      <x:c r="BF63" s="23">
+        <x:v>0.791666666666667</x:v>
+      </x:c>
+      <x:c r="BG63" s="23">
+        <x:v>0.291666666666667</x:v>
+      </x:c>
+      <x:c r="BH63" s="76"/>
+      <x:c r="BI63" s="79"/>
+      <x:c r="BJ63" s="54"/>
+      <x:c r="BK63" s="21"/>
     </x:row>
     <x:row r="64" spans="1:63" ht="20.1" customHeight="1" x14ac:dyDescent="0.25">
-      <x:c r="A64" s="72" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="B64" s="22">
-        <x:v>0.75</x:v>
-      </x:c>
-      <x:c r="C64" s="23">
-        <x:v>0.25</x:v>
-      </x:c>
-      <x:c r="D64" s="74"/>
-      <x:c r="E64" s="74"/>
-      <x:c r="F64" s="75"/>
-      <x:c r="G64" s="75"/>
-      <x:c r="H64" s="23">
-        <x:v>0.25</x:v>
-      </x:c>
-      <x:c r="I64" s="23">
-        <x:v>0.75</x:v>
-      </x:c>
-      <x:c r="J64" s="23">
-        <x:v>0.25</x:v>
-      </x:c>
-      <x:c r="K64" s="23">
-        <x:v>0.75</x:v>
-      </x:c>
-      <x:c r="L64" s="23"/>
-      <x:c r="M64" s="23"/>
-      <x:c r="N64" s="76"/>
-      <x:c r="O64" s="76"/>
-      <x:c r="P64" s="23">
-        <x:v>0.25</x:v>
-      </x:c>
-      <x:c r="Q64" s="23">
-        <x:v>0.75</x:v>
-      </x:c>
-      <x:c r="R64" s="23">
-        <x:v>0.75</x:v>
-      </x:c>
-      <x:c r="S64" s="23">
-        <x:v>0.25</x:v>
-      </x:c>
-      <x:c r="T64" s="75"/>
-      <x:c r="U64" s="75"/>
-      <x:c r="V64" s="74"/>
-      <x:c r="W64" s="74"/>
-      <x:c r="X64" s="76"/>
-      <x:c r="Y64" s="76"/>
-      <x:c r="Z64" s="23">
-        <x:v>0.25</x:v>
-      </x:c>
-      <x:c r="AA64" s="23">
-        <x:v>0.75</x:v>
-      </x:c>
-      <x:c r="AB64" s="76"/>
-      <x:c r="AC64" s="76"/>
-      <x:c r="AD64" s="23">
-        <x:v>0.75</x:v>
-      </x:c>
-      <x:c r="AE64" s="23">
-        <x:v>0.25</x:v>
-      </x:c>
-      <x:c r="AF64" s="23"/>
-      <x:c r="AG64" s="23"/>
-      <x:c r="AH64" s="23">
-        <x:v>0.75</x:v>
-      </x:c>
-      <x:c r="AI64" s="23">
-        <x:v>0.25</x:v>
-      </x:c>
-      <x:c r="AJ64" s="75"/>
-      <x:c r="AK64" s="75"/>
-      <x:c r="AL64" s="23"/>
-      <x:c r="AM64" s="23"/>
-      <x:c r="AN64" s="23">
-        <x:v>0.25</x:v>
-      </x:c>
-      <x:c r="AO64" s="23">
-        <x:v>0.75</x:v>
-      </x:c>
-      <x:c r="AP64" s="23"/>
-      <x:c r="AQ64" s="23"/>
-      <x:c r="AR64" s="75"/>
-      <x:c r="AS64" s="75"/>
-      <x:c r="AT64" s="76"/>
-      <x:c r="AU64" s="76"/>
-      <x:c r="AV64" s="23">
-        <x:v>0.25</x:v>
-      </x:c>
-      <x:c r="AW64" s="23">
-        <x:v>0.75</x:v>
-      </x:c>
-      <x:c r="AX64" s="23">
-        <x:v>0.25</x:v>
-      </x:c>
-      <x:c r="AY64" s="23">
-        <x:v>0.75</x:v>
-      </x:c>
-      <x:c r="AZ64" s="23">
-        <x:v>0.75</x:v>
-      </x:c>
-      <x:c r="BA64" s="23">
-        <x:v>0.25</x:v>
-      </x:c>
-      <x:c r="BB64" s="23"/>
-      <x:c r="BC64" s="23"/>
-      <x:c r="BD64" s="76"/>
-      <x:c r="BE64" s="76"/>
-      <x:c r="BF64" s="23">
-        <x:v>0.75</x:v>
-      </x:c>
-      <x:c r="BG64" s="23">
-        <x:v>0.25</x:v>
-      </x:c>
-      <x:c r="BH64" s="23"/>
-      <x:c r="BI64" s="43"/>
-      <x:c r="BJ64" s="54"/>
+      <x:c r="A64" s="56" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B64" s="9">
+        <x:f>(C63-B63)*24</x:f>
+      </x:c>
+      <x:c r="C64" s="8"/>
+      <x:c r="D64" s="8">
+        <x:f>(E63-D63)*24</x:f>
+      </x:c>
+      <x:c r="E64" s="8"/>
+      <x:c r="F64" s="8">
+        <x:f>(G63-F63)*24</x:f>
+      </x:c>
+      <x:c r="G64" s="8"/>
+      <x:c r="H64" s="8">
+        <x:f>(I63-H63)*24</x:f>
+      </x:c>
+      <x:c r="I64" s="8"/>
+      <x:c r="J64" s="8">
+        <x:f>(K63-J63)*24</x:f>
+      </x:c>
+      <x:c r="K64" s="8"/>
+      <x:c r="L64" s="8">
+        <x:f>(M63-L63)*24</x:f>
+      </x:c>
+      <x:c r="M64" s="8"/>
+      <x:c r="N64" s="8">
+        <x:f>(O63-N63)*24</x:f>
+      </x:c>
+      <x:c r="O64" s="8"/>
+      <x:c r="P64" s="8">
+        <x:f>(Q63-P63)*24</x:f>
+      </x:c>
+      <x:c r="Q64" s="8"/>
+      <x:c r="R64" s="8">
+        <x:f>(S63-R63)*24</x:f>
+      </x:c>
+      <x:c r="S64" s="8"/>
+      <x:c r="T64" s="8">
+        <x:f>(U63-T63)*24</x:f>
+      </x:c>
+      <x:c r="U64" s="8"/>
+      <x:c r="V64" s="8">
+        <x:f>(W63-V63)*24</x:f>
+      </x:c>
+      <x:c r="W64" s="8"/>
+      <x:c r="X64" s="8">
+        <x:f>(Y63-X63)*24</x:f>
+      </x:c>
+      <x:c r="Y64" s="8"/>
+      <x:c r="Z64" s="8">
+        <x:f>(AA63-Z63)*24</x:f>
+      </x:c>
+      <x:c r="AA64" s="8"/>
+      <x:c r="AB64" s="8">
+        <x:f>(AC63-AB63)*24</x:f>
+      </x:c>
+      <x:c r="AC64" s="8"/>
+      <x:c r="AD64" s="8">
+        <x:f>(AE63-AD63)*24</x:f>
+      </x:c>
+      <x:c r="AE64" s="8"/>
+      <x:c r="AF64" s="8">
+        <x:f>(AG63-AF63)*24</x:f>
+      </x:c>
+      <x:c r="AG64" s="8"/>
+      <x:c r="AH64" s="8">
+        <x:f>(AI63-AH63)*24</x:f>
+      </x:c>
+      <x:c r="AI64" s="8"/>
+      <x:c r="AJ64" s="8">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="AK64" s="8"/>
+      <x:c r="AL64" s="8">
+        <x:f>(AM63-AL63)*24</x:f>
+      </x:c>
+      <x:c r="AM64" s="8"/>
+      <x:c r="AN64" s="8">
+        <x:f>(AO63-AN63)*24</x:f>
+      </x:c>
+      <x:c r="AO64" s="8"/>
+      <x:c r="AP64" s="8">
+        <x:f>(AQ63-AP63)*24</x:f>
+      </x:c>
+      <x:c r="AQ64" s="8"/>
+      <x:c r="AR64" s="8">
+        <x:f>(AS63-AR63)*24</x:f>
+      </x:c>
+      <x:c r="AS64" s="8"/>
+      <x:c r="AT64" s="8">
+        <x:f>(AU63-AT63)*24</x:f>
+      </x:c>
+      <x:c r="AU64" s="8"/>
+      <x:c r="AV64" s="8">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="AW64" s="8"/>
+      <x:c r="AX64" s="8">
+        <x:f>(AY63-AX63)*24</x:f>
+      </x:c>
+      <x:c r="AY64" s="8"/>
+      <x:c r="AZ64" s="8">
+        <x:f>(BA63-AZ63)*24</x:f>
+      </x:c>
+      <x:c r="BA64" s="8"/>
+      <x:c r="BB64" s="8">
+        <x:f>(BC63-BB63)*24</x:f>
+      </x:c>
+      <x:c r="BC64" s="8"/>
+      <x:c r="BD64" s="8">
+        <x:f>(BE63-BD63)*24</x:f>
+      </x:c>
+      <x:c r="BE64" s="8"/>
+      <x:c r="BF64" s="8">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="BG64" s="8"/>
+      <x:c r="BH64" s="8">
+        <x:f>(BI63-BH63)*24</x:f>
+      </x:c>
+      <x:c r="BI64" s="7"/>
+      <x:c r="BJ64" s="54">
+        <x:f>SUM(B64:BI64)</x:f>
+      </x:c>
+      <x:c r="BK64" s="20"/>
     </x:row>
     <x:row r="65" spans="1:63" ht="20.1" customHeight="1" x14ac:dyDescent="0.25">
-      <x:c r="A65" s="56" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="B65" s="9">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="C65" s="8"/>
-      <x:c r="D65" s="8">
-        <x:f>(E64-D64)*24</x:f>
-      </x:c>
-      <x:c r="E65" s="8"/>
-      <x:c r="F65" s="8">
-        <x:f>(G64-F64)*24</x:f>
-      </x:c>
-      <x:c r="G65" s="8"/>
-      <x:c r="H65" s="8">
-        <x:f>(I64-H64)*24</x:f>
-      </x:c>
-      <x:c r="I65" s="8"/>
-      <x:c r="J65" s="8">
-        <x:f>(K64-J64)*24</x:f>
-      </x:c>
-      <x:c r="K65" s="8"/>
-      <x:c r="L65" s="8">
-        <x:f>(M64-L64)*24</x:f>
-      </x:c>
-      <x:c r="M65" s="8"/>
-      <x:c r="N65" s="8">
-        <x:f>(O64-N64)*24</x:f>
-      </x:c>
-      <x:c r="O65" s="8"/>
-      <x:c r="P65" s="8">
-        <x:f>(Q64-P64)*24</x:f>
-      </x:c>
-      <x:c r="Q65" s="8"/>
-      <x:c r="R65" s="8">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="S65" s="8"/>
-      <x:c r="T65" s="8">
-        <x:f>(U64-T64)*24</x:f>
-      </x:c>
-      <x:c r="U65" s="8"/>
-      <x:c r="V65" s="8">
-        <x:f>(W64-V64)*24</x:f>
-      </x:c>
-      <x:c r="W65" s="8"/>
-      <x:c r="X65" s="8">
-        <x:f>(Y64-X64)*24</x:f>
-      </x:c>
-      <x:c r="Y65" s="8"/>
-      <x:c r="Z65" s="8">
-        <x:f>(AA64-Z64)*24</x:f>
-      </x:c>
-      <x:c r="AA65" s="8"/>
-      <x:c r="AB65" s="8">
-        <x:f>(AC64-AB64)*24</x:f>
-      </x:c>
-      <x:c r="AC65" s="8"/>
-      <x:c r="AD65" s="8">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="AE65" s="8"/>
-      <x:c r="AF65" s="8">
-        <x:f>(AG64-AF64)*24</x:f>
-      </x:c>
-      <x:c r="AG65" s="8"/>
-      <x:c r="AH65" s="8">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="AI65" s="8"/>
-      <x:c r="AJ65" s="8">
-        <x:f>(AK64-AJ64)*24</x:f>
-      </x:c>
-      <x:c r="AK65" s="8"/>
-      <x:c r="AL65" s="8">
-        <x:f>(AM64-AL64)*24</x:f>
-      </x:c>
-      <x:c r="AM65" s="8"/>
-      <x:c r="AN65" s="8">
-        <x:f>(AO64-AN64)*24</x:f>
-      </x:c>
-      <x:c r="AO65" s="8"/>
-      <x:c r="AP65" s="8">
-        <x:f>(AQ64-AP64)*24</x:f>
-      </x:c>
-      <x:c r="AQ65" s="8"/>
-      <x:c r="AR65" s="8">
-        <x:f>(AS64-AR64)*24</x:f>
-      </x:c>
-      <x:c r="AS65" s="8"/>
-      <x:c r="AT65" s="8">
-        <x:f>(AU64-AT64)*24</x:f>
-      </x:c>
-      <x:c r="AU65" s="8"/>
-      <x:c r="AV65" s="8">
-        <x:f>(AW64-AV64)*24</x:f>
-      </x:c>
-      <x:c r="AW65" s="8"/>
-      <x:c r="AX65" s="8">
-        <x:f>(AY64-AX64)*24</x:f>
-      </x:c>
-      <x:c r="AY65" s="8"/>
-      <x:c r="AZ65" s="8">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="BA65" s="8"/>
-      <x:c r="BB65" s="8">
-        <x:f>(BC64-BB64)*24</x:f>
-      </x:c>
-      <x:c r="BC65" s="8"/>
-      <x:c r="BD65" s="8">
-        <x:f>(BE64-BD64)*24</x:f>
-      </x:c>
-      <x:c r="BE65" s="8"/>
-      <x:c r="BF65" s="8">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="BG65" s="8"/>
-      <x:c r="BH65" s="8">
-        <x:f>(BI64-BH64)*24</x:f>
-      </x:c>
-      <x:c r="BI65" s="7"/>
-      <x:c r="BJ65" s="54">
-        <x:f>SUM(B65:BI65)</x:f>
-      </x:c>
+      <x:c r="A65" s="72" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="B65" s="22">
+        <x:v>0.75</x:v>
+      </x:c>
+      <x:c r="C65" s="23">
+        <x:v>0.25</x:v>
+      </x:c>
+      <x:c r="D65" s="74"/>
+      <x:c r="E65" s="74"/>
+      <x:c r="F65" s="75"/>
+      <x:c r="G65" s="75"/>
+      <x:c r="H65" s="23">
+        <x:v>0.25</x:v>
+      </x:c>
+      <x:c r="I65" s="23">
+        <x:v>0.75</x:v>
+      </x:c>
+      <x:c r="J65" s="23">
+        <x:v>0.25</x:v>
+      </x:c>
+      <x:c r="K65" s="23">
+        <x:v>0.75</x:v>
+      </x:c>
+      <x:c r="L65" s="23"/>
+      <x:c r="M65" s="23"/>
+      <x:c r="N65" s="76"/>
+      <x:c r="O65" s="76"/>
+      <x:c r="P65" s="23">
+        <x:v>0.25</x:v>
+      </x:c>
+      <x:c r="Q65" s="23">
+        <x:v>0.75</x:v>
+      </x:c>
+      <x:c r="R65" s="23">
+        <x:v>0.75</x:v>
+      </x:c>
+      <x:c r="S65" s="23">
+        <x:v>0.25</x:v>
+      </x:c>
+      <x:c r="T65" s="75"/>
+      <x:c r="U65" s="75"/>
+      <x:c r="V65" s="74"/>
+      <x:c r="W65" s="74"/>
+      <x:c r="X65" s="76"/>
+      <x:c r="Y65" s="76"/>
+      <x:c r="Z65" s="23">
+        <x:v>0.25</x:v>
+      </x:c>
+      <x:c r="AA65" s="23">
+        <x:v>0.75</x:v>
+      </x:c>
+      <x:c r="AB65" s="76"/>
+      <x:c r="AC65" s="76"/>
+      <x:c r="AD65" s="23">
+        <x:v>0.75</x:v>
+      </x:c>
+      <x:c r="AE65" s="23">
+        <x:v>0.25</x:v>
+      </x:c>
+      <x:c r="AF65" s="23"/>
+      <x:c r="AG65" s="23"/>
+      <x:c r="AH65" s="23">
+        <x:v>0.75</x:v>
+      </x:c>
+      <x:c r="AI65" s="23">
+        <x:v>0.25</x:v>
+      </x:c>
+      <x:c r="AJ65" s="75"/>
+      <x:c r="AK65" s="75"/>
+      <x:c r="AL65" s="23"/>
+      <x:c r="AM65" s="23"/>
+      <x:c r="AN65" s="23">
+        <x:v>0.25</x:v>
+      </x:c>
+      <x:c r="AO65" s="23">
+        <x:v>0.75</x:v>
+      </x:c>
+      <x:c r="AP65" s="23"/>
+      <x:c r="AQ65" s="23"/>
+      <x:c r="AR65" s="75"/>
+      <x:c r="AS65" s="75"/>
+      <x:c r="AT65" s="76"/>
+      <x:c r="AU65" s="76"/>
+      <x:c r="AV65" s="23">
+        <x:v>0.25</x:v>
+      </x:c>
+      <x:c r="AW65" s="23">
+        <x:v>0.75</x:v>
+      </x:c>
+      <x:c r="AX65" s="23">
+        <x:v>0.25</x:v>
+      </x:c>
+      <x:c r="AY65" s="23">
+        <x:v>0.75</x:v>
+      </x:c>
+      <x:c r="AZ65" s="23">
+        <x:v>0.75</x:v>
+      </x:c>
+      <x:c r="BA65" s="23">
+        <x:v>0.25</x:v>
+      </x:c>
+      <x:c r="BB65" s="23"/>
+      <x:c r="BC65" s="23"/>
+      <x:c r="BD65" s="76"/>
+      <x:c r="BE65" s="76"/>
+      <x:c r="BF65" s="23">
+        <x:v>0.75</x:v>
+      </x:c>
+      <x:c r="BG65" s="23">
+        <x:v>0.25</x:v>
+      </x:c>
+      <x:c r="BH65" s="23"/>
+      <x:c r="BI65" s="43"/>
+      <x:c r="BJ65" s="54"/>
     </x:row>
     <x:row r="66" spans="1:63" ht="20.1" customHeight="1" x14ac:dyDescent="0.25">
-      <x:c r="A66" s="72" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="B66" s="22">
-        <x:v>0.791666666666667</x:v>
-      </x:c>
-      <x:c r="C66" s="23">
-        <x:v>0.291666666666667</x:v>
-      </x:c>
-      <x:c r="D66" s="23"/>
-      <x:c r="E66" s="23"/>
-      <x:c r="F66" s="23">
-        <x:v>0.291666666666667</x:v>
-      </x:c>
-      <x:c r="G66" s="23">
-        <x:v>0.791666666666667</x:v>
-      </x:c>
-      <x:c r="H66" s="75"/>
-      <x:c r="I66" s="75"/>
-      <x:c r="J66" s="23">
-        <x:v>0.291666666666667</x:v>
-      </x:c>
-      <x:c r="K66" s="23">
-        <x:v>0.791666666666667</x:v>
-      </x:c>
-      <x:c r="L66" s="76"/>
-      <x:c r="M66" s="76"/>
-      <x:c r="N66" s="74"/>
-      <x:c r="O66" s="74"/>
-      <x:c r="P66" s="23">
-        <x:v>0.291666666666667</x:v>
-      </x:c>
-      <x:c r="Q66" s="23">
-        <x:v>0.791666666666667</x:v>
-      </x:c>
-      <x:c r="R66" s="23">
-        <x:v>0.791666666666667</x:v>
-      </x:c>
-      <x:c r="S66" s="23">
-        <x:v>0.291666666666667</x:v>
-      </x:c>
-      <x:c r="T66" s="23"/>
-      <x:c r="U66" s="23"/>
-      <x:c r="V66" s="74"/>
-      <x:c r="W66" s="74"/>
-      <x:c r="X66" s="23">
-        <x:v>0.291666666666667</x:v>
-      </x:c>
-      <x:c r="Y66" s="23">
-        <x:v>0.791666666666667</x:v>
-      </x:c>
-      <x:c r="Z66" s="23">
-        <x:v>0.791666666666667</x:v>
-      </x:c>
-      <x:c r="AA66" s="23">
-        <x:v>0.291666666666667</x:v>
-      </x:c>
-      <x:c r="AB66" s="23"/>
-      <x:c r="AC66" s="23"/>
-      <x:c r="AD66" s="75"/>
-      <x:c r="AE66" s="75"/>
-      <x:c r="AF66" s="23">
-        <x:v>0.291666666666667</x:v>
-      </x:c>
-      <x:c r="AG66" s="23">
-        <x:v>0.791666666666667</x:v>
-      </x:c>
-      <x:c r="AH66" s="75"/>
-      <x:c r="AI66" s="75"/>
-      <x:c r="AJ66" s="76"/>
-      <x:c r="AK66" s="76"/>
-      <x:c r="AL66" s="76"/>
-      <x:c r="AM66" s="76"/>
-      <x:c r="AN66" s="23">
-        <x:v>0.291666666666667</x:v>
-      </x:c>
-      <x:c r="AO66" s="23">
-        <x:v>0.791666666666667</x:v>
-      </x:c>
-      <x:c r="AP66" s="23">
-        <x:v>0.791666666666667</x:v>
-      </x:c>
-      <x:c r="AQ66" s="23">
-        <x:v>0.291666666666667</x:v>
-      </x:c>
-      <x:c r="AR66" s="23"/>
-      <x:c r="AS66" s="23"/>
-      <x:c r="AT66" s="76"/>
-      <x:c r="AU66" s="76"/>
-      <x:c r="AV66" s="75"/>
-      <x:c r="AW66" s="75"/>
-      <x:c r="AX66" s="23">
-        <x:v>0.791666666666667</x:v>
-      </x:c>
-      <x:c r="AY66" s="23">
-        <x:v>0.291666666666667</x:v>
-      </x:c>
-      <x:c r="AZ66" s="23"/>
-      <x:c r="BA66" s="23"/>
-      <x:c r="BB66" s="76"/>
-      <x:c r="BC66" s="76"/>
-      <x:c r="BD66" s="23">
-        <x:v>0.291666666666667</x:v>
-      </x:c>
-      <x:c r="BE66" s="23">
-        <x:v>0.791666666666667</x:v>
-      </x:c>
-      <x:c r="BF66" s="23">
-        <x:v>0.791666666666667</x:v>
-      </x:c>
-      <x:c r="BG66" s="23">
-        <x:v>0.291666666666667</x:v>
-      </x:c>
-      <x:c r="BH66" s="23"/>
-      <x:c r="BI66" s="43"/>
-      <x:c r="BJ66" s="54"/>
+      <x:c r="A66" s="56" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B66" s="9">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="C66" s="8"/>
+      <x:c r="D66" s="8">
+        <x:f>(E65-D65)*24</x:f>
+      </x:c>
+      <x:c r="E66" s="8"/>
+      <x:c r="F66" s="8">
+        <x:f>(G65-F65)*24</x:f>
+      </x:c>
+      <x:c r="G66" s="8"/>
+      <x:c r="H66" s="8">
+        <x:f>(I65-H65)*24</x:f>
+      </x:c>
+      <x:c r="I66" s="8"/>
+      <x:c r="J66" s="8">
+        <x:f>(K65-J65)*24</x:f>
+      </x:c>
+      <x:c r="K66" s="8"/>
+      <x:c r="L66" s="8">
+        <x:f>(M65-L65)*24</x:f>
+      </x:c>
+      <x:c r="M66" s="8"/>
+      <x:c r="N66" s="8">
+        <x:f>(O65-N65)*24</x:f>
+      </x:c>
+      <x:c r="O66" s="8"/>
+      <x:c r="P66" s="8">
+        <x:f>(Q65-P65)*24</x:f>
+      </x:c>
+      <x:c r="Q66" s="8"/>
+      <x:c r="R66" s="8">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="S66" s="8"/>
+      <x:c r="T66" s="8">
+        <x:f>(U65-T65)*24</x:f>
+      </x:c>
+      <x:c r="U66" s="8"/>
+      <x:c r="V66" s="8">
+        <x:f>(W65-V65)*24</x:f>
+      </x:c>
+      <x:c r="W66" s="8"/>
+      <x:c r="X66" s="8">
+        <x:f>(Y65-X65)*24</x:f>
+      </x:c>
+      <x:c r="Y66" s="8"/>
+      <x:c r="Z66" s="8">
+        <x:f>(AA65-Z65)*24</x:f>
+      </x:c>
+      <x:c r="AA66" s="8"/>
+      <x:c r="AB66" s="8">
+        <x:f>(AC65-AB65)*24</x:f>
+      </x:c>
+      <x:c r="AC66" s="8"/>
+      <x:c r="AD66" s="8">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="AE66" s="8"/>
+      <x:c r="AF66" s="8">
+        <x:f>(AG65-AF65)*24</x:f>
+      </x:c>
+      <x:c r="AG66" s="8"/>
+      <x:c r="AH66" s="8">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="AI66" s="8"/>
+      <x:c r="AJ66" s="8">
+        <x:f>(AK65-AJ65)*24</x:f>
+      </x:c>
+      <x:c r="AK66" s="8"/>
+      <x:c r="AL66" s="8">
+        <x:f>(AM65-AL65)*24</x:f>
+      </x:c>
+      <x:c r="AM66" s="8"/>
+      <x:c r="AN66" s="8">
+        <x:f>(AO65-AN65)*24</x:f>
+      </x:c>
+      <x:c r="AO66" s="8"/>
+      <x:c r="AP66" s="8">
+        <x:f>(AQ65-AP65)*24</x:f>
+      </x:c>
+      <x:c r="AQ66" s="8"/>
+      <x:c r="AR66" s="8">
+        <x:f>(AS65-AR65)*24</x:f>
+      </x:c>
+      <x:c r="AS66" s="8"/>
+      <x:c r="AT66" s="8">
+        <x:f>(AU65-AT65)*24</x:f>
+      </x:c>
+      <x:c r="AU66" s="8"/>
+      <x:c r="AV66" s="8">
+        <x:f>(AW65-AV65)*24</x:f>
+      </x:c>
+      <x:c r="AW66" s="8"/>
+      <x:c r="AX66" s="8">
+        <x:f>(AY65-AX65)*24</x:f>
+      </x:c>
+      <x:c r="AY66" s="8"/>
+      <x:c r="AZ66" s="8">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="BA66" s="8"/>
+      <x:c r="BB66" s="8">
+        <x:f>(BC65-BB65)*24</x:f>
+      </x:c>
+      <x:c r="BC66" s="8"/>
+      <x:c r="BD66" s="8">
+        <x:f>(BE65-BD65)*24</x:f>
+      </x:c>
+      <x:c r="BE66" s="8"/>
+      <x:c r="BF66" s="8">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="BG66" s="8"/>
+      <x:c r="BH66" s="8">
+        <x:f>(BI65-BH65)*24</x:f>
+      </x:c>
+      <x:c r="BI66" s="7"/>
+      <x:c r="BJ66" s="54">
+        <x:f>SUM(B66:BI66)</x:f>
+      </x:c>
     </x:row>
     <x:row r="67" spans="1:63" ht="20.1" customHeight="1" x14ac:dyDescent="0.25">
-      <x:c r="A67" s="56" t="s">
+      <x:c r="A67" s="72" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="B67" s="22">
+        <x:v>0.791666666666667</x:v>
+      </x:c>
+      <x:c r="C67" s="23">
+        <x:v>0.291666666666667</x:v>
+      </x:c>
+      <x:c r="D67" s="23"/>
+      <x:c r="E67" s="23"/>
+      <x:c r="F67" s="23">
+        <x:v>0.291666666666667</x:v>
+      </x:c>
+      <x:c r="G67" s="23">
+        <x:v>0.791666666666667</x:v>
+      </x:c>
+      <x:c r="H67" s="75"/>
+      <x:c r="I67" s="75"/>
+      <x:c r="J67" s="23">
+        <x:v>0.291666666666667</x:v>
+      </x:c>
+      <x:c r="K67" s="23">
+        <x:v>0.791666666666667</x:v>
+      </x:c>
+      <x:c r="L67" s="76"/>
+      <x:c r="M67" s="76"/>
+      <x:c r="N67" s="74"/>
+      <x:c r="O67" s="74"/>
+      <x:c r="P67" s="23">
+        <x:v>0.291666666666667</x:v>
+      </x:c>
+      <x:c r="Q67" s="23">
+        <x:v>0.791666666666667</x:v>
+      </x:c>
+      <x:c r="R67" s="23">
+        <x:v>0.791666666666667</x:v>
+      </x:c>
+      <x:c r="S67" s="23">
+        <x:v>0.291666666666667</x:v>
+      </x:c>
+      <x:c r="T67" s="23"/>
+      <x:c r="U67" s="23"/>
+      <x:c r="V67" s="74"/>
+      <x:c r="W67" s="74"/>
+      <x:c r="X67" s="23">
+        <x:v>0.291666666666667</x:v>
+      </x:c>
+      <x:c r="Y67" s="23">
+        <x:v>0.791666666666667</x:v>
+      </x:c>
+      <x:c r="Z67" s="23">
+        <x:v>0.791666666666667</x:v>
+      </x:c>
+      <x:c r="AA67" s="23">
+        <x:v>0.291666666666667</x:v>
+      </x:c>
+      <x:c r="AB67" s="23"/>
+      <x:c r="AC67" s="23"/>
+      <x:c r="AD67" s="75"/>
+      <x:c r="AE67" s="75"/>
+      <x:c r="AF67" s="23">
+        <x:v>0.291666666666667</x:v>
+      </x:c>
+      <x:c r="AG67" s="23">
+        <x:v>0.791666666666667</x:v>
+      </x:c>
+      <x:c r="AH67" s="75"/>
+      <x:c r="AI67" s="75"/>
+      <x:c r="AJ67" s="76"/>
+      <x:c r="AK67" s="76"/>
+      <x:c r="AL67" s="76"/>
+      <x:c r="AM67" s="76"/>
+      <x:c r="AN67" s="23">
+        <x:v>0.291666666666667</x:v>
+      </x:c>
+      <x:c r="AO67" s="23">
+        <x:v>0.791666666666667</x:v>
+      </x:c>
+      <x:c r="AP67" s="23">
+        <x:v>0.791666666666667</x:v>
+      </x:c>
+      <x:c r="AQ67" s="23">
+        <x:v>0.291666666666667</x:v>
+      </x:c>
+      <x:c r="AR67" s="23"/>
+      <x:c r="AS67" s="23"/>
+      <x:c r="AT67" s="76"/>
+      <x:c r="AU67" s="76"/>
+      <x:c r="AV67" s="75"/>
+      <x:c r="AW67" s="75"/>
+      <x:c r="AX67" s="23">
+        <x:v>0.791666666666667</x:v>
+      </x:c>
+      <x:c r="AY67" s="23">
+        <x:v>0.291666666666667</x:v>
+      </x:c>
+      <x:c r="AZ67" s="23"/>
+      <x:c r="BA67" s="23"/>
+      <x:c r="BB67" s="76"/>
+      <x:c r="BC67" s="76"/>
+      <x:c r="BD67" s="23">
+        <x:v>0.291666666666667</x:v>
+      </x:c>
+      <x:c r="BE67" s="23">
+        <x:v>0.791666666666667</x:v>
+      </x:c>
+      <x:c r="BF67" s="23">
+        <x:v>0.791666666666667</x:v>
+      </x:c>
+      <x:c r="BG67" s="23">
+        <x:v>0.291666666666667</x:v>
+      </x:c>
+      <x:c r="BH67" s="23"/>
+      <x:c r="BI67" s="43"/>
+      <x:c r="BJ67" s="54"/>
+    </x:row>
+    <x:row r="68" spans="1:63" ht="20.1" customHeight="1" x14ac:dyDescent="0.25">
+      <x:c r="A68" s="56" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="B67" s="9">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="C67" s="8"/>
-      <x:c r="D67" s="8">
-        <x:f>(E66-D66)*24</x:f>
-      </x:c>
-      <x:c r="E67" s="8"/>
-      <x:c r="F67" s="8">
-        <x:f>(G66-F66)*24</x:f>
-      </x:c>
-      <x:c r="G67" s="8"/>
-      <x:c r="H67" s="8">
-        <x:f>(I66-H66)*24</x:f>
-      </x:c>
-      <x:c r="I67" s="8"/>
-      <x:c r="J67" s="8">
-        <x:f>(K66-J66)*24</x:f>
-      </x:c>
-      <x:c r="K67" s="8"/>
-      <x:c r="L67" s="8">
-        <x:f>(M66-L66)*24</x:f>
-      </x:c>
-      <x:c r="M67" s="8"/>
-      <x:c r="N67" s="8">
-        <x:f>(O66-N66)*24</x:f>
-      </x:c>
-      <x:c r="O67" s="8"/>
-      <x:c r="P67" s="8">
-        <x:f>(Q66-P66)*24</x:f>
-      </x:c>
-      <x:c r="Q67" s="8"/>
-      <x:c r="R67" s="8">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="S67" s="8"/>
-      <x:c r="T67" s="8">
-        <x:f>(U66-T66)*24</x:f>
-      </x:c>
-      <x:c r="U67" s="8"/>
-      <x:c r="V67" s="8">
-        <x:f>(W66-V66)*24</x:f>
-      </x:c>
-      <x:c r="W67" s="8"/>
-      <x:c r="X67" s="8">
-        <x:f>(Y66-X66)*24</x:f>
-      </x:c>
-      <x:c r="Y67" s="8"/>
-      <x:c r="Z67" s="8">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="AA67" s="8"/>
-      <x:c r="AB67" s="8">
-        <x:f>(AC66-AB66)*24</x:f>
-      </x:c>
-      <x:c r="AC67" s="8"/>
-      <x:c r="AD67" s="8">
-        <x:f>(AE66-AD66)*24</x:f>
-      </x:c>
-      <x:c r="AE67" s="8"/>
-      <x:c r="AF67" s="8">
-        <x:f>(AG66-AF66)*24</x:f>
-      </x:c>
-      <x:c r="AG67" s="8"/>
-      <x:c r="AH67" s="8">
-        <x:f>(AI66-AH66)*24</x:f>
-      </x:c>
-      <x:c r="AI67" s="8"/>
-      <x:c r="AJ67" s="8">
-        <x:f>(AK66-AJ66)*24</x:f>
-      </x:c>
-      <x:c r="AK67" s="8"/>
-      <x:c r="AL67" s="8">
-        <x:f>(AM66-AL66)*24</x:f>
-      </x:c>
-      <x:c r="AM67" s="8"/>
-      <x:c r="AN67" s="8">
-        <x:f>(AO66-AN66)*24</x:f>
-      </x:c>
-      <x:c r="AO67" s="8"/>
-      <x:c r="AP67" s="8">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="AQ67" s="8"/>
-      <x:c r="AR67" s="8">
-        <x:f>(AS66-AR66)*24</x:f>
-      </x:c>
-      <x:c r="AS67" s="8"/>
-      <x:c r="AT67" s="8">
-        <x:f>(AU66-AT66)*24</x:f>
-      </x:c>
-      <x:c r="AU67" s="8"/>
-      <x:c r="AV67" s="8">
-        <x:f>(AW66-AV66)*24</x:f>
-      </x:c>
-      <x:c r="AW67" s="8"/>
-      <x:c r="AX67" s="8">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="AY67" s="8"/>
-      <x:c r="AZ67" s="8">
-        <x:f>(BA66-AZ66)*24</x:f>
-      </x:c>
-      <x:c r="BA67" s="8"/>
-      <x:c r="BB67" s="8">
-        <x:f>(BC66-BB66)*24</x:f>
-      </x:c>
-      <x:c r="BC67" s="8"/>
-      <x:c r="BD67" s="8">
-        <x:f>(BE66-BD66)*24</x:f>
-      </x:c>
-      <x:c r="BE67" s="8"/>
-      <x:c r="BF67" s="8">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="BG67" s="8"/>
-      <x:c r="BH67" s="8">
-        <x:f>(BI66-BH66)*24</x:f>
-      </x:c>
-      <x:c r="BI67" s="7"/>
-      <x:c r="BJ67" s="54">
-        <x:f>SUM(B67:BI67)</x:f>
+      <x:c r="B68" s="9">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="C68" s="8"/>
+      <x:c r="D68" s="8">
+        <x:f>(E67-D67)*24</x:f>
+      </x:c>
+      <x:c r="E68" s="8"/>
+      <x:c r="F68" s="8">
+        <x:f>(G67-F67)*24</x:f>
+      </x:c>
+      <x:c r="G68" s="8"/>
+      <x:c r="H68" s="8">
+        <x:f>(I67-H67)*24</x:f>
+      </x:c>
+      <x:c r="I68" s="8"/>
+      <x:c r="J68" s="8">
+        <x:f>(K67-J67)*24</x:f>
+      </x:c>
+      <x:c r="K68" s="8"/>
+      <x:c r="L68" s="8">
+        <x:f>(M67-L67)*24</x:f>
+      </x:c>
+      <x:c r="M68" s="8"/>
+      <x:c r="N68" s="8">
+        <x:f>(O67-N67)*24</x:f>
+      </x:c>
+      <x:c r="O68" s="8"/>
+      <x:c r="P68" s="8">
+        <x:f>(Q67-P67)*24</x:f>
+      </x:c>
+      <x:c r="Q68" s="8"/>
+      <x:c r="R68" s="8">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="S68" s="8"/>
+      <x:c r="T68" s="8">
+        <x:f>(U67-T67)*24</x:f>
+      </x:c>
+      <x:c r="U68" s="8"/>
+      <x:c r="V68" s="8">
+        <x:f>(W67-V67)*24</x:f>
+      </x:c>
+      <x:c r="W68" s="8"/>
+      <x:c r="X68" s="8">
+        <x:f>(Y67-X67)*24</x:f>
+      </x:c>
+      <x:c r="Y68" s="8"/>
+      <x:c r="Z68" s="8">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="AA68" s="8"/>
+      <x:c r="AB68" s="8">
+        <x:f>(AC67-AB67)*24</x:f>
+      </x:c>
+      <x:c r="AC68" s="8"/>
+      <x:c r="AD68" s="8">
+        <x:f>(AE67-AD67)*24</x:f>
+      </x:c>
+      <x:c r="AE68" s="8"/>
+      <x:c r="AF68" s="8">
+        <x:f>(AG67-AF67)*24</x:f>
+      </x:c>
+      <x:c r="AG68" s="8"/>
+      <x:c r="AH68" s="8">
+        <x:f>(AI67-AH67)*24</x:f>
+      </x:c>
+      <x:c r="AI68" s="8"/>
+      <x:c r="AJ68" s="8">
+        <x:f>(AK67-AJ67)*24</x:f>
+      </x:c>
+      <x:c r="AK68" s="8"/>
+      <x:c r="AL68" s="8">
+        <x:f>(AM67-AL67)*24</x:f>
+      </x:c>
+      <x:c r="AM68" s="8"/>
+      <x:c r="AN68" s="8">
+        <x:f>(AO67-AN67)*24</x:f>
+      </x:c>
+      <x:c r="AO68" s="8"/>
+      <x:c r="AP68" s="8">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="AQ68" s="8"/>
+      <x:c r="AR68" s="8">
+        <x:f>(AS67-AR67)*24</x:f>
+      </x:c>
+      <x:c r="AS68" s="8"/>
+      <x:c r="AT68" s="8">
+        <x:f>(AU67-AT67)*24</x:f>
+      </x:c>
+      <x:c r="AU68" s="8"/>
+      <x:c r="AV68" s="8">
+        <x:f>(AW67-AV67)*24</x:f>
+      </x:c>
+      <x:c r="AW68" s="8"/>
+      <x:c r="AX68" s="8">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="AY68" s="8"/>
+      <x:c r="AZ68" s="8">
+        <x:f>(BA67-AZ67)*24</x:f>
+      </x:c>
+      <x:c r="BA68" s="8"/>
+      <x:c r="BB68" s="8">
+        <x:f>(BC67-BB67)*24</x:f>
+      </x:c>
+      <x:c r="BC68" s="8"/>
+      <x:c r="BD68" s="8">
+        <x:f>(BE67-BD67)*24</x:f>
+      </x:c>
+      <x:c r="BE68" s="8"/>
+      <x:c r="BF68" s="8">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="BG68" s="8"/>
+      <x:c r="BH68" s="8">
+        <x:f>(BI67-BH67)*24</x:f>
+      </x:c>
+      <x:c r="BI68" s="7"/>
+      <x:c r="BJ68" s="54">
+        <x:f>SUM(B68:BI68)</x:f>
       </x:c>
     </x:row>
-    <x:row r="68" spans="1:63" ht="20.1" customHeight="1" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <x:c r="A68" s="72" t="s">
+    <x:row r="69" spans="1:63" ht="20.1" customHeight="1" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <x:c r="A69" s="72" t="s">
         <x:v>37</x:v>
       </x:c>
-      <x:c r="B68" s="22">
-        <x:v>0.291666666666667</x:v>
-      </x:c>
-      <x:c r="C68" s="23">
+      <x:c r="B69" s="22">
+        <x:v>0.291666666666667</x:v>
+      </x:c>
+      <x:c r="C69" s="23">
         <x:v>0.625</x:v>
       </x:c>
-      <x:c r="D68" s="75"/>
-      <x:c r="E68" s="75"/>
-      <x:c r="F68" s="23">
-        <x:v>0.791666666666667</x:v>
-      </x:c>
-      <x:c r="G68" s="23">
-        <x:v>0.291666666666667</x:v>
-      </x:c>
-      <x:c r="H68" s="76"/>
-      <x:c r="I68" s="76"/>
-      <x:c r="J68" s="74"/>
-      <x:c r="K68" s="74"/>
-      <x:c r="L68" s="23">
-        <x:v>0.791666666666667</x:v>
-      </x:c>
-      <x:c r="M68" s="23">
-        <x:v>0.291666666666667</x:v>
-      </x:c>
-      <x:c r="N68" s="23"/>
-      <x:c r="O68" s="23"/>
-      <x:c r="P68" s="74"/>
-      <x:c r="Q68" s="74"/>
-      <x:c r="R68" s="23">
-        <x:v>0.291666666666667</x:v>
-      </x:c>
-      <x:c r="S68" s="23">
-        <x:v>0.791666666666667</x:v>
-      </x:c>
-      <x:c r="T68" s="75"/>
-      <x:c r="U68" s="75"/>
-      <x:c r="V68" s="23">
-        <x:v>0.791666666666667</x:v>
-      </x:c>
-      <x:c r="W68" s="23">
-        <x:v>0.291666666666667</x:v>
-      </x:c>
-      <x:c r="X68" s="23"/>
-      <x:c r="Y68" s="23"/>
-      <x:c r="Z68" s="76"/>
-      <x:c r="AA68" s="76"/>
-      <x:c r="AB68" s="23">
-        <x:v>0.291666666666667</x:v>
-      </x:c>
-      <x:c r="AC68" s="23">
-        <x:v>0.791666666666667</x:v>
-      </x:c>
-      <x:c r="AD68" s="23">
-        <x:v>0.791666666666667</x:v>
-      </x:c>
-      <x:c r="AE68" s="23">
-        <x:v>0.291666666666667</x:v>
-      </x:c>
-      <x:c r="AF68" s="23"/>
-      <x:c r="AG68" s="23"/>
-      <x:c r="AH68" s="23">
-        <x:v>0.291666666666667</x:v>
-      </x:c>
-      <x:c r="AI68" s="23">
-        <x:v>0.791666666666667</x:v>
-      </x:c>
-      <x:c r="AJ68" s="23">
-        <x:v>0.291666666666667</x:v>
-      </x:c>
-      <x:c r="AK68" s="23">
-        <x:v>0.791666666666667</x:v>
-      </x:c>
-      <x:c r="AL68" s="76"/>
-      <x:c r="AM68" s="76"/>
-      <x:c r="AN68" s="75"/>
-      <x:c r="AO68" s="75"/>
-      <x:c r="AP68" s="23"/>
-      <x:c r="AQ68" s="23"/>
-      <x:c r="AR68" s="23">
-        <x:v>0.291666666666667</x:v>
-      </x:c>
-      <x:c r="AS68" s="23">
-        <x:v>0.791666666666667</x:v>
-      </x:c>
-      <x:c r="AT68" s="76"/>
-      <x:c r="AU68" s="76"/>
-      <x:c r="AV68" s="75"/>
-      <x:c r="AW68" s="75"/>
-      <x:c r="AX68" s="23"/>
-      <x:c r="AY68" s="23"/>
-      <x:c r="AZ68" s="23">
-        <x:v>0.291666666666667</x:v>
-      </x:c>
-      <x:c r="BA68" s="23">
-        <x:v>0.791666666666667</x:v>
-      </x:c>
-      <x:c r="BB68" s="76"/>
-      <x:c r="BC68" s="76"/>
-      <x:c r="BD68" s="23"/>
-      <x:c r="BE68" s="23"/>
-      <x:c r="BF68" s="23">
-        <x:v>0.291666666666667</x:v>
-      </x:c>
-      <x:c r="BG68" s="23">
-        <x:v>0.791666666666667</x:v>
-      </x:c>
-      <x:c r="BH68" s="23">
-        <x:v>0.291666666666667</x:v>
-      </x:c>
-      <x:c r="BI68" s="43">
-        <x:v>0.791666666666667</x:v>
-      </x:c>
-      <x:c r="BJ68" s="54"/>
-      <x:c r="BK68" s="21"/>
-    </x:row>
-    <x:row r="69" spans="1:63" ht="20.1" customHeight="1" x14ac:dyDescent="0.25">
-      <x:c r="A69" s="56" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="B69" s="9">
-        <x:f>(C68-B68)*24</x:f>
-      </x:c>
-      <x:c r="C69" s="8"/>
-      <x:c r="D69" s="8">
-        <x:f>(E68-D68)*24</x:f>
-      </x:c>
-      <x:c r="E69" s="8"/>
-      <x:c r="F69" s="8">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="G69" s="8"/>
-      <x:c r="H69" s="8">
-        <x:f>(I68-H68)*24</x:f>
-      </x:c>
-      <x:c r="I69" s="8"/>
-      <x:c r="J69" s="8">
-        <x:f>(K68-J68)*24</x:f>
-      </x:c>
-      <x:c r="K69" s="8"/>
-      <x:c r="L69" s="8">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="M69" s="8"/>
-      <x:c r="N69" s="8">
-        <x:f>(O68-N68)*24</x:f>
-      </x:c>
-      <x:c r="O69" s="8"/>
-      <x:c r="P69" s="8">
-        <x:f>(Q68-P68)*24</x:f>
-      </x:c>
-      <x:c r="Q69" s="8"/>
-      <x:c r="R69" s="8">
-        <x:f>(S68-R68)*24</x:f>
-      </x:c>
-      <x:c r="S69" s="8"/>
-      <x:c r="T69" s="8">
-        <x:f>(U68-T68)*24</x:f>
-      </x:c>
-      <x:c r="U69" s="8"/>
-      <x:c r="V69" s="8">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="W69" s="8"/>
-      <x:c r="X69" s="8">
-        <x:f>(Y68-X68)*24</x:f>
-      </x:c>
-      <x:c r="Y69" s="8"/>
-      <x:c r="Z69" s="8">
-        <x:f>(AA68-Z68)*24</x:f>
-      </x:c>
-      <x:c r="AA69" s="8"/>
-      <x:c r="AB69" s="8">
-        <x:f>(AC68-AB68)*24</x:f>
-      </x:c>
-      <x:c r="AC69" s="8"/>
-      <x:c r="AD69" s="8">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="AE69" s="8"/>
-      <x:c r="AF69" s="8">
-        <x:f>(AG68-AF68)*24</x:f>
-      </x:c>
-      <x:c r="AG69" s="8"/>
-      <x:c r="AH69" s="8">
-        <x:f>(AI68-AH68)*24</x:f>
-      </x:c>
-      <x:c r="AI69" s="8"/>
-      <x:c r="AJ69" s="8">
-        <x:f>(AK68-AJ68)*24</x:f>
-      </x:c>
-      <x:c r="AK69" s="8"/>
-      <x:c r="AL69" s="8">
-        <x:f>(AM68-AL68)*24</x:f>
-      </x:c>
-      <x:c r="AM69" s="8"/>
-      <x:c r="AN69" s="8">
-        <x:f>(AO68-AN68)*24</x:f>
-      </x:c>
-      <x:c r="AO69" s="8"/>
-      <x:c r="AP69" s="8">
-        <x:f>(AQ68-AP68)*24</x:f>
-      </x:c>
-      <x:c r="AQ69" s="8"/>
-      <x:c r="AR69" s="8">
-        <x:f>(AS68-AR68)*24</x:f>
-      </x:c>
-      <x:c r="AS69" s="8"/>
-      <x:c r="AT69" s="8">
-        <x:f>(AU68-AT68)*24</x:f>
-      </x:c>
-      <x:c r="AU69" s="8"/>
-      <x:c r="AV69" s="8">
-        <x:f>(AW68-AV68)*24</x:f>
-      </x:c>
-      <x:c r="AW69" s="8"/>
-      <x:c r="AX69" s="8">
-        <x:f>(AY68-AX68)*24</x:f>
-      </x:c>
-      <x:c r="AY69" s="8"/>
-      <x:c r="AZ69" s="8">
-        <x:f>(BA68-AZ68)*24</x:f>
-      </x:c>
-      <x:c r="BA69" s="8"/>
-      <x:c r="BB69" s="8">
-        <x:f>(BC68-BB68)*24</x:f>
-      </x:c>
-      <x:c r="BC69" s="8"/>
-      <x:c r="BD69" s="8">
-        <x:f>(BE68-BD68)*24</x:f>
-      </x:c>
-      <x:c r="BE69" s="8"/>
-      <x:c r="BF69" s="8">
-        <x:f>(BG68-BF68)*24</x:f>
-      </x:c>
-      <x:c r="BG69" s="8"/>
-      <x:c r="BH69" s="8">
-        <x:f>(BI68-BH68)*24</x:f>
-      </x:c>
-      <x:c r="BI69" s="7"/>
-      <x:c r="BJ69" s="54">
-        <x:f>SUM(B69:BI69)</x:f>
-      </x:c>
-      <x:c r="BK69" s="20"/>
+      <x:c r="D69" s="75"/>
+      <x:c r="E69" s="75"/>
+      <x:c r="F69" s="23">
+        <x:v>0.791666666666667</x:v>
+      </x:c>
+      <x:c r="G69" s="23">
+        <x:v>0.291666666666667</x:v>
+      </x:c>
+      <x:c r="H69" s="76"/>
+      <x:c r="I69" s="76"/>
+      <x:c r="J69" s="74"/>
+      <x:c r="K69" s="74"/>
+      <x:c r="L69" s="23">
+        <x:v>0.791666666666667</x:v>
+      </x:c>
+      <x:c r="M69" s="23">
+        <x:v>0.291666666666667</x:v>
+      </x:c>
+      <x:c r="N69" s="23"/>
+      <x:c r="O69" s="23"/>
+      <x:c r="P69" s="74"/>
+      <x:c r="Q69" s="74"/>
+      <x:c r="R69" s="23">
+        <x:v>0.291666666666667</x:v>
+      </x:c>
+      <x:c r="S69" s="23">
+        <x:v>0.791666666666667</x:v>
+      </x:c>
+      <x:c r="T69" s="75"/>
+      <x:c r="U69" s="75"/>
+      <x:c r="V69" s="23">
+        <x:v>0.791666666666667</x:v>
+      </x:c>
+      <x:c r="W69" s="23">
+        <x:v>0.291666666666667</x:v>
+      </x:c>
+      <x:c r="X69" s="23"/>
+      <x:c r="Y69" s="23"/>
+      <x:c r="Z69" s="76"/>
+      <x:c r="AA69" s="76"/>
+      <x:c r="AB69" s="23">
+        <x:v>0.291666666666667</x:v>
+      </x:c>
+      <x:c r="AC69" s="23">
+        <x:v>0.791666666666667</x:v>
+      </x:c>
+      <x:c r="AD69" s="23">
+        <x:v>0.791666666666667</x:v>
+      </x:c>
+      <x:c r="AE69" s="23">
+        <x:v>0.291666666666667</x:v>
+      </x:c>
+      <x:c r="AF69" s="23"/>
+      <x:c r="AG69" s="23"/>
+      <x:c r="AH69" s="23">
+        <x:v>0.291666666666667</x:v>
+      </x:c>
+      <x:c r="AI69" s="23">
+        <x:v>0.791666666666667</x:v>
+      </x:c>
+      <x:c r="AJ69" s="23">
+        <x:v>0.291666666666667</x:v>
+      </x:c>
+      <x:c r="AK69" s="23">
+        <x:v>0.791666666666667</x:v>
+      </x:c>
+      <x:c r="AL69" s="76"/>
+      <x:c r="AM69" s="76"/>
+      <x:c r="AN69" s="75"/>
+      <x:c r="AO69" s="75"/>
+      <x:c r="AP69" s="23"/>
+      <x:c r="AQ69" s="23"/>
+      <x:c r="AR69" s="23">
+        <x:v>0.291666666666667</x:v>
+      </x:c>
+      <x:c r="AS69" s="23">
+        <x:v>0.791666666666667</x:v>
+      </x:c>
+      <x:c r="AT69" s="76"/>
+      <x:c r="AU69" s="76"/>
+      <x:c r="AV69" s="75"/>
+      <x:c r="AW69" s="75"/>
+      <x:c r="AX69" s="23"/>
+      <x:c r="AY69" s="23"/>
+      <x:c r="AZ69" s="23">
+        <x:v>0.291666666666667</x:v>
+      </x:c>
+      <x:c r="BA69" s="23">
+        <x:v>0.791666666666667</x:v>
+      </x:c>
+      <x:c r="BB69" s="76"/>
+      <x:c r="BC69" s="76"/>
+      <x:c r="BD69" s="23"/>
+      <x:c r="BE69" s="23"/>
+      <x:c r="BF69" s="23">
+        <x:v>0.291666666666667</x:v>
+      </x:c>
+      <x:c r="BG69" s="23">
+        <x:v>0.791666666666667</x:v>
+      </x:c>
+      <x:c r="BH69" s="23">
+        <x:v>0.291666666666667</x:v>
+      </x:c>
+      <x:c r="BI69" s="43">
+        <x:v>0.791666666666667</x:v>
+      </x:c>
+      <x:c r="BJ69" s="54"/>
+      <x:c r="BK69" s="21"/>
     </x:row>
     <x:row r="70" spans="1:63" ht="20.1" customHeight="1" x14ac:dyDescent="0.25">
-      <x:c r="A70" s="72" t="s">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="B70" s="73"/>
-      <x:c r="C70" s="74"/>
-      <x:c r="D70" s="76"/>
-      <x:c r="E70" s="76"/>
-      <x:c r="F70" s="75"/>
-      <x:c r="G70" s="75"/>
-      <x:c r="H70" s="23">
-        <x:v>0.291666666666667</x:v>
-      </x:c>
-      <x:c r="I70" s="23">
-        <x:v>0.625</x:v>
-      </x:c>
-      <x:c r="J70" s="23">
-        <x:v>0.291666666666667</x:v>
-      </x:c>
-      <x:c r="K70" s="23">
-        <x:v>0.625</x:v>
-      </x:c>
-      <x:c r="L70" s="23">
-        <x:v>0.291666666666667</x:v>
-      </x:c>
-      <x:c r="M70" s="23">
-        <x:v>0.625</x:v>
-      </x:c>
-      <x:c r="N70" s="23">
-        <x:v>0.291666666666667</x:v>
-      </x:c>
-      <x:c r="O70" s="23">
-        <x:v>0.625</x:v>
-      </x:c>
-      <x:c r="P70" s="23">
-        <x:v>0.291666666666667</x:v>
-      </x:c>
-      <x:c r="Q70" s="23">
-        <x:v>0.625</x:v>
-      </x:c>
-      <x:c r="R70" s="76"/>
-      <x:c r="S70" s="76"/>
-      <x:c r="T70" s="75"/>
-      <x:c r="U70" s="75"/>
-      <x:c r="V70" s="74"/>
-      <x:c r="W70" s="74"/>
-      <x:c r="X70" s="23">
-        <x:v>0.291666666666667</x:v>
-      </x:c>
-      <x:c r="Y70" s="23">
-        <x:v>0.625</x:v>
-      </x:c>
-      <x:c r="Z70" s="23">
-        <x:v>0.291666666666667</x:v>
-      </x:c>
-      <x:c r="AA70" s="23">
-        <x:v>0.625</x:v>
-      </x:c>
-      <x:c r="AB70" s="23">
-        <x:v>0.291666666666667</x:v>
-      </x:c>
-      <x:c r="AC70" s="23">
-        <x:v>0.625</x:v>
-      </x:c>
-      <x:c r="AD70" s="23">
-        <x:v>0.291666666666667</x:v>
-      </x:c>
-      <x:c r="AE70" s="23">
-        <x:v>0.625</x:v>
-      </x:c>
-      <x:c r="AF70" s="76"/>
-      <x:c r="AG70" s="76"/>
-      <x:c r="AH70" s="75"/>
-      <x:c r="AI70" s="75"/>
-      <x:c r="AJ70" s="23">
-        <x:v>0.291666666666667</x:v>
-      </x:c>
-      <x:c r="AK70" s="23">
-        <x:v>0.625</x:v>
-      </x:c>
-      <x:c r="AL70" s="23">
-        <x:v>0.291666666666667</x:v>
-      </x:c>
-      <x:c r="AM70" s="23">
-        <x:v>0.625</x:v>
-      </x:c>
-      <x:c r="AN70" s="23">
-        <x:v>0.291666666666667</x:v>
-      </x:c>
-      <x:c r="AO70" s="23">
-        <x:v>0.625</x:v>
-      </x:c>
-      <x:c r="AP70" s="23">
-        <x:v>0.291666666666667</x:v>
-      </x:c>
-      <x:c r="AQ70" s="23">
-        <x:v>0.625</x:v>
-      </x:c>
-      <x:c r="AR70" s="23">
-        <x:v>0.291666666666667</x:v>
-      </x:c>
-      <x:c r="AS70" s="23">
-        <x:v>0.625</x:v>
-      </x:c>
-      <x:c r="AT70" s="76"/>
-      <x:c r="AU70" s="76"/>
-      <x:c r="AV70" s="75"/>
-      <x:c r="AW70" s="75"/>
-      <x:c r="AX70" s="23">
-        <x:v>0.291666666666667</x:v>
-      </x:c>
-      <x:c r="AY70" s="23">
-        <x:v>0.625</x:v>
-      </x:c>
-      <x:c r="AZ70" s="23">
-        <x:v>0.291666666666667</x:v>
-      </x:c>
-      <x:c r="BA70" s="23">
-        <x:v>0.625</x:v>
-      </x:c>
-      <x:c r="BB70" s="23">
-        <x:v>0.291666666666667</x:v>
-      </x:c>
-      <x:c r="BC70" s="23">
-        <x:v>0.625</x:v>
-      </x:c>
-      <x:c r="BD70" s="23">
-        <x:v>0.291666666666667</x:v>
-      </x:c>
-      <x:c r="BE70" s="23">
-        <x:v>0.625</x:v>
-      </x:c>
-      <x:c r="BF70" s="23">
-        <x:v>0.291666666666667</x:v>
-      </x:c>
-      <x:c r="BG70" s="23">
-        <x:v>0.625</x:v>
-      </x:c>
-      <x:c r="BH70" s="76"/>
-      <x:c r="BI70" s="79"/>
-      <x:c r="BJ70" s="54"/>
+      <x:c r="A70" s="56" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B70" s="9">
+        <x:f>(C69-B69)*24</x:f>
+      </x:c>
+      <x:c r="C70" s="8"/>
+      <x:c r="D70" s="8">
+        <x:f>(E69-D69)*24</x:f>
+      </x:c>
+      <x:c r="E70" s="8"/>
+      <x:c r="F70" s="8">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="G70" s="8"/>
+      <x:c r="H70" s="8">
+        <x:f>(I69-H69)*24</x:f>
+      </x:c>
+      <x:c r="I70" s="8"/>
+      <x:c r="J70" s="8">
+        <x:f>(K69-J69)*24</x:f>
+      </x:c>
+      <x:c r="K70" s="8"/>
+      <x:c r="L70" s="8">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="M70" s="8"/>
+      <x:c r="N70" s="8">
+        <x:f>(O69-N69)*24</x:f>
+      </x:c>
+      <x:c r="O70" s="8"/>
+      <x:c r="P70" s="8">
+        <x:f>(Q69-P69)*24</x:f>
+      </x:c>
+      <x:c r="Q70" s="8"/>
+      <x:c r="R70" s="8">
+        <x:f>(S69-R69)*24</x:f>
+      </x:c>
+      <x:c r="S70" s="8"/>
+      <x:c r="T70" s="8">
+        <x:f>(U69-T69)*24</x:f>
+      </x:c>
+      <x:c r="U70" s="8"/>
+      <x:c r="V70" s="8">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="W70" s="8"/>
+      <x:c r="X70" s="8">
+        <x:f>(Y69-X69)*24</x:f>
+      </x:c>
+      <x:c r="Y70" s="8"/>
+      <x:c r="Z70" s="8">
+        <x:f>(AA69-Z69)*24</x:f>
+      </x:c>
+      <x:c r="AA70" s="8"/>
+      <x:c r="AB70" s="8">
+        <x:f>(AC69-AB69)*24</x:f>
+      </x:c>
+      <x:c r="AC70" s="8"/>
+      <x:c r="AD70" s="8">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="AE70" s="8"/>
+      <x:c r="AF70" s="8">
+        <x:f>(AG69-AF69)*24</x:f>
+      </x:c>
+      <x:c r="AG70" s="8"/>
+      <x:c r="AH70" s="8">
+        <x:f>(AI69-AH69)*24</x:f>
+      </x:c>
+      <x:c r="AI70" s="8"/>
+      <x:c r="AJ70" s="8">
+        <x:f>(AK69-AJ69)*24</x:f>
+      </x:c>
+      <x:c r="AK70" s="8"/>
+      <x:c r="AL70" s="8">
+        <x:f>(AM69-AL69)*24</x:f>
+      </x:c>
+      <x:c r="AM70" s="8"/>
+      <x:c r="AN70" s="8">
+        <x:f>(AO69-AN69)*24</x:f>
+      </x:c>
+      <x:c r="AO70" s="8"/>
+      <x:c r="AP70" s="8">
+        <x:f>(AQ69-AP69)*24</x:f>
+      </x:c>
+      <x:c r="AQ70" s="8"/>
+      <x:c r="AR70" s="8">
+        <x:f>(AS69-AR69)*24</x:f>
+      </x:c>
+      <x:c r="AS70" s="8"/>
+      <x:c r="AT70" s="8">
+        <x:f>(AU69-AT69)*24</x:f>
+      </x:c>
+      <x:c r="AU70" s="8"/>
+      <x:c r="AV70" s="8">
+        <x:f>(AW69-AV69)*24</x:f>
+      </x:c>
+      <x:c r="AW70" s="8"/>
+      <x:c r="AX70" s="8">
+        <x:f>(AY69-AX69)*24</x:f>
+      </x:c>
+      <x:c r="AY70" s="8"/>
+      <x:c r="AZ70" s="8">
+        <x:f>(BA69-AZ69)*24</x:f>
+      </x:c>
+      <x:c r="BA70" s="8"/>
+      <x:c r="BB70" s="8">
+        <x:f>(BC69-BB69)*24</x:f>
+      </x:c>
+      <x:c r="BC70" s="8"/>
+      <x:c r="BD70" s="8">
+        <x:f>(BE69-BD69)*24</x:f>
+      </x:c>
+      <x:c r="BE70" s="8"/>
+      <x:c r="BF70" s="8">
+        <x:f>(BG69-BF69)*24</x:f>
+      </x:c>
+      <x:c r="BG70" s="8"/>
+      <x:c r="BH70" s="8">
+        <x:f>(BI69-BH69)*24</x:f>
+      </x:c>
+      <x:c r="BI70" s="7"/>
+      <x:c r="BJ70" s="54">
+        <x:f>SUM(B70:BI70)</x:f>
+      </x:c>
       <x:c r="BK70" s="20"/>
     </x:row>
-    <x:row r="71" spans="1:63" ht="20.1" customHeight="1" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <x:c r="A71" s="47" t="s">
+    <x:row r="71" spans="1:63" ht="20.1" customHeight="1" x14ac:dyDescent="0.25">
+      <x:c r="A71" s="72" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="B71" s="73"/>
+      <x:c r="C71" s="74"/>
+      <x:c r="D71" s="76"/>
+      <x:c r="E71" s="76"/>
+      <x:c r="F71" s="75"/>
+      <x:c r="G71" s="75"/>
+      <x:c r="H71" s="23">
+        <x:v>0.291666666666667</x:v>
+      </x:c>
+      <x:c r="I71" s="23">
+        <x:v>0.625</x:v>
+      </x:c>
+      <x:c r="J71" s="23">
+        <x:v>0.291666666666667</x:v>
+      </x:c>
+      <x:c r="K71" s="23">
+        <x:v>0.625</x:v>
+      </x:c>
+      <x:c r="L71" s="23">
+        <x:v>0.291666666666667</x:v>
+      </x:c>
+      <x:c r="M71" s="23">
+        <x:v>0.625</x:v>
+      </x:c>
+      <x:c r="N71" s="23">
+        <x:v>0.291666666666667</x:v>
+      </x:c>
+      <x:c r="O71" s="23">
+        <x:v>0.625</x:v>
+      </x:c>
+      <x:c r="P71" s="23">
+        <x:v>0.291666666666667</x:v>
+      </x:c>
+      <x:c r="Q71" s="23">
+        <x:v>0.625</x:v>
+      </x:c>
+      <x:c r="R71" s="76"/>
+      <x:c r="S71" s="76"/>
+      <x:c r="T71" s="75"/>
+      <x:c r="U71" s="75"/>
+      <x:c r="V71" s="74"/>
+      <x:c r="W71" s="74"/>
+      <x:c r="X71" s="23">
+        <x:v>0.291666666666667</x:v>
+      </x:c>
+      <x:c r="Y71" s="23">
+        <x:v>0.625</x:v>
+      </x:c>
+      <x:c r="Z71" s="23">
+        <x:v>0.291666666666667</x:v>
+      </x:c>
+      <x:c r="AA71" s="23">
+        <x:v>0.625</x:v>
+      </x:c>
+      <x:c r="AB71" s="23">
+        <x:v>0.291666666666667</x:v>
+      </x:c>
+      <x:c r="AC71" s="23">
+        <x:v>0.625</x:v>
+      </x:c>
+      <x:c r="AD71" s="23">
+        <x:v>0.291666666666667</x:v>
+      </x:c>
+      <x:c r="AE71" s="23">
+        <x:v>0.625</x:v>
+      </x:c>
+      <x:c r="AF71" s="76"/>
+      <x:c r="AG71" s="76"/>
+      <x:c r="AH71" s="75"/>
+      <x:c r="AI71" s="75"/>
+      <x:c r="AJ71" s="23">
+        <x:v>0.291666666666667</x:v>
+      </x:c>
+      <x:c r="AK71" s="23">
+        <x:v>0.625</x:v>
+      </x:c>
+      <x:c r="AL71" s="23">
+        <x:v>0.291666666666667</x:v>
+      </x:c>
+      <x:c r="AM71" s="23">
+        <x:v>0.625</x:v>
+      </x:c>
+      <x:c r="AN71" s="23">
+        <x:v>0.291666666666667</x:v>
+      </x:c>
+      <x:c r="AO71" s="23">
+        <x:v>0.625</x:v>
+      </x:c>
+      <x:c r="AP71" s="23">
+        <x:v>0.291666666666667</x:v>
+      </x:c>
+      <x:c r="AQ71" s="23">
+        <x:v>0.625</x:v>
+      </x:c>
+      <x:c r="AR71" s="23">
+        <x:v>0.291666666666667</x:v>
+      </x:c>
+      <x:c r="AS71" s="23">
+        <x:v>0.625</x:v>
+      </x:c>
+      <x:c r="AT71" s="76"/>
+      <x:c r="AU71" s="76"/>
+      <x:c r="AV71" s="75"/>
+      <x:c r="AW71" s="75"/>
+      <x:c r="AX71" s="23">
+        <x:v>0.291666666666667</x:v>
+      </x:c>
+      <x:c r="AY71" s="23">
+        <x:v>0.625</x:v>
+      </x:c>
+      <x:c r="AZ71" s="23">
+        <x:v>0.291666666666667</x:v>
+      </x:c>
+      <x:c r="BA71" s="23">
+        <x:v>0.625</x:v>
+      </x:c>
+      <x:c r="BB71" s="23">
+        <x:v>0.291666666666667</x:v>
+      </x:c>
+      <x:c r="BC71" s="23">
+        <x:v>0.625</x:v>
+      </x:c>
+      <x:c r="BD71" s="23">
+        <x:v>0.291666666666667</x:v>
+      </x:c>
+      <x:c r="BE71" s="23">
+        <x:v>0.625</x:v>
+      </x:c>
+      <x:c r="BF71" s="23">
+        <x:v>0.291666666666667</x:v>
+      </x:c>
+      <x:c r="BG71" s="23">
+        <x:v>0.625</x:v>
+      </x:c>
+      <x:c r="BH71" s="76"/>
+      <x:c r="BI71" s="79"/>
+      <x:c r="BJ71" s="54"/>
+      <x:c r="BK71" s="20"/>
+    </x:row>
+    <x:row r="72" spans="1:63" ht="20.1" customHeight="1" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <x:c r="A72" s="47" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="B71" s="6">
-        <x:f>(C70-B70)*24</x:f>
-      </x:c>
-      <x:c r="C71" s="5"/>
-      <x:c r="D71" s="5">
-        <x:f>(E70-D70)*24</x:f>
-      </x:c>
-      <x:c r="E71" s="5"/>
-      <x:c r="F71" s="5">
-        <x:f>(G70-F70)*24</x:f>
-      </x:c>
-      <x:c r="G71" s="5"/>
-      <x:c r="H71" s="5">
-        <x:f>(I70-H70)*24</x:f>
-      </x:c>
-      <x:c r="I71" s="5"/>
-      <x:c r="J71" s="5">
-        <x:f>(K70-J70)*24</x:f>
-      </x:c>
-      <x:c r="K71" s="5"/>
-      <x:c r="L71" s="5">
-        <x:f>(M70-L70)*24</x:f>
-      </x:c>
-      <x:c r="M71" s="5"/>
-      <x:c r="N71" s="5">
-        <x:f>(O70-N70)*24</x:f>
-      </x:c>
-      <x:c r="O71" s="5"/>
-      <x:c r="P71" s="5">
-        <x:f>(Q70-P70)*24</x:f>
-      </x:c>
-      <x:c r="Q71" s="5"/>
-      <x:c r="R71" s="5">
-        <x:f>(S70-R70)*24</x:f>
-      </x:c>
-      <x:c r="S71" s="5"/>
-      <x:c r="T71" s="5">
-        <x:f>(U70-T70)*24</x:f>
-      </x:c>
-      <x:c r="U71" s="5"/>
-      <x:c r="V71" s="5">
-        <x:f>(W70-V70)*24</x:f>
-      </x:c>
-      <x:c r="W71" s="5"/>
-      <x:c r="X71" s="5">
-        <x:f>(Y70-X70)*24</x:f>
-      </x:c>
-      <x:c r="Y71" s="5"/>
-      <x:c r="Z71" s="5">
-        <x:f>(AA70-Z70)*24</x:f>
-      </x:c>
-      <x:c r="AA71" s="5"/>
-      <x:c r="AB71" s="5">
-        <x:f>(AC70-AB70)*24</x:f>
-      </x:c>
-      <x:c r="AC71" s="5"/>
-      <x:c r="AD71" s="5">
-        <x:f>(AE70-AD70)*24</x:f>
-      </x:c>
-      <x:c r="AE71" s="5"/>
-      <x:c r="AF71" s="5">
-        <x:f>(AG70-AF70)*24</x:f>
-      </x:c>
-      <x:c r="AG71" s="5"/>
-      <x:c r="AH71" s="5">
-        <x:f>(AI70-AH70)*24</x:f>
-      </x:c>
-      <x:c r="AI71" s="5"/>
-      <x:c r="AJ71" s="5">
-        <x:f>(AK70-AJ70)*24</x:f>
-      </x:c>
-      <x:c r="AK71" s="5"/>
-      <x:c r="AL71" s="5">
-        <x:f>(AM70-AL70)*24</x:f>
-      </x:c>
-      <x:c r="AM71" s="5"/>
-      <x:c r="AN71" s="5">
-        <x:f>(AO70-AN70)*24</x:f>
-      </x:c>
-      <x:c r="AO71" s="5"/>
-      <x:c r="AP71" s="5">
-        <x:f>(AQ70-AP70)*24</x:f>
-      </x:c>
-      <x:c r="AQ71" s="5"/>
-      <x:c r="AR71" s="5">
-        <x:f>(AS70-AR70)*24</x:f>
-      </x:c>
-      <x:c r="AS71" s="5"/>
-      <x:c r="AT71" s="5">
-        <x:f>(AU70-AT70)*24</x:f>
-      </x:c>
-      <x:c r="AU71" s="5"/>
-      <x:c r="AV71" s="5">
-        <x:f>(AW70-AV70)*24</x:f>
-      </x:c>
-      <x:c r="AW71" s="5"/>
-      <x:c r="AX71" s="5">
-        <x:f>(AY70-AX70)*24</x:f>
-      </x:c>
-      <x:c r="AY71" s="5"/>
-      <x:c r="AZ71" s="5">
-        <x:f>(BA70-AZ70)*24</x:f>
-      </x:c>
-      <x:c r="BA71" s="5"/>
-      <x:c r="BB71" s="5">
-        <x:f>(BC70-BB70)*24</x:f>
-      </x:c>
-      <x:c r="BC71" s="5"/>
-      <x:c r="BD71" s="5">
-        <x:f>(BE70-BD70)*24</x:f>
-      </x:c>
-      <x:c r="BE71" s="5"/>
-      <x:c r="BF71" s="5">
-        <x:f>(BG70-BF70)*24</x:f>
-      </x:c>
-      <x:c r="BG71" s="5"/>
-      <x:c r="BH71" s="5">
-        <x:f>(BI70-BH70)*24</x:f>
-      </x:c>
-      <x:c r="BI71" s="4"/>
-      <x:c r="BJ71" s="59">
-        <x:f>SUM(B71:BI71)</x:f>
-      </x:c>
-      <x:c r="BK71" s="21"/>
-    </x:row>
-    <x:row r="72" spans="1:63" ht="20.1" customHeight="1" x14ac:dyDescent="0.25">
-      <x:c r="A72" s="81" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="B72" s="58"/>
-      <x:c r="C72" s="41"/>
-      <x:c r="D72" s="41">
-        <x:v>0.291666666666667</x:v>
-      </x:c>
-      <x:c r="E72" s="41">
-        <x:v>0.791666666666667</x:v>
-      </x:c>
-      <x:c r="F72" s="41"/>
-      <x:c r="G72" s="41"/>
-      <x:c r="H72" s="41">
-        <x:v>0.291666666666667</x:v>
-      </x:c>
-      <x:c r="I72" s="41">
-        <x:v>0.791666666666667</x:v>
-      </x:c>
-      <x:c r="J72" s="41"/>
-      <x:c r="K72" s="41"/>
-      <x:c r="L72" s="41">
-        <x:v>0.291666666666667</x:v>
-      </x:c>
-      <x:c r="M72" s="41">
-        <x:v>0.791666666666667</x:v>
-      </x:c>
-      <x:c r="N72" s="41"/>
-      <x:c r="O72" s="41"/>
-      <x:c r="P72" s="41"/>
-      <x:c r="Q72" s="41"/>
-      <x:c r="R72" s="41"/>
-      <x:c r="S72" s="41"/>
-      <x:c r="T72" s="41">
-        <x:v>0.291666666666667</x:v>
-      </x:c>
-      <x:c r="U72" s="41">
-        <x:v>0.791666666666667</x:v>
-      </x:c>
-      <x:c r="V72" s="41"/>
-      <x:c r="W72" s="41"/>
-      <x:c r="X72" s="41"/>
-      <x:c r="Y72" s="41"/>
-      <x:c r="Z72" s="41"/>
-      <x:c r="AA72" s="41"/>
-      <x:c r="AB72" s="41">
-        <x:v>0.291666666666667</x:v>
-      </x:c>
-      <x:c r="AC72" s="41">
-        <x:v>0.791666666666667</x:v>
-      </x:c>
-      <x:c r="AD72" s="41"/>
-      <x:c r="AE72" s="41"/>
-      <x:c r="AF72" s="41"/>
-      <x:c r="AG72" s="41"/>
-      <x:c r="AH72" s="41"/>
-      <x:c r="AI72" s="41"/>
-      <x:c r="AJ72" s="41">
-        <x:v>0.291666666666667</x:v>
-      </x:c>
-      <x:c r="AK72" s="41">
-        <x:v>0.791666666666667</x:v>
-      </x:c>
-      <x:c r="AL72" s="41"/>
-      <x:c r="AM72" s="41"/>
-      <x:c r="AN72" s="41"/>
-      <x:c r="AO72" s="41"/>
-      <x:c r="AP72" s="41"/>
-      <x:c r="AQ72" s="41"/>
-      <x:c r="AR72" s="41">
-        <x:v>0.291666666666667</x:v>
-      </x:c>
-      <x:c r="AS72" s="41">
-        <x:v>0.791666666666667</x:v>
-      </x:c>
-      <x:c r="AT72" s="41">
-        <x:v>0.291666666666667</x:v>
-      </x:c>
-      <x:c r="AU72" s="41">
-        <x:v>0.791666666666667</x:v>
-      </x:c>
-      <x:c r="AV72" s="41"/>
-      <x:c r="AW72" s="41"/>
-      <x:c r="AX72" s="41"/>
-      <x:c r="AY72" s="41"/>
-      <x:c r="AZ72" s="41">
-        <x:v>0.291666666666667</x:v>
-      </x:c>
-      <x:c r="BA72" s="41">
-        <x:v>0.791666666666667</x:v>
-      </x:c>
-      <x:c r="BB72" s="41"/>
-      <x:c r="BC72" s="41"/>
-      <x:c r="BD72" s="41"/>
-      <x:c r="BE72" s="41"/>
-      <x:c r="BF72" s="41"/>
-      <x:c r="BG72" s="41"/>
-      <x:c r="BH72" s="41"/>
-      <x:c r="BI72" s="49"/>
-      <x:c r="BJ72" s="53"/>
+      <x:c r="B72" s="6">
+        <x:f>(C71-B71)*24</x:f>
+      </x:c>
+      <x:c r="C72" s="5"/>
+      <x:c r="D72" s="5">
+        <x:f>(E71-D71)*24</x:f>
+      </x:c>
+      <x:c r="E72" s="5"/>
+      <x:c r="F72" s="5">
+        <x:f>(G71-F71)*24</x:f>
+      </x:c>
+      <x:c r="G72" s="5"/>
+      <x:c r="H72" s="5">
+        <x:f>(I71-H71)*24</x:f>
+      </x:c>
+      <x:c r="I72" s="5"/>
+      <x:c r="J72" s="5">
+        <x:f>(K71-J71)*24</x:f>
+      </x:c>
+      <x:c r="K72" s="5"/>
+      <x:c r="L72" s="5">
+        <x:f>(M71-L71)*24</x:f>
+      </x:c>
+      <x:c r="M72" s="5"/>
+      <x:c r="N72" s="5">
+        <x:f>(O71-N71)*24</x:f>
+      </x:c>
+      <x:c r="O72" s="5"/>
+      <x:c r="P72" s="5">
+        <x:f>(Q71-P71)*24</x:f>
+      </x:c>
+      <x:c r="Q72" s="5"/>
+      <x:c r="R72" s="5">
+        <x:f>(S71-R71)*24</x:f>
+      </x:c>
+      <x:c r="S72" s="5"/>
+      <x:c r="T72" s="5">
+        <x:f>(U71-T71)*24</x:f>
+      </x:c>
+      <x:c r="U72" s="5"/>
+      <x:c r="V72" s="5">
+        <x:f>(W71-V71)*24</x:f>
+      </x:c>
+      <x:c r="W72" s="5"/>
+      <x:c r="X72" s="5">
+        <x:f>(Y71-X71)*24</x:f>
+      </x:c>
+      <x:c r="Y72" s="5"/>
+      <x:c r="Z72" s="5">
+        <x:f>(AA71-Z71)*24</x:f>
+      </x:c>
+      <x:c r="AA72" s="5"/>
+      <x:c r="AB72" s="5">
+        <x:f>(AC71-AB71)*24</x:f>
+      </x:c>
+      <x:c r="AC72" s="5"/>
+      <x:c r="AD72" s="5">
+        <x:f>(AE71-AD71)*24</x:f>
+      </x:c>
+      <x:c r="AE72" s="5"/>
+      <x:c r="AF72" s="5">
+        <x:f>(AG71-AF71)*24</x:f>
+      </x:c>
+      <x:c r="AG72" s="5"/>
+      <x:c r="AH72" s="5">
+        <x:f>(AI71-AH71)*24</x:f>
+      </x:c>
+      <x:c r="AI72" s="5"/>
+      <x:c r="AJ72" s="5">
+        <x:f>(AK71-AJ71)*24</x:f>
+      </x:c>
+      <x:c r="AK72" s="5"/>
+      <x:c r="AL72" s="5">
+        <x:f>(AM71-AL71)*24</x:f>
+      </x:c>
+      <x:c r="AM72" s="5"/>
+      <x:c r="AN72" s="5">
+        <x:f>(AO71-AN71)*24</x:f>
+      </x:c>
+      <x:c r="AO72" s="5"/>
+      <x:c r="AP72" s="5">
+        <x:f>(AQ71-AP71)*24</x:f>
+      </x:c>
+      <x:c r="AQ72" s="5"/>
+      <x:c r="AR72" s="5">
+        <x:f>(AS71-AR71)*24</x:f>
+      </x:c>
+      <x:c r="AS72" s="5"/>
+      <x:c r="AT72" s="5">
+        <x:f>(AU71-AT71)*24</x:f>
+      </x:c>
+      <x:c r="AU72" s="5"/>
+      <x:c r="AV72" s="5">
+        <x:f>(AW71-AV71)*24</x:f>
+      </x:c>
+      <x:c r="AW72" s="5"/>
+      <x:c r="AX72" s="5">
+        <x:f>(AY71-AX71)*24</x:f>
+      </x:c>
+      <x:c r="AY72" s="5"/>
+      <x:c r="AZ72" s="5">
+        <x:f>(BA71-AZ71)*24</x:f>
+      </x:c>
+      <x:c r="BA72" s="5"/>
+      <x:c r="BB72" s="5">
+        <x:f>(BC71-BB71)*24</x:f>
+      </x:c>
+      <x:c r="BC72" s="5"/>
+      <x:c r="BD72" s="5">
+        <x:f>(BE71-BD71)*24</x:f>
+      </x:c>
+      <x:c r="BE72" s="5"/>
+      <x:c r="BF72" s="5">
+        <x:f>(BG71-BF71)*24</x:f>
+      </x:c>
+      <x:c r="BG72" s="5"/>
+      <x:c r="BH72" s="5">
+        <x:f>(BI71-BH71)*24</x:f>
+      </x:c>
+      <x:c r="BI72" s="4"/>
+      <x:c r="BJ72" s="59">
+        <x:f>SUM(B72:BI72)</x:f>
+      </x:c>
+      <x:c r="BK72" s="21"/>
     </x:row>
     <x:row r="73" spans="1:63" ht="20.1" customHeight="1" x14ac:dyDescent="0.25">
-      <x:c r="A73" s="56" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="B73" s="9">
-        <x:f>(C72-B72)*24</x:f>
-      </x:c>
-      <x:c r="C73" s="8"/>
-      <x:c r="D73" s="3">
-        <x:f>(E72-D72)*24</x:f>
-      </x:c>
-      <x:c r="E73" s="8"/>
-      <x:c r="F73" s="3">
-        <x:f>(G72-F72)*24</x:f>
-      </x:c>
-      <x:c r="G73" s="8"/>
-      <x:c r="H73" s="3">
-        <x:f>(I72-H72)*24</x:f>
-      </x:c>
-      <x:c r="I73" s="8"/>
-      <x:c r="J73" s="3">
-        <x:f>(K72-J72)*24</x:f>
-      </x:c>
-      <x:c r="K73" s="8"/>
-      <x:c r="L73" s="3">
-        <x:f>(M72-L72)*24</x:f>
-      </x:c>
-      <x:c r="M73" s="8"/>
-      <x:c r="N73" s="3">
-        <x:f>(O72-N72)*24</x:f>
-      </x:c>
-      <x:c r="O73" s="8"/>
-      <x:c r="P73" s="3">
-        <x:f>(Q72-P72)*24</x:f>
-      </x:c>
-      <x:c r="Q73" s="8"/>
-      <x:c r="R73" s="3">
-        <x:f>(S72-R72)*24</x:f>
-      </x:c>
-      <x:c r="S73" s="8"/>
-      <x:c r="T73" s="3">
-        <x:f>(U72-T72)*24</x:f>
-      </x:c>
-      <x:c r="U73" s="8"/>
-      <x:c r="V73" s="3">
-        <x:f>(W72-V72)*24</x:f>
-      </x:c>
-      <x:c r="W73" s="8"/>
-      <x:c r="X73" s="3">
-        <x:f>(Y72-X72)*24</x:f>
-      </x:c>
-      <x:c r="Y73" s="8"/>
-      <x:c r="Z73" s="3">
-        <x:f>(AA72-Z72)*24</x:f>
-      </x:c>
-      <x:c r="AA73" s="8"/>
-      <x:c r="AB73" s="3">
-        <x:f>(AC72-AB72)*24</x:f>
-      </x:c>
-      <x:c r="AC73" s="8"/>
-      <x:c r="AD73" s="3">
-        <x:f>(AE72-AD72)*24</x:f>
-      </x:c>
-      <x:c r="AE73" s="8"/>
-      <x:c r="AF73" s="3">
-        <x:f>(AG72-AF72)*24</x:f>
-      </x:c>
-      <x:c r="AG73" s="8"/>
-      <x:c r="AH73" s="3">
-        <x:f>(AI72-AH72)*24</x:f>
-      </x:c>
-      <x:c r="AI73" s="8"/>
-      <x:c r="AJ73" s="3">
-        <x:f>(AK72-AJ72)*24</x:f>
-      </x:c>
-      <x:c r="AK73" s="8"/>
-      <x:c r="AL73" s="3">
-        <x:f>(AM72-AL72)*24</x:f>
-      </x:c>
-      <x:c r="AM73" s="8"/>
-      <x:c r="AN73" s="3">
-        <x:f>(AO72-AN72)*24</x:f>
-      </x:c>
-      <x:c r="AO73" s="8"/>
-      <x:c r="AP73" s="3">
-        <x:f>(AQ72-AP72)*24</x:f>
-      </x:c>
-      <x:c r="AQ73" s="8"/>
-      <x:c r="AR73" s="3">
-        <x:f>(AS72-AR72)*24</x:f>
-      </x:c>
-      <x:c r="AS73" s="8"/>
-      <x:c r="AT73" s="3">
-        <x:f>(AU72-AT72)*24</x:f>
-      </x:c>
-      <x:c r="AU73" s="8"/>
-      <x:c r="AV73" s="3">
-        <x:f>(AW72-AV72)*24</x:f>
-      </x:c>
-      <x:c r="AW73" s="8"/>
-      <x:c r="AX73" s="3">
-        <x:f>(AY72-AX72)*24</x:f>
-      </x:c>
-      <x:c r="AY73" s="8"/>
-      <x:c r="AZ73" s="3">
-        <x:f>(BA72-AZ72)*24</x:f>
-      </x:c>
-      <x:c r="BA73" s="8"/>
-      <x:c r="BB73" s="3">
-        <x:f>(BC72-BB72)*24</x:f>
-      </x:c>
-      <x:c r="BC73" s="8"/>
-      <x:c r="BD73" s="3">
-        <x:f>(BE72-BD72)*24</x:f>
-      </x:c>
-      <x:c r="BE73" s="8"/>
-      <x:c r="BF73" s="3">
-        <x:f>(BG72-BF72)*24</x:f>
-      </x:c>
-      <x:c r="BG73" s="8"/>
-      <x:c r="BH73" s="3">
-        <x:f>(BI72-BH72)*24</x:f>
-      </x:c>
-      <x:c r="BI73" s="2"/>
-      <x:c r="BJ73" s="54">
-        <x:f>SUM(B73:BI73)</x:f>
-      </x:c>
+      <x:c r="A73" s="81" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="B73" s="58"/>
+      <x:c r="C73" s="41"/>
+      <x:c r="D73" s="41">
+        <x:v>0.291666666666667</x:v>
+      </x:c>
+      <x:c r="E73" s="41">
+        <x:v>0.791666666666667</x:v>
+      </x:c>
+      <x:c r="F73" s="41"/>
+      <x:c r="G73" s="41"/>
+      <x:c r="H73" s="41">
+        <x:v>0.291666666666667</x:v>
+      </x:c>
+      <x:c r="I73" s="41">
+        <x:v>0.791666666666667</x:v>
+      </x:c>
+      <x:c r="J73" s="41"/>
+      <x:c r="K73" s="41"/>
+      <x:c r="L73" s="41">
+        <x:v>0.291666666666667</x:v>
+      </x:c>
+      <x:c r="M73" s="41">
+        <x:v>0.791666666666667</x:v>
+      </x:c>
+      <x:c r="N73" s="41"/>
+      <x:c r="O73" s="41"/>
+      <x:c r="P73" s="41"/>
+      <x:c r="Q73" s="41"/>
+      <x:c r="R73" s="41"/>
+      <x:c r="S73" s="41"/>
+      <x:c r="T73" s="41">
+        <x:v>0.291666666666667</x:v>
+      </x:c>
+      <x:c r="U73" s="41">
+        <x:v>0.791666666666667</x:v>
+      </x:c>
+      <x:c r="V73" s="41"/>
+      <x:c r="W73" s="41"/>
+      <x:c r="X73" s="41"/>
+      <x:c r="Y73" s="41"/>
+      <x:c r="Z73" s="41"/>
+      <x:c r="AA73" s="41"/>
+      <x:c r="AB73" s="41">
+        <x:v>0.291666666666667</x:v>
+      </x:c>
+      <x:c r="AC73" s="41">
+        <x:v>0.791666666666667</x:v>
+      </x:c>
+      <x:c r="AD73" s="41"/>
+      <x:c r="AE73" s="41"/>
+      <x:c r="AF73" s="41"/>
+      <x:c r="AG73" s="41"/>
+      <x:c r="AH73" s="41"/>
+      <x:c r="AI73" s="41"/>
+      <x:c r="AJ73" s="41">
+        <x:v>0.291666666666667</x:v>
+      </x:c>
+      <x:c r="AK73" s="41">
+        <x:v>0.791666666666667</x:v>
+      </x:c>
+      <x:c r="AL73" s="41"/>
+      <x:c r="AM73" s="41"/>
+      <x:c r="AN73" s="41"/>
+      <x:c r="AO73" s="41"/>
+      <x:c r="AP73" s="41"/>
+      <x:c r="AQ73" s="41"/>
+      <x:c r="AR73" s="41">
+        <x:v>0.291666666666667</x:v>
+      </x:c>
+      <x:c r="AS73" s="41">
+        <x:v>0.791666666666667</x:v>
+      </x:c>
+      <x:c r="AT73" s="41">
+        <x:v>0.291666666666667</x:v>
+      </x:c>
+      <x:c r="AU73" s="41">
+        <x:v>0.791666666666667</x:v>
+      </x:c>
+      <x:c r="AV73" s="41"/>
+      <x:c r="AW73" s="41"/>
+      <x:c r="AX73" s="41"/>
+      <x:c r="AY73" s="41"/>
+      <x:c r="AZ73" s="41">
+        <x:v>0.291666666666667</x:v>
+      </x:c>
+      <x:c r="BA73" s="41">
+        <x:v>0.791666666666667</x:v>
+      </x:c>
+      <x:c r="BB73" s="41"/>
+      <x:c r="BC73" s="41"/>
+      <x:c r="BD73" s="41"/>
+      <x:c r="BE73" s="41"/>
+      <x:c r="BF73" s="41"/>
+      <x:c r="BG73" s="41"/>
+      <x:c r="BH73" s="41"/>
+      <x:c r="BI73" s="49"/>
+      <x:c r="BJ73" s="53"/>
     </x:row>
     <x:row r="74" spans="1:63" ht="20.1" customHeight="1" x14ac:dyDescent="0.25">
-      <x:c r="A74" s="72" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="B74" s="22"/>
-      <x:c r="C74" s="23"/>
-      <x:c r="D74" s="23"/>
-      <x:c r="E74" s="23"/>
-      <x:c r="F74" s="23"/>
-      <x:c r="G74" s="23"/>
-      <x:c r="H74" s="23">
-        <x:v>0.791666666666667</x:v>
-      </x:c>
-      <x:c r="I74" s="23">
-        <x:v>0.291666666666667</x:v>
-      </x:c>
-      <x:c r="J74" s="23"/>
-      <x:c r="K74" s="23"/>
-      <x:c r="L74" s="23">
-        <x:v>0.791666666666667</x:v>
-      </x:c>
-      <x:c r="M74" s="23">
-        <x:v>0.291666666666667</x:v>
-      </x:c>
-      <x:c r="N74" s="23"/>
-      <x:c r="O74" s="23"/>
-      <x:c r="P74" s="23"/>
-      <x:c r="Q74" s="23"/>
-      <x:c r="R74" s="23"/>
-      <x:c r="S74" s="23"/>
-      <x:c r="T74" s="23">
-        <x:v>0.791666666666667</x:v>
-      </x:c>
-      <x:c r="U74" s="23">
-        <x:v>0.291666666666667</x:v>
-      </x:c>
-      <x:c r="V74" s="23"/>
-      <x:c r="W74" s="23"/>
-      <x:c r="X74" s="23">
-        <x:v>0.791666666666667</x:v>
-      </x:c>
-      <x:c r="Y74" s="23">
-        <x:v>0.291666666666667</x:v>
-      </x:c>
-      <x:c r="Z74" s="23"/>
-      <x:c r="AA74" s="23"/>
-      <x:c r="AB74" s="23"/>
-      <x:c r="AC74" s="23"/>
-      <x:c r="AD74" s="23"/>
-      <x:c r="AE74" s="23"/>
-      <x:c r="AF74" s="23"/>
-      <x:c r="AG74" s="23"/>
-      <x:c r="AH74" s="23"/>
-      <x:c r="AI74" s="23"/>
-      <x:c r="AJ74" s="23">
-        <x:v>0.791666666666667</x:v>
-      </x:c>
-      <x:c r="AK74" s="23">
-        <x:v>0.291666666666667</x:v>
-      </x:c>
-      <x:c r="AL74" s="23"/>
-      <x:c r="AM74" s="23"/>
-      <x:c r="AN74" s="23">
-        <x:v>0.791666666666667</x:v>
-      </x:c>
-      <x:c r="AO74" s="23">
-        <x:v>0.291666666666667</x:v>
-      </x:c>
-      <x:c r="AP74" s="23"/>
-      <x:c r="AQ74" s="23"/>
-      <x:c r="AR74" s="23"/>
-      <x:c r="AS74" s="23"/>
-      <x:c r="AT74" s="23"/>
-      <x:c r="AU74" s="23"/>
-      <x:c r="AV74" s="23"/>
-      <x:c r="AW74" s="23"/>
-      <x:c r="AX74" s="23"/>
-      <x:c r="AY74" s="23"/>
-      <x:c r="AZ74" s="23">
-        <x:v>0.791666666666667</x:v>
-      </x:c>
-      <x:c r="BA74" s="23">
-        <x:v>0.291666666666667</x:v>
-      </x:c>
-      <x:c r="BB74" s="23"/>
-      <x:c r="BC74" s="23"/>
-      <x:c r="BD74" s="23">
-        <x:v>0.791666666666667</x:v>
-      </x:c>
-      <x:c r="BE74" s="23">
-        <x:v>0.291666666666667</x:v>
-      </x:c>
-      <x:c r="BF74" s="23"/>
-      <x:c r="BG74" s="23"/>
-      <x:c r="BH74" s="23"/>
-      <x:c r="BI74" s="50"/>
-      <x:c r="BJ74" s="54"/>
+      <x:c r="A74" s="56" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B74" s="9">
+        <x:f>(C73-B73)*24</x:f>
+      </x:c>
+      <x:c r="C74" s="8"/>
+      <x:c r="D74" s="3">
+        <x:f>(E73-D73)*24</x:f>
+      </x:c>
+      <x:c r="E74" s="8"/>
+      <x:c r="F74" s="3">
+        <x:f>(G73-F73)*24</x:f>
+      </x:c>
+      <x:c r="G74" s="8"/>
+      <x:c r="H74" s="3">
+        <x:f>(I73-H73)*24</x:f>
+      </x:c>
+      <x:c r="I74" s="8"/>
+      <x:c r="J74" s="3">
+        <x:f>(K73-J73)*24</x:f>
+      </x:c>
+      <x:c r="K74" s="8"/>
+      <x:c r="L74" s="3">
+        <x:f>(M73-L73)*24</x:f>
+      </x:c>
+      <x:c r="M74" s="8"/>
+      <x:c r="N74" s="3">
+        <x:f>(O73-N73)*24</x:f>
+      </x:c>
+      <x:c r="O74" s="8"/>
+      <x:c r="P74" s="3">
+        <x:f>(Q73-P73)*24</x:f>
+      </x:c>
+      <x:c r="Q74" s="8"/>
+      <x:c r="R74" s="3">
+        <x:f>(S73-R73)*24</x:f>
+      </x:c>
+      <x:c r="S74" s="8"/>
+      <x:c r="T74" s="3">
+        <x:f>(U73-T73)*24</x:f>
+      </x:c>
+      <x:c r="U74" s="8"/>
+      <x:c r="V74" s="3">
+        <x:f>(W73-V73)*24</x:f>
+      </x:c>
+      <x:c r="W74" s="8"/>
+      <x:c r="X74" s="3">
+        <x:f>(Y73-X73)*24</x:f>
+      </x:c>
+      <x:c r="Y74" s="8"/>
+      <x:c r="Z74" s="3">
+        <x:f>(AA73-Z73)*24</x:f>
+      </x:c>
+      <x:c r="AA74" s="8"/>
+      <x:c r="AB74" s="3">
+        <x:f>(AC73-AB73)*24</x:f>
+      </x:c>
+      <x:c r="AC74" s="8"/>
+      <x:c r="AD74" s="3">
+        <x:f>(AE73-AD73)*24</x:f>
+      </x:c>
+      <x:c r="AE74" s="8"/>
+      <x:c r="AF74" s="3">
+        <x:f>(AG73-AF73)*24</x:f>
+      </x:c>
+      <x:c r="AG74" s="8"/>
+      <x:c r="AH74" s="3">
+        <x:f>(AI73-AH73)*24</x:f>
+      </x:c>
+      <x:c r="AI74" s="8"/>
+      <x:c r="AJ74" s="3">
+        <x:f>(AK73-AJ73)*24</x:f>
+      </x:c>
+      <x:c r="AK74" s="8"/>
+      <x:c r="AL74" s="3">
+        <x:f>(AM73-AL73)*24</x:f>
+      </x:c>
+      <x:c r="AM74" s="8"/>
+      <x:c r="AN74" s="3">
+        <x:f>(AO73-AN73)*24</x:f>
+      </x:c>
+      <x:c r="AO74" s="8"/>
+      <x:c r="AP74" s="3">
+        <x:f>(AQ73-AP73)*24</x:f>
+      </x:c>
+      <x:c r="AQ74" s="8"/>
+      <x:c r="AR74" s="3">
+        <x:f>(AS73-AR73)*24</x:f>
+      </x:c>
+      <x:c r="AS74" s="8"/>
+      <x:c r="AT74" s="3">
+        <x:f>(AU73-AT73)*24</x:f>
+      </x:c>
+      <x:c r="AU74" s="8"/>
+      <x:c r="AV74" s="3">
+        <x:f>(AW73-AV73)*24</x:f>
+      </x:c>
+      <x:c r="AW74" s="8"/>
+      <x:c r="AX74" s="3">
+        <x:f>(AY73-AX73)*24</x:f>
+      </x:c>
+      <x:c r="AY74" s="8"/>
+      <x:c r="AZ74" s="3">
+        <x:f>(BA73-AZ73)*24</x:f>
+      </x:c>
+      <x:c r="BA74" s="8"/>
+      <x:c r="BB74" s="3">
+        <x:f>(BC73-BB73)*24</x:f>
+      </x:c>
+      <x:c r="BC74" s="8"/>
+      <x:c r="BD74" s="3">
+        <x:f>(BE73-BD73)*24</x:f>
+      </x:c>
+      <x:c r="BE74" s="8"/>
+      <x:c r="BF74" s="3">
+        <x:f>(BG73-BF73)*24</x:f>
+      </x:c>
+      <x:c r="BG74" s="8"/>
+      <x:c r="BH74" s="3">
+        <x:f>(BI73-BH73)*24</x:f>
+      </x:c>
+      <x:c r="BI74" s="2"/>
+      <x:c r="BJ74" s="54">
+        <x:f>SUM(B74:BI74)</x:f>
+      </x:c>
     </x:row>
     <x:row r="75" spans="1:63" ht="20.1" customHeight="1" x14ac:dyDescent="0.25">
-      <x:c r="A75" s="56" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="B75" s="9">
-        <x:f>(C74-B74)*24</x:f>
-      </x:c>
-      <x:c r="C75" s="8"/>
-      <x:c r="D75" s="9">
-        <x:f>(E74-D74)*24</x:f>
-      </x:c>
-      <x:c r="E75" s="8"/>
-      <x:c r="F75" s="9">
-        <x:f>(G74-F74)*24</x:f>
-      </x:c>
-      <x:c r="G75" s="8"/>
-      <x:c r="H75" s="9">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="I75" s="8"/>
-      <x:c r="J75" s="9">
-        <x:f>(K74-J74)*24</x:f>
-      </x:c>
-      <x:c r="K75" s="8"/>
-      <x:c r="L75" s="9">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="M75" s="8"/>
-      <x:c r="N75" s="9">
-        <x:f>(O74-N74)*24</x:f>
-      </x:c>
-      <x:c r="O75" s="8"/>
-      <x:c r="P75" s="9">
-        <x:f>(Q74-P74)*24</x:f>
-      </x:c>
-      <x:c r="Q75" s="8"/>
-      <x:c r="R75" s="9">
-        <x:f>(S74-R74)*24</x:f>
-      </x:c>
-      <x:c r="S75" s="8"/>
-      <x:c r="T75" s="9">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="U75" s="8"/>
-      <x:c r="V75" s="9">
-        <x:f>(W74-V74)*24</x:f>
-      </x:c>
-      <x:c r="W75" s="8"/>
-      <x:c r="X75" s="9">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="Y75" s="8"/>
-      <x:c r="Z75" s="9">
-        <x:f>(AA74-Z74)*24</x:f>
-      </x:c>
-      <x:c r="AA75" s="8"/>
-      <x:c r="AB75" s="9">
-        <x:f>(AC74-AB74)*24</x:f>
-      </x:c>
-      <x:c r="AC75" s="8"/>
-      <x:c r="AD75" s="9">
-        <x:f>(AE74-AD74)*24</x:f>
-      </x:c>
-      <x:c r="AE75" s="8"/>
-      <x:c r="AF75" s="9">
-        <x:f>(AG74-AF74)*24</x:f>
-      </x:c>
-      <x:c r="AG75" s="8"/>
-      <x:c r="AH75" s="9">
-        <x:f>(AI74-AH74)*24</x:f>
-      </x:c>
-      <x:c r="AI75" s="8"/>
-      <x:c r="AJ75" s="9">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="AK75" s="8"/>
-      <x:c r="AL75" s="9">
-        <x:f>(AM74-AL74)*24</x:f>
-      </x:c>
-      <x:c r="AM75" s="8"/>
-      <x:c r="AN75" s="9">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="AO75" s="8"/>
-      <x:c r="AP75" s="9">
-        <x:f>(AQ74-AP74)*24</x:f>
-      </x:c>
-      <x:c r="AQ75" s="8"/>
-      <x:c r="AR75" s="9">
-        <x:f>(AS74-AR74)*24</x:f>
-      </x:c>
-      <x:c r="AS75" s="8"/>
-      <x:c r="AT75" s="9">
-        <x:f>(AU74-AT74)*24</x:f>
-      </x:c>
-      <x:c r="AU75" s="8"/>
-      <x:c r="AV75" s="9">
-        <x:f>(AW74-AV74)*24</x:f>
-      </x:c>
-      <x:c r="AW75" s="8"/>
-      <x:c r="AX75" s="9">
-        <x:f>(AY74-AX74)*24</x:f>
-      </x:c>
-      <x:c r="AY75" s="8"/>
-      <x:c r="AZ75" s="9">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="BA75" s="8"/>
-      <x:c r="BB75" s="9">
-        <x:f>(BC74-BB74)*24</x:f>
-      </x:c>
-      <x:c r="BC75" s="8"/>
-      <x:c r="BD75" s="9">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="BE75" s="8"/>
-      <x:c r="BF75" s="9">
-        <x:f>(BG74-BF74)*24</x:f>
-      </x:c>
-      <x:c r="BG75" s="8"/>
-      <x:c r="BH75" s="9">
-        <x:f>(BI74-BH74)*24</x:f>
-      </x:c>
-      <x:c r="BI75" s="8"/>
-      <x:c r="BJ75" s="54">
-        <x:f>SUM(B75:BI75)</x:f>
-      </x:c>
+      <x:c r="A75" s="72" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="B75" s="22"/>
+      <x:c r="C75" s="23"/>
+      <x:c r="D75" s="23"/>
+      <x:c r="E75" s="23"/>
+      <x:c r="F75" s="23"/>
+      <x:c r="G75" s="23"/>
+      <x:c r="H75" s="23">
+        <x:v>0.791666666666667</x:v>
+      </x:c>
+      <x:c r="I75" s="23">
+        <x:v>0.291666666666667</x:v>
+      </x:c>
+      <x:c r="J75" s="23"/>
+      <x:c r="K75" s="23"/>
+      <x:c r="L75" s="23">
+        <x:v>0.791666666666667</x:v>
+      </x:c>
+      <x:c r="M75" s="23">
+        <x:v>0.291666666666667</x:v>
+      </x:c>
+      <x:c r="N75" s="23"/>
+      <x:c r="O75" s="23"/>
+      <x:c r="P75" s="23"/>
+      <x:c r="Q75" s="23"/>
+      <x:c r="R75" s="23"/>
+      <x:c r="S75" s="23"/>
+      <x:c r="T75" s="23">
+        <x:v>0.791666666666667</x:v>
+      </x:c>
+      <x:c r="U75" s="23">
+        <x:v>0.291666666666667</x:v>
+      </x:c>
+      <x:c r="V75" s="23"/>
+      <x:c r="W75" s="23"/>
+      <x:c r="X75" s="23">
+        <x:v>0.791666666666667</x:v>
+      </x:c>
+      <x:c r="Y75" s="23">
+        <x:v>0.291666666666667</x:v>
+      </x:c>
+      <x:c r="Z75" s="23"/>
+      <x:c r="AA75" s="23"/>
+      <x:c r="AB75" s="23"/>
+      <x:c r="AC75" s="23"/>
+      <x:c r="AD75" s="23"/>
+      <x:c r="AE75" s="23"/>
+      <x:c r="AF75" s="23"/>
+      <x:c r="AG75" s="23"/>
+      <x:c r="AH75" s="23"/>
+      <x:c r="AI75" s="23"/>
+      <x:c r="AJ75" s="23">
+        <x:v>0.791666666666667</x:v>
+      </x:c>
+      <x:c r="AK75" s="23">
+        <x:v>0.291666666666667</x:v>
+      </x:c>
+      <x:c r="AL75" s="23"/>
+      <x:c r="AM75" s="23"/>
+      <x:c r="AN75" s="23">
+        <x:v>0.791666666666667</x:v>
+      </x:c>
+      <x:c r="AO75" s="23">
+        <x:v>0.291666666666667</x:v>
+      </x:c>
+      <x:c r="AP75" s="23"/>
+      <x:c r="AQ75" s="23"/>
+      <x:c r="AR75" s="23"/>
+      <x:c r="AS75" s="23"/>
+      <x:c r="AT75" s="23"/>
+      <x:c r="AU75" s="23"/>
+      <x:c r="AV75" s="23"/>
+      <x:c r="AW75" s="23"/>
+      <x:c r="AX75" s="23"/>
+      <x:c r="AY75" s="23"/>
+      <x:c r="AZ75" s="23">
+        <x:v>0.791666666666667</x:v>
+      </x:c>
+      <x:c r="BA75" s="23">
+        <x:v>0.291666666666667</x:v>
+      </x:c>
+      <x:c r="BB75" s="23"/>
+      <x:c r="BC75" s="23"/>
+      <x:c r="BD75" s="23">
+        <x:v>0.791666666666667</x:v>
+      </x:c>
+      <x:c r="BE75" s="23">
+        <x:v>0.291666666666667</x:v>
+      </x:c>
+      <x:c r="BF75" s="23"/>
+      <x:c r="BG75" s="23"/>
+      <x:c r="BH75" s="23"/>
+      <x:c r="BI75" s="50"/>
+      <x:c r="BJ75" s="54"/>
     </x:row>
     <x:row r="76" spans="1:63" ht="20.1" customHeight="1" x14ac:dyDescent="0.25">
-      <x:c r="A76" s="72" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="B76" s="22"/>
-      <x:c r="C76" s="23"/>
-      <x:c r="D76" s="23"/>
-      <x:c r="E76" s="23"/>
-      <x:c r="F76" s="23"/>
-      <x:c r="G76" s="23"/>
-      <x:c r="H76" s="23">
-        <x:v>0.291666666666667</x:v>
-      </x:c>
-      <x:c r="I76" s="23">
-        <x:v>0.291666666666667</x:v>
-      </x:c>
-      <x:c r="J76" s="23"/>
-      <x:c r="K76" s="23"/>
-      <x:c r="L76" s="23">
-        <x:v>0.291666666666667</x:v>
-      </x:c>
-      <x:c r="M76" s="23">
-        <x:v>0.291666666666667</x:v>
-      </x:c>
-      <x:c r="N76" s="23"/>
-      <x:c r="O76" s="23"/>
-      <x:c r="P76" s="23"/>
-      <x:c r="Q76" s="23"/>
-      <x:c r="R76" s="23"/>
-      <x:c r="S76" s="23"/>
-      <x:c r="T76" s="23"/>
-      <x:c r="U76" s="23"/>
-      <x:c r="V76" s="23"/>
-      <x:c r="W76" s="23"/>
-      <x:c r="X76" s="23"/>
-      <x:c r="Y76" s="23"/>
-      <x:c r="Z76" s="23"/>
-      <x:c r="AA76" s="23"/>
-      <x:c r="AB76" s="23"/>
-      <x:c r="AC76" s="23"/>
-      <x:c r="AD76" s="23"/>
-      <x:c r="AE76" s="23"/>
-      <x:c r="AF76" s="23">
-        <x:v>0.291666666666667</x:v>
-      </x:c>
-      <x:c r="AG76" s="23">
-        <x:v>0.291666666666667</x:v>
-      </x:c>
-      <x:c r="AH76" s="23"/>
-      <x:c r="AI76" s="23"/>
-      <x:c r="AJ76" s="23"/>
-      <x:c r="AK76" s="23"/>
-      <x:c r="AL76" s="23"/>
-      <x:c r="AM76" s="23"/>
-      <x:c r="AN76" s="23"/>
-      <x:c r="AO76" s="23"/>
-      <x:c r="AP76" s="23"/>
-      <x:c r="AQ76" s="23"/>
-      <x:c r="AR76" s="23"/>
-      <x:c r="AS76" s="23"/>
-      <x:c r="AT76" s="23"/>
-      <x:c r="AU76" s="23"/>
-      <x:c r="AV76" s="23"/>
-      <x:c r="AW76" s="23"/>
-      <x:c r="AX76" s="23"/>
-      <x:c r="AY76" s="23"/>
-      <x:c r="AZ76" s="23"/>
-      <x:c r="BA76" s="23"/>
-      <x:c r="BB76" s="23">
-        <x:v>0.291666666666667</x:v>
-      </x:c>
-      <x:c r="BC76" s="23">
-        <x:v>0.791666666666667</x:v>
-      </x:c>
-      <x:c r="BD76" s="23"/>
-      <x:c r="BE76" s="23"/>
-      <x:c r="BF76" s="23"/>
-      <x:c r="BG76" s="23"/>
-      <x:c r="BH76" s="23">
-        <x:v>0.291666666666667</x:v>
-      </x:c>
-      <x:c r="BI76" s="50">
-        <x:v>0.791666666666667</x:v>
-      </x:c>
-      <x:c r="BJ76" s="54"/>
+      <x:c r="A76" s="56" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B76" s="9">
+        <x:f>(C75-B75)*24</x:f>
+      </x:c>
+      <x:c r="C76" s="8"/>
+      <x:c r="D76" s="9">
+        <x:f>(E75-D75)*24</x:f>
+      </x:c>
+      <x:c r="E76" s="8"/>
+      <x:c r="F76" s="9">
+        <x:f>(G75-F75)*24</x:f>
+      </x:c>
+      <x:c r="G76" s="8"/>
+      <x:c r="H76" s="9">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="I76" s="8"/>
+      <x:c r="J76" s="9">
+        <x:f>(K75-J75)*24</x:f>
+      </x:c>
+      <x:c r="K76" s="8"/>
+      <x:c r="L76" s="9">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="M76" s="8"/>
+      <x:c r="N76" s="9">
+        <x:f>(O75-N75)*24</x:f>
+      </x:c>
+      <x:c r="O76" s="8"/>
+      <x:c r="P76" s="9">
+        <x:f>(Q75-P75)*24</x:f>
+      </x:c>
+      <x:c r="Q76" s="8"/>
+      <x:c r="R76" s="9">
+        <x:f>(S75-R75)*24</x:f>
+      </x:c>
+      <x:c r="S76" s="8"/>
+      <x:c r="T76" s="9">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="U76" s="8"/>
+      <x:c r="V76" s="9">
+        <x:f>(W75-V75)*24</x:f>
+      </x:c>
+      <x:c r="W76" s="8"/>
+      <x:c r="X76" s="9">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="Y76" s="8"/>
+      <x:c r="Z76" s="9">
+        <x:f>(AA75-Z75)*24</x:f>
+      </x:c>
+      <x:c r="AA76" s="8"/>
+      <x:c r="AB76" s="9">
+        <x:f>(AC75-AB75)*24</x:f>
+      </x:c>
+      <x:c r="AC76" s="8"/>
+      <x:c r="AD76" s="9">
+        <x:f>(AE75-AD75)*24</x:f>
+      </x:c>
+      <x:c r="AE76" s="8"/>
+      <x:c r="AF76" s="9">
+        <x:f>(AG75-AF75)*24</x:f>
+      </x:c>
+      <x:c r="AG76" s="8"/>
+      <x:c r="AH76" s="9">
+        <x:f>(AI75-AH75)*24</x:f>
+      </x:c>
+      <x:c r="AI76" s="8"/>
+      <x:c r="AJ76" s="9">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="AK76" s="8"/>
+      <x:c r="AL76" s="9">
+        <x:f>(AM75-AL75)*24</x:f>
+      </x:c>
+      <x:c r="AM76" s="8"/>
+      <x:c r="AN76" s="9">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="AO76" s="8"/>
+      <x:c r="AP76" s="9">
+        <x:f>(AQ75-AP75)*24</x:f>
+      </x:c>
+      <x:c r="AQ76" s="8"/>
+      <x:c r="AR76" s="9">
+        <x:f>(AS75-AR75)*24</x:f>
+      </x:c>
+      <x:c r="AS76" s="8"/>
+      <x:c r="AT76" s="9">
+        <x:f>(AU75-AT75)*24</x:f>
+      </x:c>
+      <x:c r="AU76" s="8"/>
+      <x:c r="AV76" s="9">
+        <x:f>(AW75-AV75)*24</x:f>
+      </x:c>
+      <x:c r="AW76" s="8"/>
+      <x:c r="AX76" s="9">
+        <x:f>(AY75-AX75)*24</x:f>
+      </x:c>
+      <x:c r="AY76" s="8"/>
+      <x:c r="AZ76" s="9">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="BA76" s="8"/>
+      <x:c r="BB76" s="9">
+        <x:f>(BC75-BB75)*24</x:f>
+      </x:c>
+      <x:c r="BC76" s="8"/>
+      <x:c r="BD76" s="9">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="BE76" s="8"/>
+      <x:c r="BF76" s="9">
+        <x:f>(BG75-BF75)*24</x:f>
+      </x:c>
+      <x:c r="BG76" s="8"/>
+      <x:c r="BH76" s="9">
+        <x:f>(BI75-BH75)*24</x:f>
+      </x:c>
+      <x:c r="BI76" s="8"/>
+      <x:c r="BJ76" s="54">
+        <x:f>SUM(B76:BI76)</x:f>
+      </x:c>
     </x:row>
     <x:row r="77" spans="1:63" ht="20.1" customHeight="1" x14ac:dyDescent="0.25">
-      <x:c r="A77" s="56" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="B77" s="9">
-        <x:f>(C76-B76)*24</x:f>
-      </x:c>
-      <x:c r="C77" s="8"/>
-      <x:c r="D77" s="9">
-        <x:f>(E76-D76)*24</x:f>
-      </x:c>
-      <x:c r="E77" s="8"/>
-      <x:c r="F77" s="9">
-        <x:f>(G76-F76)*24</x:f>
-      </x:c>
-      <x:c r="G77" s="8"/>
-      <x:c r="H77" s="9">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="I77" s="8"/>
-      <x:c r="J77" s="9">
-        <x:f>(K76-J76)*24</x:f>
-      </x:c>
-      <x:c r="K77" s="8"/>
-      <x:c r="L77" s="9">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="M77" s="8"/>
-      <x:c r="N77" s="9">
-        <x:f>(O76-N76)*24</x:f>
-      </x:c>
-      <x:c r="O77" s="8"/>
-      <x:c r="P77" s="9">
-        <x:f>(Q76-P76)*24</x:f>
-      </x:c>
-      <x:c r="Q77" s="8"/>
-      <x:c r="R77" s="9">
-        <x:f>(S76-R76)*24</x:f>
-      </x:c>
-      <x:c r="S77" s="8"/>
-      <x:c r="T77" s="9">
-        <x:f>(U76-T76)*24</x:f>
-      </x:c>
-      <x:c r="U77" s="8"/>
-      <x:c r="V77" s="9">
-        <x:f>(W76-V76)*24</x:f>
-      </x:c>
-      <x:c r="W77" s="8"/>
-      <x:c r="X77" s="9">
-        <x:f>(Y76-X76)*24</x:f>
-      </x:c>
-      <x:c r="Y77" s="8"/>
-      <x:c r="Z77" s="9">
-        <x:f>(AA76-Z76)*24</x:f>
-      </x:c>
-      <x:c r="AA77" s="8"/>
-      <x:c r="AB77" s="9">
-        <x:f>(AC76-AB76)*24</x:f>
-      </x:c>
-      <x:c r="AC77" s="8"/>
-      <x:c r="AD77" s="9">
-        <x:f>(AE76-AD76)*24</x:f>
-      </x:c>
-      <x:c r="AE77" s="8"/>
-      <x:c r="AF77" s="9">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="AG77" s="8"/>
-      <x:c r="AH77" s="9">
-        <x:f>(AI76-AH76)*24</x:f>
-      </x:c>
-      <x:c r="AI77" s="8"/>
-      <x:c r="AJ77" s="9">
-        <x:f>(AK76-AJ76)*24</x:f>
-      </x:c>
-      <x:c r="AK77" s="8"/>
-      <x:c r="AL77" s="9">
-        <x:f>(AM76-AL76)*24</x:f>
-      </x:c>
-      <x:c r="AM77" s="8"/>
-      <x:c r="AN77" s="9">
-        <x:f>(AO76-AN76)*24</x:f>
-      </x:c>
-      <x:c r="AO77" s="8"/>
-      <x:c r="AP77" s="9">
-        <x:f>(AQ76-AP76)*24</x:f>
-      </x:c>
-      <x:c r="AQ77" s="8"/>
-      <x:c r="AR77" s="9">
-        <x:f>(AS76-AR76)*24</x:f>
-      </x:c>
-      <x:c r="AS77" s="8"/>
-      <x:c r="AT77" s="9">
-        <x:f>(AU76-AT76)*24</x:f>
-      </x:c>
-      <x:c r="AU77" s="8"/>
-      <x:c r="AV77" s="9">
-        <x:f>(AW76-AV76)*24</x:f>
-      </x:c>
-      <x:c r="AW77" s="8"/>
-      <x:c r="AX77" s="9">
-        <x:f>(AY76-AX76)*24</x:f>
-      </x:c>
-      <x:c r="AY77" s="8"/>
-      <x:c r="AZ77" s="9">
-        <x:f>(BA76-AZ76)*24</x:f>
-      </x:c>
-      <x:c r="BA77" s="8"/>
-      <x:c r="BB77" s="9">
-        <x:f>(BC76-BB76)*24</x:f>
-      </x:c>
-      <x:c r="BC77" s="8"/>
-      <x:c r="BD77" s="9">
-        <x:f>(BE76-BD76)*24</x:f>
-      </x:c>
-      <x:c r="BE77" s="8"/>
-      <x:c r="BF77" s="9">
-        <x:f>(BG76-BF76)*24</x:f>
-      </x:c>
-      <x:c r="BG77" s="8"/>
-      <x:c r="BH77" s="9">
-        <x:f>(BI76-BH76)*24</x:f>
-      </x:c>
-      <x:c r="BI77" s="8"/>
-      <x:c r="BJ77" s="54">
-        <x:f>SUM(B77:BI77)</x:f>
-      </x:c>
+      <x:c r="A77" s="72" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="B77" s="22"/>
+      <x:c r="C77" s="23"/>
+      <x:c r="D77" s="23"/>
+      <x:c r="E77" s="23"/>
+      <x:c r="F77" s="23"/>
+      <x:c r="G77" s="23"/>
+      <x:c r="H77" s="23">
+        <x:v>0.291666666666667</x:v>
+      </x:c>
+      <x:c r="I77" s="23">
+        <x:v>0.291666666666667</x:v>
+      </x:c>
+      <x:c r="J77" s="23"/>
+      <x:c r="K77" s="23"/>
+      <x:c r="L77" s="23">
+        <x:v>0.291666666666667</x:v>
+      </x:c>
+      <x:c r="M77" s="23">
+        <x:v>0.291666666666667</x:v>
+      </x:c>
+      <x:c r="N77" s="23"/>
+      <x:c r="O77" s="23"/>
+      <x:c r="P77" s="23"/>
+      <x:c r="Q77" s="23"/>
+      <x:c r="R77" s="23"/>
+      <x:c r="S77" s="23"/>
+      <x:c r="T77" s="23"/>
+      <x:c r="U77" s="23"/>
+      <x:c r="V77" s="23"/>
+      <x:c r="W77" s="23"/>
+      <x:c r="X77" s="23"/>
+      <x:c r="Y77" s="23"/>
+      <x:c r="Z77" s="23"/>
+      <x:c r="AA77" s="23"/>
+      <x:c r="AB77" s="23"/>
+      <x:c r="AC77" s="23"/>
+      <x:c r="AD77" s="23"/>
+      <x:c r="AE77" s="23"/>
+      <x:c r="AF77" s="23">
+        <x:v>0.291666666666667</x:v>
+      </x:c>
+      <x:c r="AG77" s="23">
+        <x:v>0.291666666666667</x:v>
+      </x:c>
+      <x:c r="AH77" s="23"/>
+      <x:c r="AI77" s="23"/>
+      <x:c r="AJ77" s="23"/>
+      <x:c r="AK77" s="23"/>
+      <x:c r="AL77" s="23"/>
+      <x:c r="AM77" s="23"/>
+      <x:c r="AN77" s="23"/>
+      <x:c r="AO77" s="23"/>
+      <x:c r="AP77" s="23"/>
+      <x:c r="AQ77" s="23"/>
+      <x:c r="AR77" s="23"/>
+      <x:c r="AS77" s="23"/>
+      <x:c r="AT77" s="23"/>
+      <x:c r="AU77" s="23"/>
+      <x:c r="AV77" s="23"/>
+      <x:c r="AW77" s="23"/>
+      <x:c r="AX77" s="23"/>
+      <x:c r="AY77" s="23"/>
+      <x:c r="AZ77" s="23"/>
+      <x:c r="BA77" s="23"/>
+      <x:c r="BB77" s="23">
+        <x:v>0.291666666666667</x:v>
+      </x:c>
+      <x:c r="BC77" s="23">
+        <x:v>0.791666666666667</x:v>
+      </x:c>
+      <x:c r="BD77" s="23"/>
+      <x:c r="BE77" s="23"/>
+      <x:c r="BF77" s="23"/>
+      <x:c r="BG77" s="23"/>
+      <x:c r="BH77" s="23">
+        <x:v>0.291666666666667</x:v>
+      </x:c>
+      <x:c r="BI77" s="50">
+        <x:v>0.791666666666667</x:v>
+      </x:c>
+      <x:c r="BJ77" s="54"/>
     </x:row>
     <x:row r="78" spans="1:63" ht="20.1" customHeight="1" x14ac:dyDescent="0.25">
-      <x:c r="A78" s="72" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="B78" s="22"/>
-      <x:c r="C78" s="23"/>
-      <x:c r="D78" s="23"/>
-      <x:c r="E78" s="23"/>
-      <x:c r="F78" s="23"/>
-      <x:c r="G78" s="23"/>
-      <x:c r="H78" s="23"/>
-      <x:c r="I78" s="23"/>
-      <x:c r="J78" s="23"/>
-      <x:c r="K78" s="23"/>
-      <x:c r="L78" s="23">
-        <x:v>0.291666666666667</x:v>
-      </x:c>
-      <x:c r="M78" s="23">
-        <x:v>0.291666666666667</x:v>
-      </x:c>
-      <x:c r="N78" s="23"/>
-      <x:c r="O78" s="23"/>
-      <x:c r="P78" s="23"/>
-      <x:c r="Q78" s="23"/>
-      <x:c r="R78" s="23"/>
-      <x:c r="S78" s="23"/>
-      <x:c r="T78" s="23"/>
-      <x:c r="U78" s="23"/>
-      <x:c r="V78" s="23"/>
-      <x:c r="W78" s="23"/>
-      <x:c r="X78" s="23"/>
-      <x:c r="Y78" s="23"/>
-      <x:c r="Z78" s="23"/>
-      <x:c r="AA78" s="23"/>
-      <x:c r="AB78" s="23">
-        <x:v>0.291666666666667</x:v>
-      </x:c>
-      <x:c r="AC78" s="23">
-        <x:v>0.291666666666667</x:v>
-      </x:c>
-      <x:c r="AD78" s="23"/>
-      <x:c r="AE78" s="23"/>
-      <x:c r="AF78" s="23"/>
-      <x:c r="AG78" s="23"/>
-      <x:c r="AH78" s="23"/>
-      <x:c r="AI78" s="23"/>
-      <x:c r="AJ78" s="23">
-        <x:v>0.291666666666667</x:v>
-      </x:c>
-      <x:c r="AK78" s="23">
-        <x:v>0.291666666666667</x:v>
-      </x:c>
-      <x:c r="AL78" s="23">
-        <x:v>0.791666666666667</x:v>
-      </x:c>
-      <x:c r="AM78" s="23">
-        <x:v>0.291666666666667</x:v>
-      </x:c>
-      <x:c r="AN78" s="23"/>
-      <x:c r="AO78" s="23"/>
-      <x:c r="AP78" s="23"/>
-      <x:c r="AQ78" s="23"/>
-      <x:c r="AR78" s="23">
-        <x:v>0.291666666666667</x:v>
-      </x:c>
-      <x:c r="AS78" s="23">
-        <x:v>0.291666666666667</x:v>
-      </x:c>
-      <x:c r="AT78" s="23"/>
-      <x:c r="AU78" s="23"/>
-      <x:c r="AV78" s="23"/>
-      <x:c r="AW78" s="23"/>
-      <x:c r="AX78" s="23"/>
-      <x:c r="AY78" s="23"/>
-      <x:c r="AZ78" s="23">
-        <x:v>0.291666666666667</x:v>
-      </x:c>
-      <x:c r="BA78" s="23">
-        <x:v>0.291666666666667</x:v>
-      </x:c>
-      <x:c r="BB78" s="23"/>
-      <x:c r="BC78" s="23"/>
-      <x:c r="BD78" s="23"/>
-      <x:c r="BE78" s="23"/>
-      <x:c r="BF78" s="23"/>
-      <x:c r="BG78" s="23"/>
-      <x:c r="BH78" s="23">
-        <x:v>0.791666666666667</x:v>
-      </x:c>
-      <x:c r="BI78" s="50">
-        <x:v>0.291666666666667</x:v>
-      </x:c>
-      <x:c r="BJ78" s="54"/>
+      <x:c r="A78" s="56" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B78" s="9">
+        <x:f>(C77-B77)*24</x:f>
+      </x:c>
+      <x:c r="C78" s="8"/>
+      <x:c r="D78" s="9">
+        <x:f>(E77-D77)*24</x:f>
+      </x:c>
+      <x:c r="E78" s="8"/>
+      <x:c r="F78" s="9">
+        <x:f>(G77-F77)*24</x:f>
+      </x:c>
+      <x:c r="G78" s="8"/>
+      <x:c r="H78" s="9">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="I78" s="8"/>
+      <x:c r="J78" s="9">
+        <x:f>(K77-J77)*24</x:f>
+      </x:c>
+      <x:c r="K78" s="8"/>
+      <x:c r="L78" s="9">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="M78" s="8"/>
+      <x:c r="N78" s="9">
+        <x:f>(O77-N77)*24</x:f>
+      </x:c>
+      <x:c r="O78" s="8"/>
+      <x:c r="P78" s="9">
+        <x:f>(Q77-P77)*24</x:f>
+      </x:c>
+      <x:c r="Q78" s="8"/>
+      <x:c r="R78" s="9">
+        <x:f>(S77-R77)*24</x:f>
+      </x:c>
+      <x:c r="S78" s="8"/>
+      <x:c r="T78" s="9">
+        <x:f>(U77-T77)*24</x:f>
+      </x:c>
+      <x:c r="U78" s="8"/>
+      <x:c r="V78" s="9">
+        <x:f>(W77-V77)*24</x:f>
+      </x:c>
+      <x:c r="W78" s="8"/>
+      <x:c r="X78" s="9">
+        <x:f>(Y77-X77)*24</x:f>
+      </x:c>
+      <x:c r="Y78" s="8"/>
+      <x:c r="Z78" s="9">
+        <x:f>(AA77-Z77)*24</x:f>
+      </x:c>
+      <x:c r="AA78" s="8"/>
+      <x:c r="AB78" s="9">
+        <x:f>(AC77-AB77)*24</x:f>
+      </x:c>
+      <x:c r="AC78" s="8"/>
+      <x:c r="AD78" s="9">
+        <x:f>(AE77-AD77)*24</x:f>
+      </x:c>
+      <x:c r="AE78" s="8"/>
+      <x:c r="AF78" s="9">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="AG78" s="8"/>
+      <x:c r="AH78" s="9">
+        <x:f>(AI77-AH77)*24</x:f>
+      </x:c>
+      <x:c r="AI78" s="8"/>
+      <x:c r="AJ78" s="9">
+        <x:f>(AK77-AJ77)*24</x:f>
+      </x:c>
+      <x:c r="AK78" s="8"/>
+      <x:c r="AL78" s="9">
+        <x:f>(AM77-AL77)*24</x:f>
+      </x:c>
+      <x:c r="AM78" s="8"/>
+      <x:c r="AN78" s="9">
+        <x:f>(AO77-AN77)*24</x:f>
+      </x:c>
+      <x:c r="AO78" s="8"/>
+      <x:c r="AP78" s="9">
+        <x:f>(AQ77-AP77)*24</x:f>
+      </x:c>
+      <x:c r="AQ78" s="8"/>
+      <x:c r="AR78" s="9">
+        <x:f>(AS77-AR77)*24</x:f>
+      </x:c>
+      <x:c r="AS78" s="8"/>
+      <x:c r="AT78" s="9">
+        <x:f>(AU77-AT77)*24</x:f>
+      </x:c>
+      <x:c r="AU78" s="8"/>
+      <x:c r="AV78" s="9">
+        <x:f>(AW77-AV77)*24</x:f>
+      </x:c>
+      <x:c r="AW78" s="8"/>
+      <x:c r="AX78" s="9">
+        <x:f>(AY77-AX77)*24</x:f>
+      </x:c>
+      <x:c r="AY78" s="8"/>
+      <x:c r="AZ78" s="9">
+        <x:f>(BA77-AZ77)*24</x:f>
+      </x:c>
+      <x:c r="BA78" s="8"/>
+      <x:c r="BB78" s="9">
+        <x:f>(BC77-BB77)*24</x:f>
+      </x:c>
+      <x:c r="BC78" s="8"/>
+      <x:c r="BD78" s="9">
+        <x:f>(BE77-BD77)*24</x:f>
+      </x:c>
+      <x:c r="BE78" s="8"/>
+      <x:c r="BF78" s="9">
+        <x:f>(BG77-BF77)*24</x:f>
+      </x:c>
+      <x:c r="BG78" s="8"/>
+      <x:c r="BH78" s="9">
+        <x:f>(BI77-BH77)*24</x:f>
+      </x:c>
+      <x:c r="BI78" s="8"/>
+      <x:c r="BJ78" s="54">
+        <x:f>SUM(B78:BI78)</x:f>
+      </x:c>
     </x:row>
     <x:row r="79" spans="1:63" ht="20.1" customHeight="1" x14ac:dyDescent="0.25">
-      <x:c r="A79" s="56" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="B79" s="9">
-        <x:f>(C78-B78)*24</x:f>
-      </x:c>
-      <x:c r="C79" s="8"/>
-      <x:c r="D79" s="9">
-        <x:f>(E78-D78)*24</x:f>
-      </x:c>
-      <x:c r="E79" s="8"/>
-      <x:c r="F79" s="9">
-        <x:f>(G78-F78)*24</x:f>
-      </x:c>
-      <x:c r="G79" s="8"/>
-      <x:c r="H79" s="9">
-        <x:f>(I78-H78)*24</x:f>
-      </x:c>
-      <x:c r="I79" s="8"/>
-      <x:c r="J79" s="9">
-        <x:f>(K78-J78)*24</x:f>
-      </x:c>
-      <x:c r="K79" s="8"/>
-      <x:c r="L79" s="9">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="M79" s="8"/>
-      <x:c r="N79" s="9">
-        <x:f>(O78-N78)*24</x:f>
-      </x:c>
-      <x:c r="O79" s="8"/>
-      <x:c r="P79" s="9">
-        <x:f>(Q78-P78)*24</x:f>
-      </x:c>
-      <x:c r="Q79" s="8"/>
-      <x:c r="R79" s="9">
-        <x:f>(S78-R78)*24</x:f>
-      </x:c>
-      <x:c r="S79" s="8"/>
-      <x:c r="T79" s="9">
-        <x:f>(U78-T78)*24</x:f>
-      </x:c>
-      <x:c r="U79" s="8"/>
-      <x:c r="V79" s="9">
-        <x:f>(W78-V78)*24</x:f>
-      </x:c>
-      <x:c r="W79" s="8"/>
-      <x:c r="X79" s="9">
-        <x:f>(Y78-X78)*24</x:f>
-      </x:c>
-      <x:c r="Y79" s="8"/>
-      <x:c r="Z79" s="9">
-        <x:f>(AA78-Z78)*24</x:f>
-      </x:c>
-      <x:c r="AA79" s="8"/>
-      <x:c r="AB79" s="9">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="AC79" s="8"/>
-      <x:c r="AD79" s="9">
-        <x:f>(AE78-AD78)*24</x:f>
-      </x:c>
-      <x:c r="AE79" s="8"/>
-      <x:c r="AF79" s="9">
-        <x:f>(AG78-AF78)*24</x:f>
-      </x:c>
-      <x:c r="AG79" s="8"/>
-      <x:c r="AH79" s="9">
-        <x:f>(AI78-AH78)*24</x:f>
-      </x:c>
-      <x:c r="AI79" s="8"/>
-      <x:c r="AJ79" s="9">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="AK79" s="8"/>
-      <x:c r="AL79" s="9">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="AM79" s="8"/>
-      <x:c r="AN79" s="9">
-        <x:f>(AO78-AN78)*24</x:f>
-      </x:c>
-      <x:c r="AO79" s="8"/>
-      <x:c r="AP79" s="9">
-        <x:f>(AQ78-AP78)*24</x:f>
-      </x:c>
-      <x:c r="AQ79" s="8"/>
-      <x:c r="AR79" s="9">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="AS79" s="8"/>
-      <x:c r="AT79" s="9">
-        <x:f>(AU78-AT78)*24</x:f>
-      </x:c>
-      <x:c r="AU79" s="8"/>
-      <x:c r="AV79" s="9">
-        <x:f>(AW78-AV78)*24</x:f>
-      </x:c>
-      <x:c r="AW79" s="8"/>
-      <x:c r="AX79" s="9">
-        <x:f>(AY78-AX78)*24</x:f>
-      </x:c>
-      <x:c r="AY79" s="8"/>
-      <x:c r="AZ79" s="9">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="BA79" s="8"/>
-      <x:c r="BB79" s="9">
-        <x:f>(BC78-BB78)*24</x:f>
-      </x:c>
-      <x:c r="BC79" s="8"/>
-      <x:c r="BD79" s="9">
-        <x:f>(BE78-BD78)*24</x:f>
-      </x:c>
-      <x:c r="BE79" s="8"/>
-      <x:c r="BF79" s="9">
-        <x:f>(BG78-BF78)*24</x:f>
-      </x:c>
-      <x:c r="BG79" s="8"/>
-      <x:c r="BH79" s="9">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="BI79" s="8"/>
-      <x:c r="BJ79" s="54">
-        <x:f>SUM(B79:BI79)</x:f>
-      </x:c>
+      <x:c r="A79" s="72" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="B79" s="22"/>
+      <x:c r="C79" s="23"/>
+      <x:c r="D79" s="23"/>
+      <x:c r="E79" s="23"/>
+      <x:c r="F79" s="23"/>
+      <x:c r="G79" s="23"/>
+      <x:c r="H79" s="23"/>
+      <x:c r="I79" s="23"/>
+      <x:c r="J79" s="23"/>
+      <x:c r="K79" s="23"/>
+      <x:c r="L79" s="23">
+        <x:v>0.291666666666667</x:v>
+      </x:c>
+      <x:c r="M79" s="23">
+        <x:v>0.291666666666667</x:v>
+      </x:c>
+      <x:c r="N79" s="23"/>
+      <x:c r="O79" s="23"/>
+      <x:c r="P79" s="23"/>
+      <x:c r="Q79" s="23"/>
+      <x:c r="R79" s="23"/>
+      <x:c r="S79" s="23"/>
+      <x:c r="T79" s="23"/>
+      <x:c r="U79" s="23"/>
+      <x:c r="V79" s="23"/>
+      <x:c r="W79" s="23"/>
+      <x:c r="X79" s="23"/>
+      <x:c r="Y79" s="23"/>
+      <x:c r="Z79" s="23"/>
+      <x:c r="AA79" s="23"/>
+      <x:c r="AB79" s="23">
+        <x:v>0.291666666666667</x:v>
+      </x:c>
+      <x:c r="AC79" s="23">
+        <x:v>0.291666666666667</x:v>
+      </x:c>
+      <x:c r="AD79" s="23"/>
+      <x:c r="AE79" s="23"/>
+      <x:c r="AF79" s="23"/>
+      <x:c r="AG79" s="23"/>
+      <x:c r="AH79" s="23"/>
+      <x:c r="AI79" s="23"/>
+      <x:c r="AJ79" s="23">
+        <x:v>0.291666666666667</x:v>
+      </x:c>
+      <x:c r="AK79" s="23">
+        <x:v>0.291666666666667</x:v>
+      </x:c>
+      <x:c r="AL79" s="23">
+        <x:v>0.791666666666667</x:v>
+      </x:c>
+      <x:c r="AM79" s="23">
+        <x:v>0.291666666666667</x:v>
+      </x:c>
+      <x:c r="AN79" s="23"/>
+      <x:c r="AO79" s="23"/>
+      <x:c r="AP79" s="23"/>
+      <x:c r="AQ79" s="23"/>
+      <x:c r="AR79" s="23">
+        <x:v>0.291666666666667</x:v>
+      </x:c>
+      <x:c r="AS79" s="23">
+        <x:v>0.291666666666667</x:v>
+      </x:c>
+      <x:c r="AT79" s="23"/>
+      <x:c r="AU79" s="23"/>
+      <x:c r="AV79" s="23"/>
+      <x:c r="AW79" s="23"/>
+      <x:c r="AX79" s="23"/>
+      <x:c r="AY79" s="23"/>
+      <x:c r="AZ79" s="23">
+        <x:v>0.291666666666667</x:v>
+      </x:c>
+      <x:c r="BA79" s="23">
+        <x:v>0.291666666666667</x:v>
+      </x:c>
+      <x:c r="BB79" s="23"/>
+      <x:c r="BC79" s="23"/>
+      <x:c r="BD79" s="23"/>
+      <x:c r="BE79" s="23"/>
+      <x:c r="BF79" s="23"/>
+      <x:c r="BG79" s="23"/>
+      <x:c r="BH79" s="23">
+        <x:v>0.791666666666667</x:v>
+      </x:c>
+      <x:c r="BI79" s="50">
+        <x:v>0.291666666666667</x:v>
+      </x:c>
+      <x:c r="BJ79" s="54"/>
     </x:row>
     <x:row r="80" spans="1:63" ht="20.1" customHeight="1" x14ac:dyDescent="0.25">
-      <x:c r="A80" s="72" t="s">
-        <x:v>43</x:v>
-      </x:c>
-      <x:c r="B80" s="22"/>
-      <x:c r="C80" s="23"/>
-      <x:c r="D80" s="23"/>
-      <x:c r="E80" s="23"/>
-      <x:c r="F80" s="23"/>
-      <x:c r="G80" s="23"/>
-      <x:c r="H80" s="23"/>
-      <x:c r="I80" s="23"/>
-      <x:c r="J80" s="23"/>
-      <x:c r="K80" s="23"/>
-      <x:c r="L80" s="23"/>
-      <x:c r="M80" s="23"/>
-      <x:c r="N80" s="23"/>
-      <x:c r="O80" s="23"/>
-      <x:c r="P80" s="23"/>
-      <x:c r="Q80" s="23"/>
-      <x:c r="R80" s="23"/>
-      <x:c r="S80" s="23"/>
-      <x:c r="T80" s="23"/>
-      <x:c r="U80" s="23"/>
-      <x:c r="V80" s="23"/>
-      <x:c r="W80" s="23"/>
-      <x:c r="X80" s="23"/>
-      <x:c r="Y80" s="23"/>
-      <x:c r="Z80" s="23"/>
-      <x:c r="AA80" s="23"/>
-      <x:c r="AB80" s="23"/>
-      <x:c r="AC80" s="23"/>
-      <x:c r="AD80" s="23"/>
-      <x:c r="AE80" s="23"/>
-      <x:c r="AF80" s="23"/>
-      <x:c r="AG80" s="23"/>
-      <x:c r="AH80" s="23"/>
-      <x:c r="AI80" s="23"/>
-      <x:c r="AJ80" s="23"/>
-      <x:c r="AK80" s="23"/>
-      <x:c r="AL80" s="23"/>
-      <x:c r="AM80" s="23"/>
-      <x:c r="AN80" s="23"/>
-      <x:c r="AO80" s="23"/>
-      <x:c r="AP80" s="23"/>
-      <x:c r="AQ80" s="23"/>
-      <x:c r="AR80" s="23"/>
-      <x:c r="AS80" s="23"/>
-      <x:c r="AT80" s="23"/>
-      <x:c r="AU80" s="23"/>
-      <x:c r="AV80" s="23"/>
-      <x:c r="AW80" s="23"/>
-      <x:c r="AX80" s="23"/>
-      <x:c r="AY80" s="23"/>
-      <x:c r="AZ80" s="23"/>
-      <x:c r="BA80" s="23"/>
-      <x:c r="BB80" s="23"/>
-      <x:c r="BC80" s="23"/>
-      <x:c r="BD80" s="23"/>
-      <x:c r="BE80" s="23"/>
-      <x:c r="BF80" s="23"/>
-      <x:c r="BG80" s="23"/>
-      <x:c r="BH80" s="23"/>
-      <x:c r="BI80" s="50"/>
-      <x:c r="BJ80" s="54"/>
+      <x:c r="A80" s="56" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B80" s="9">
+        <x:f>(C79-B79)*24</x:f>
+      </x:c>
+      <x:c r="C80" s="8"/>
+      <x:c r="D80" s="9">
+        <x:f>(E79-D79)*24</x:f>
+      </x:c>
+      <x:c r="E80" s="8"/>
+      <x:c r="F80" s="9">
+        <x:f>(G79-F79)*24</x:f>
+      </x:c>
+      <x:c r="G80" s="8"/>
+      <x:c r="H80" s="9">
+        <x:f>(I79-H79)*24</x:f>
+      </x:c>
+      <x:c r="I80" s="8"/>
+      <x:c r="J80" s="9">
+        <x:f>(K79-J79)*24</x:f>
+      </x:c>
+      <x:c r="K80" s="8"/>
+      <x:c r="L80" s="9">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="M80" s="8"/>
+      <x:c r="N80" s="9">
+        <x:f>(O79-N79)*24</x:f>
+      </x:c>
+      <x:c r="O80" s="8"/>
+      <x:c r="P80" s="9">
+        <x:f>(Q79-P79)*24</x:f>
+      </x:c>
+      <x:c r="Q80" s="8"/>
+      <x:c r="R80" s="9">
+        <x:f>(S79-R79)*24</x:f>
+      </x:c>
+      <x:c r="S80" s="8"/>
+      <x:c r="T80" s="9">
+        <x:f>(U79-T79)*24</x:f>
+      </x:c>
+      <x:c r="U80" s="8"/>
+      <x:c r="V80" s="9">
+        <x:f>(W79-V79)*24</x:f>
+      </x:c>
+      <x:c r="W80" s="8"/>
+      <x:c r="X80" s="9">
+        <x:f>(Y79-X79)*24</x:f>
+      </x:c>
+      <x:c r="Y80" s="8"/>
+      <x:c r="Z80" s="9">
+        <x:f>(AA79-Z79)*24</x:f>
+      </x:c>
+      <x:c r="AA80" s="8"/>
+      <x:c r="AB80" s="9">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="AC80" s="8"/>
+      <x:c r="AD80" s="9">
+        <x:f>(AE79-AD79)*24</x:f>
+      </x:c>
+      <x:c r="AE80" s="8"/>
+      <x:c r="AF80" s="9">
+        <x:f>(AG79-AF79)*24</x:f>
+      </x:c>
+      <x:c r="AG80" s="8"/>
+      <x:c r="AH80" s="9">
+        <x:f>(AI79-AH79)*24</x:f>
+      </x:c>
+      <x:c r="AI80" s="8"/>
+      <x:c r="AJ80" s="9">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="AK80" s="8"/>
+      <x:c r="AL80" s="9">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="AM80" s="8"/>
+      <x:c r="AN80" s="9">
+        <x:f>(AO79-AN79)*24</x:f>
+      </x:c>
+      <x:c r="AO80" s="8"/>
+      <x:c r="AP80" s="9">
+        <x:f>(AQ79-AP79)*24</x:f>
+      </x:c>
+      <x:c r="AQ80" s="8"/>
+      <x:c r="AR80" s="9">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="AS80" s="8"/>
+      <x:c r="AT80" s="9">
+        <x:f>(AU79-AT79)*24</x:f>
+      </x:c>
+      <x:c r="AU80" s="8"/>
+      <x:c r="AV80" s="9">
+        <x:f>(AW79-AV79)*24</x:f>
+      </x:c>
+      <x:c r="AW80" s="8"/>
+      <x:c r="AX80" s="9">
+        <x:f>(AY79-AX79)*24</x:f>
+      </x:c>
+      <x:c r="AY80" s="8"/>
+      <x:c r="AZ80" s="9">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="BA80" s="8"/>
+      <x:c r="BB80" s="9">
+        <x:f>(BC79-BB79)*24</x:f>
+      </x:c>
+      <x:c r="BC80" s="8"/>
+      <x:c r="BD80" s="9">
+        <x:f>(BE79-BD79)*24</x:f>
+      </x:c>
+      <x:c r="BE80" s="8"/>
+      <x:c r="BF80" s="9">
+        <x:f>(BG79-BF79)*24</x:f>
+      </x:c>
+      <x:c r="BG80" s="8"/>
+      <x:c r="BH80" s="9">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="BI80" s="8"/>
+      <x:c r="BJ80" s="54">
+        <x:f>SUM(B80:BI80)</x:f>
+      </x:c>
     </x:row>
     <x:row r="81" spans="1:63" ht="20.1" customHeight="1" x14ac:dyDescent="0.25">
-      <x:c r="A81" s="56" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="B81" s="9">
-        <x:f>(C80-B80)*24</x:f>
-      </x:c>
-      <x:c r="C81" s="8"/>
-      <x:c r="D81" s="9">
-        <x:f>(E80-D80)*24</x:f>
-      </x:c>
-      <x:c r="E81" s="8"/>
-      <x:c r="F81" s="9">
-        <x:f>(G80-F80)*24</x:f>
-      </x:c>
-      <x:c r="G81" s="8"/>
-      <x:c r="H81" s="9">
-        <x:f>(I80-H80)*24</x:f>
-      </x:c>
-      <x:c r="I81" s="8"/>
-      <x:c r="J81" s="9">
-        <x:f>(K80-J80)*24</x:f>
-      </x:c>
-      <x:c r="K81" s="8"/>
-      <x:c r="L81" s="9">
-        <x:f>(M80-L80)*24</x:f>
-      </x:c>
-      <x:c r="M81" s="8"/>
-      <x:c r="N81" s="9">
-        <x:f>(O80-N80)*24</x:f>
-      </x:c>
-      <x:c r="O81" s="8"/>
-      <x:c r="P81" s="9">
-        <x:f>(Q80-P80)*24</x:f>
-      </x:c>
-      <x:c r="Q81" s="8"/>
-      <x:c r="R81" s="9">
-        <x:f>(S80-R80)*24</x:f>
-      </x:c>
-      <x:c r="S81" s="8"/>
-      <x:c r="T81" s="9">
-        <x:f>(U80-T80)*24</x:f>
-      </x:c>
-      <x:c r="U81" s="8"/>
-      <x:c r="V81" s="9">
-        <x:f>(W80-V80)*24</x:f>
-      </x:c>
-      <x:c r="W81" s="8"/>
-      <x:c r="X81" s="9">
-        <x:f>(Y80-X80)*24</x:f>
-      </x:c>
-      <x:c r="Y81" s="8"/>
-      <x:c r="Z81" s="9">
-        <x:f>(AA80-Z80)*24</x:f>
-      </x:c>
-      <x:c r="AA81" s="8"/>
-      <x:c r="AB81" s="9">
-        <x:f>(AC80-AB80)*24</x:f>
-      </x:c>
-      <x:c r="AC81" s="8"/>
-      <x:c r="AD81" s="9">
-        <x:f>(AE80-AD80)*24</x:f>
-      </x:c>
-      <x:c r="AE81" s="8"/>
-      <x:c r="AF81" s="9">
-        <x:f>(AG80-AF80)*24</x:f>
-      </x:c>
-      <x:c r="AG81" s="8"/>
-      <x:c r="AH81" s="9">
-        <x:f>(AI80-AH80)*24</x:f>
-      </x:c>
-      <x:c r="AI81" s="8"/>
-      <x:c r="AJ81" s="9">
-        <x:f>(AK80-AJ80)*24</x:f>
-      </x:c>
-      <x:c r="AK81" s="8"/>
-      <x:c r="AL81" s="9">
-        <x:f>(AM80-AL80)*24</x:f>
-      </x:c>
-      <x:c r="AM81" s="8"/>
-      <x:c r="AN81" s="9">
-        <x:f>(AO80-AN80)*24</x:f>
-      </x:c>
-      <x:c r="AO81" s="8"/>
-      <x:c r="AP81" s="9">
-        <x:f>(AQ80-AP80)*24</x:f>
-      </x:c>
-      <x:c r="AQ81" s="8"/>
-      <x:c r="AR81" s="9">
-        <x:f>(AS80-AR80)*24</x:f>
-      </x:c>
-      <x:c r="AS81" s="8"/>
-      <x:c r="AT81" s="9">
-        <x:f>(AU80-AT80)*24</x:f>
-      </x:c>
-      <x:c r="AU81" s="8"/>
-      <x:c r="AV81" s="9">
-        <x:f>(AW80-AV80)*24</x:f>
-      </x:c>
-      <x:c r="AW81" s="8"/>
-      <x:c r="AX81" s="9">
-        <x:f>(AY80-AX80)*24</x:f>
-      </x:c>
-      <x:c r="AY81" s="8"/>
-      <x:c r="AZ81" s="9">
-        <x:f>(BA80-AZ80)*24</x:f>
-      </x:c>
-      <x:c r="BA81" s="8"/>
-      <x:c r="BB81" s="9">
-        <x:f>(BC80-BB80)*24</x:f>
-      </x:c>
-      <x:c r="BC81" s="8"/>
-      <x:c r="BD81" s="9">
-        <x:f>(BE80-BD80)*24</x:f>
-      </x:c>
-      <x:c r="BE81" s="8"/>
-      <x:c r="BF81" s="9">
-        <x:f>(BG80-BF80)*24</x:f>
-      </x:c>
-      <x:c r="BG81" s="8"/>
-      <x:c r="BH81" s="9">
-        <x:f>(BI80-BH80)*24</x:f>
-      </x:c>
-      <x:c r="BI81" s="8"/>
-      <x:c r="BJ81" s="54">
-        <x:f>SUM(B81:BI81)</x:f>
-      </x:c>
+      <x:c r="A81" s="72" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="B81" s="22"/>
+      <x:c r="C81" s="23"/>
+      <x:c r="D81" s="23"/>
+      <x:c r="E81" s="23"/>
+      <x:c r="F81" s="23"/>
+      <x:c r="G81" s="23"/>
+      <x:c r="H81" s="23"/>
+      <x:c r="I81" s="23"/>
+      <x:c r="J81" s="23"/>
+      <x:c r="K81" s="23"/>
+      <x:c r="L81" s="23"/>
+      <x:c r="M81" s="23"/>
+      <x:c r="N81" s="23"/>
+      <x:c r="O81" s="23"/>
+      <x:c r="P81" s="23"/>
+      <x:c r="Q81" s="23"/>
+      <x:c r="R81" s="23"/>
+      <x:c r="S81" s="23"/>
+      <x:c r="T81" s="23"/>
+      <x:c r="U81" s="23"/>
+      <x:c r="V81" s="23"/>
+      <x:c r="W81" s="23"/>
+      <x:c r="X81" s="23"/>
+      <x:c r="Y81" s="23"/>
+      <x:c r="Z81" s="23"/>
+      <x:c r="AA81" s="23"/>
+      <x:c r="AB81" s="23"/>
+      <x:c r="AC81" s="23"/>
+      <x:c r="AD81" s="23"/>
+      <x:c r="AE81" s="23"/>
+      <x:c r="AF81" s="23"/>
+      <x:c r="AG81" s="23"/>
+      <x:c r="AH81" s="23"/>
+      <x:c r="AI81" s="23"/>
+      <x:c r="AJ81" s="23"/>
+      <x:c r="AK81" s="23"/>
+      <x:c r="AL81" s="23"/>
+      <x:c r="AM81" s="23"/>
+      <x:c r="AN81" s="23"/>
+      <x:c r="AO81" s="23"/>
+      <x:c r="AP81" s="23"/>
+      <x:c r="AQ81" s="23"/>
+      <x:c r="AR81" s="23"/>
+      <x:c r="AS81" s="23"/>
+      <x:c r="AT81" s="23"/>
+      <x:c r="AU81" s="23"/>
+      <x:c r="AV81" s="23"/>
+      <x:c r="AW81" s="23"/>
+      <x:c r="AX81" s="23"/>
+      <x:c r="AY81" s="23"/>
+      <x:c r="AZ81" s="23"/>
+      <x:c r="BA81" s="23"/>
+      <x:c r="BB81" s="23"/>
+      <x:c r="BC81" s="23"/>
+      <x:c r="BD81" s="23"/>
+      <x:c r="BE81" s="23"/>
+      <x:c r="BF81" s="23"/>
+      <x:c r="BG81" s="23"/>
+      <x:c r="BH81" s="23"/>
+      <x:c r="BI81" s="50"/>
+      <x:c r="BJ81" s="54"/>
     </x:row>
     <x:row r="82" spans="1:63" ht="20.1" customHeight="1" x14ac:dyDescent="0.25">
-      <x:c r="A82" s="72" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="B82" s="80"/>
-      <x:c r="C82" s="77"/>
-      <x:c r="D82" s="77"/>
-      <x:c r="E82" s="77"/>
-      <x:c r="F82" s="77">
-        <x:v>0.291666666666667</x:v>
-      </x:c>
-      <x:c r="G82" s="77">
-        <x:v>0.791666666666667</x:v>
-      </x:c>
-      <x:c r="H82" s="77"/>
-      <x:c r="I82" s="77"/>
-      <x:c r="J82" s="77"/>
-      <x:c r="K82" s="77"/>
-      <x:c r="L82" s="77"/>
-      <x:c r="M82" s="77"/>
-      <x:c r="N82" s="77"/>
-      <x:c r="O82" s="77"/>
-      <x:c r="P82" s="77"/>
-      <x:c r="Q82" s="77"/>
-      <x:c r="R82" s="77"/>
-      <x:c r="S82" s="77"/>
-      <x:c r="T82" s="77">
-        <x:v>0.291666666666667</x:v>
-      </x:c>
-      <x:c r="U82" s="77">
-        <x:v>0.791666666666667</x:v>
-      </x:c>
-      <x:c r="V82" s="77"/>
-      <x:c r="W82" s="77"/>
-      <x:c r="X82" s="77"/>
-      <x:c r="Y82" s="77"/>
-      <x:c r="Z82" s="77"/>
-      <x:c r="AA82" s="77"/>
-      <x:c r="AB82" s="77"/>
-      <x:c r="AC82" s="77"/>
-      <x:c r="AD82" s="77">
-        <x:v>0.291666666666667</x:v>
-      </x:c>
-      <x:c r="AE82" s="77">
-        <x:v>0.291666666666667</x:v>
-      </x:c>
-      <x:c r="AF82" s="77"/>
-      <x:c r="AG82" s="77"/>
-      <x:c r="AH82" s="77"/>
-      <x:c r="AI82" s="77"/>
-      <x:c r="AJ82" s="77"/>
-      <x:c r="AK82" s="77"/>
-      <x:c r="AL82" s="77"/>
-      <x:c r="AM82" s="77"/>
-      <x:c r="AN82" s="77"/>
-      <x:c r="AO82" s="77"/>
-      <x:c r="AP82" s="77">
-        <x:v>0.291666666666667</x:v>
-      </x:c>
-      <x:c r="AQ82" s="77">
-        <x:v>0.291666666666667</x:v>
-      </x:c>
-      <x:c r="AR82" s="77"/>
-      <x:c r="AS82" s="77"/>
-      <x:c r="AT82" s="77"/>
-      <x:c r="AU82" s="77"/>
-      <x:c r="AV82" s="77"/>
-      <x:c r="AW82" s="77"/>
-      <x:c r="AX82" s="77"/>
-      <x:c r="AY82" s="77"/>
-      <x:c r="AZ82" s="77"/>
-      <x:c r="BA82" s="77"/>
-      <x:c r="BB82" s="77">
-        <x:v>0.291666666666667</x:v>
-      </x:c>
-      <x:c r="BC82" s="77">
-        <x:v>0.291666666666667</x:v>
-      </x:c>
-      <x:c r="BD82" s="77"/>
-      <x:c r="BE82" s="77"/>
-      <x:c r="BF82" s="77"/>
-      <x:c r="BG82" s="77"/>
-      <x:c r="BH82" s="77"/>
-      <x:c r="BI82" s="82"/>
-      <x:c r="BJ82" s="54"/>
+      <x:c r="A82" s="56" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B82" s="9">
+        <x:f>(C81-B81)*24</x:f>
+      </x:c>
+      <x:c r="C82" s="8"/>
+      <x:c r="D82" s="9">
+        <x:f>(E81-D81)*24</x:f>
+      </x:c>
+      <x:c r="E82" s="8"/>
+      <x:c r="F82" s="9">
+        <x:f>(G81-F81)*24</x:f>
+      </x:c>
+      <x:c r="G82" s="8"/>
+      <x:c r="H82" s="9">
+        <x:f>(I81-H81)*24</x:f>
+      </x:c>
+      <x:c r="I82" s="8"/>
+      <x:c r="J82" s="9">
+        <x:f>(K81-J81)*24</x:f>
+      </x:c>
+      <x:c r="K82" s="8"/>
+      <x:c r="L82" s="9">
+        <x:f>(M81-L81)*24</x:f>
+      </x:c>
+      <x:c r="M82" s="8"/>
+      <x:c r="N82" s="9">
+        <x:f>(O81-N81)*24</x:f>
+      </x:c>
+      <x:c r="O82" s="8"/>
+      <x:c r="P82" s="9">
+        <x:f>(Q81-P81)*24</x:f>
+      </x:c>
+      <x:c r="Q82" s="8"/>
+      <x:c r="R82" s="9">
+        <x:f>(S81-R81)*24</x:f>
+      </x:c>
+      <x:c r="S82" s="8"/>
+      <x:c r="T82" s="9">
+        <x:f>(U81-T81)*24</x:f>
+      </x:c>
+      <x:c r="U82" s="8"/>
+      <x:c r="V82" s="9">
+        <x:f>(W81-V81)*24</x:f>
+      </x:c>
+      <x:c r="W82" s="8"/>
+      <x:c r="X82" s="9">
+        <x:f>(Y81-X81)*24</x:f>
+      </x:c>
+      <x:c r="Y82" s="8"/>
+      <x:c r="Z82" s="9">
+        <x:f>(AA81-Z81)*24</x:f>
+      </x:c>
+      <x:c r="AA82" s="8"/>
+      <x:c r="AB82" s="9">
+        <x:f>(AC81-AB81)*24</x:f>
+      </x:c>
+      <x:c r="AC82" s="8"/>
+      <x:c r="AD82" s="9">
+        <x:f>(AE81-AD81)*24</x:f>
+      </x:c>
+      <x:c r="AE82" s="8"/>
+      <x:c r="AF82" s="9">
+        <x:f>(AG81-AF81)*24</x:f>
+      </x:c>
+      <x:c r="AG82" s="8"/>
+      <x:c r="AH82" s="9">
+        <x:f>(AI81-AH81)*24</x:f>
+      </x:c>
+      <x:c r="AI82" s="8"/>
+      <x:c r="AJ82" s="9">
+        <x:f>(AK81-AJ81)*24</x:f>
+      </x:c>
+      <x:c r="AK82" s="8"/>
+      <x:c r="AL82" s="9">
+        <x:f>(AM81-AL81)*24</x:f>
+      </x:c>
+      <x:c r="AM82" s="8"/>
+      <x:c r="AN82" s="9">
+        <x:f>(AO81-AN81)*24</x:f>
+      </x:c>
+      <x:c r="AO82" s="8"/>
+      <x:c r="AP82" s="9">
+        <x:f>(AQ81-AP81)*24</x:f>
+      </x:c>
+      <x:c r="AQ82" s="8"/>
+      <x:c r="AR82" s="9">
+        <x:f>(AS81-AR81)*24</x:f>
+      </x:c>
+      <x:c r="AS82" s="8"/>
+      <x:c r="AT82" s="9">
+        <x:f>(AU81-AT81)*24</x:f>
+      </x:c>
+      <x:c r="AU82" s="8"/>
+      <x:c r="AV82" s="9">
+        <x:f>(AW81-AV81)*24</x:f>
+      </x:c>
+      <x:c r="AW82" s="8"/>
+      <x:c r="AX82" s="9">
+        <x:f>(AY81-AX81)*24</x:f>
+      </x:c>
+      <x:c r="AY82" s="8"/>
+      <x:c r="AZ82" s="9">
+        <x:f>(BA81-AZ81)*24</x:f>
+      </x:c>
+      <x:c r="BA82" s="8"/>
+      <x:c r="BB82" s="9">
+        <x:f>(BC81-BB81)*24</x:f>
+      </x:c>
+      <x:c r="BC82" s="8"/>
+      <x:c r="BD82" s="9">
+        <x:f>(BE81-BD81)*24</x:f>
+      </x:c>
+      <x:c r="BE82" s="8"/>
+      <x:c r="BF82" s="9">
+        <x:f>(BG81-BF81)*24</x:f>
+      </x:c>
+      <x:c r="BG82" s="8"/>
+      <x:c r="BH82" s="9">
+        <x:f>(BI81-BH81)*24</x:f>
+      </x:c>
+      <x:c r="BI82" s="8"/>
+      <x:c r="BJ82" s="54">
+        <x:f>SUM(B82:BI82)</x:f>
+      </x:c>
     </x:row>
     <x:row r="83" spans="1:63" ht="20.1" customHeight="1" x14ac:dyDescent="0.25">
-      <x:c r="A83" s="47" t="s">
+      <x:c r="A83" s="72" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="B83" s="80"/>
+      <x:c r="C83" s="77"/>
+      <x:c r="D83" s="77"/>
+      <x:c r="E83" s="77"/>
+      <x:c r="F83" s="77">
+        <x:v>0.291666666666667</x:v>
+      </x:c>
+      <x:c r="G83" s="77">
+        <x:v>0.791666666666667</x:v>
+      </x:c>
+      <x:c r="H83" s="77"/>
+      <x:c r="I83" s="77"/>
+      <x:c r="J83" s="77"/>
+      <x:c r="K83" s="77"/>
+      <x:c r="L83" s="77"/>
+      <x:c r="M83" s="77"/>
+      <x:c r="N83" s="77"/>
+      <x:c r="O83" s="77"/>
+      <x:c r="P83" s="77"/>
+      <x:c r="Q83" s="77"/>
+      <x:c r="R83" s="77"/>
+      <x:c r="S83" s="77"/>
+      <x:c r="T83" s="77">
+        <x:v>0.291666666666667</x:v>
+      </x:c>
+      <x:c r="U83" s="77">
+        <x:v>0.791666666666667</x:v>
+      </x:c>
+      <x:c r="V83" s="77"/>
+      <x:c r="W83" s="77"/>
+      <x:c r="X83" s="77"/>
+      <x:c r="Y83" s="77"/>
+      <x:c r="Z83" s="77"/>
+      <x:c r="AA83" s="77"/>
+      <x:c r="AB83" s="77"/>
+      <x:c r="AC83" s="77"/>
+      <x:c r="AD83" s="77">
+        <x:v>0.291666666666667</x:v>
+      </x:c>
+      <x:c r="AE83" s="77">
+        <x:v>0.291666666666667</x:v>
+      </x:c>
+      <x:c r="AF83" s="77"/>
+      <x:c r="AG83" s="77"/>
+      <x:c r="AH83" s="77"/>
+      <x:c r="AI83" s="77"/>
+      <x:c r="AJ83" s="77"/>
+      <x:c r="AK83" s="77"/>
+      <x:c r="AL83" s="77"/>
+      <x:c r="AM83" s="77"/>
+      <x:c r="AN83" s="77"/>
+      <x:c r="AO83" s="77"/>
+      <x:c r="AP83" s="77">
+        <x:v>0.291666666666667</x:v>
+      </x:c>
+      <x:c r="AQ83" s="77">
+        <x:v>0.291666666666667</x:v>
+      </x:c>
+      <x:c r="AR83" s="77"/>
+      <x:c r="AS83" s="77"/>
+      <x:c r="AT83" s="77"/>
+      <x:c r="AU83" s="77"/>
+      <x:c r="AV83" s="77"/>
+      <x:c r="AW83" s="77"/>
+      <x:c r="AX83" s="77"/>
+      <x:c r="AY83" s="77"/>
+      <x:c r="AZ83" s="77"/>
+      <x:c r="BA83" s="77"/>
+      <x:c r="BB83" s="77">
+        <x:v>0.291666666666667</x:v>
+      </x:c>
+      <x:c r="BC83" s="77">
+        <x:v>0.291666666666667</x:v>
+      </x:c>
+      <x:c r="BD83" s="77"/>
+      <x:c r="BE83" s="77"/>
+      <x:c r="BF83" s="77"/>
+      <x:c r="BG83" s="77"/>
+      <x:c r="BH83" s="77"/>
+      <x:c r="BI83" s="82"/>
+      <x:c r="BJ83" s="54"/>
+    </x:row>
+    <x:row r="84" spans="1:63" ht="20.1" customHeight="1" x14ac:dyDescent="0.25">
+      <x:c r="A84" s="47" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="B83" s="6">
-        <x:f>+(C82-B82)*24</x:f>
-      </x:c>
-      <x:c r="C83" s="5"/>
-      <x:c r="D83" s="5">
-        <x:f>+(E82-D82)*24</x:f>
-      </x:c>
-      <x:c r="E83" s="5"/>
-      <x:c r="F83" s="5">
-        <x:f>+(G82-F82)*24</x:f>
-      </x:c>
-      <x:c r="G83" s="5"/>
-      <x:c r="H83" s="5">
-        <x:f>+(I82-H82)*24</x:f>
-      </x:c>
-      <x:c r="I83" s="5"/>
-      <x:c r="J83" s="5">
-        <x:f>+(K82-J82)*24</x:f>
-      </x:c>
-      <x:c r="K83" s="5"/>
-      <x:c r="L83" s="5">
-        <x:f>+(M82-L82)*24</x:f>
-      </x:c>
-      <x:c r="M83" s="5"/>
-      <x:c r="N83" s="5">
-        <x:f>+(O82-N82)*24</x:f>
-      </x:c>
-      <x:c r="O83" s="5"/>
-      <x:c r="P83" s="5">
-        <x:f>+(Q82-P82)*24</x:f>
-      </x:c>
-      <x:c r="Q83" s="5"/>
-      <x:c r="R83" s="5">
-        <x:f>+(S82-R82)*24</x:f>
-      </x:c>
-      <x:c r="S83" s="5"/>
-      <x:c r="T83" s="5">
-        <x:f>+(U82-T82)*24</x:f>
-      </x:c>
-      <x:c r="U83" s="5"/>
-      <x:c r="V83" s="5">
-        <x:f>+(W82-V82)*24</x:f>
-      </x:c>
-      <x:c r="W83" s="5"/>
-      <x:c r="X83" s="5">
-        <x:f>+(Y82-X82)*24</x:f>
-      </x:c>
-      <x:c r="Y83" s="5"/>
-      <x:c r="Z83" s="5">
-        <x:f>+(AA82-Z82)*24</x:f>
-      </x:c>
-      <x:c r="AA83" s="5"/>
-      <x:c r="AB83" s="5">
-        <x:f>+(AC82-AB82)*24</x:f>
-      </x:c>
-      <x:c r="AC83" s="5"/>
-      <x:c r="AD83" s="5">
+      <x:c r="B84" s="6">
+        <x:f>+(C83-B83)*24</x:f>
+      </x:c>
+      <x:c r="C84" s="5"/>
+      <x:c r="D84" s="5">
+        <x:f>+(E83-D83)*24</x:f>
+      </x:c>
+      <x:c r="E84" s="5"/>
+      <x:c r="F84" s="5">
+        <x:f>+(G83-F83)*24</x:f>
+      </x:c>
+      <x:c r="G84" s="5"/>
+      <x:c r="H84" s="5">
+        <x:f>+(I83-H83)*24</x:f>
+      </x:c>
+      <x:c r="I84" s="5"/>
+      <x:c r="J84" s="5">
+        <x:f>+(K83-J83)*24</x:f>
+      </x:c>
+      <x:c r="K84" s="5"/>
+      <x:c r="L84" s="5">
+        <x:f>+(M83-L83)*24</x:f>
+      </x:c>
+      <x:c r="M84" s="5"/>
+      <x:c r="N84" s="5">
+        <x:f>+(O83-N83)*24</x:f>
+      </x:c>
+      <x:c r="O84" s="5"/>
+      <x:c r="P84" s="5">
+        <x:f>+(Q83-P83)*24</x:f>
+      </x:c>
+      <x:c r="Q84" s="5"/>
+      <x:c r="R84" s="5">
+        <x:f>+(S83-R83)*24</x:f>
+      </x:c>
+      <x:c r="S84" s="5"/>
+      <x:c r="T84" s="5">
+        <x:f>+(U83-T83)*24</x:f>
+      </x:c>
+      <x:c r="U84" s="5"/>
+      <x:c r="V84" s="5">
+        <x:f>+(W83-V83)*24</x:f>
+      </x:c>
+      <x:c r="W84" s="5"/>
+      <x:c r="X84" s="5">
+        <x:f>+(Y83-X83)*24</x:f>
+      </x:c>
+      <x:c r="Y84" s="5"/>
+      <x:c r="Z84" s="5">
+        <x:f>+(AA83-Z83)*24</x:f>
+      </x:c>
+      <x:c r="AA84" s="5"/>
+      <x:c r="AB84" s="5">
+        <x:f>+(AC83-AB83)*24</x:f>
+      </x:c>
+      <x:c r="AC84" s="5"/>
+      <x:c r="AD84" s="5">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="AE83" s="5"/>
-      <x:c r="AF83" s="5">
-        <x:f>+(AG82-AF82)*24</x:f>
-      </x:c>
-      <x:c r="AG83" s="5"/>
-      <x:c r="AH83" s="5">
-        <x:f>+(AI82-AH82)*24</x:f>
-      </x:c>
-      <x:c r="AI83" s="5"/>
-      <x:c r="AJ83" s="5">
-        <x:f>+(AK82-AJ82)*24</x:f>
-      </x:c>
-      <x:c r="AK83" s="5"/>
-      <x:c r="AL83" s="5">
-        <x:f>+(AM82-AL82)*24</x:f>
-      </x:c>
-      <x:c r="AM83" s="5"/>
-      <x:c r="AN83" s="5">
-        <x:f>+(AO82-AN82)*24</x:f>
-      </x:c>
-      <x:c r="AO83" s="5"/>
-      <x:c r="AP83" s="5">
+      <x:c r="AE84" s="5"/>
+      <x:c r="AF84" s="5">
+        <x:f>+(AG83-AF83)*24</x:f>
+      </x:c>
+      <x:c r="AG84" s="5"/>
+      <x:c r="AH84" s="5">
+        <x:f>+(AI83-AH83)*24</x:f>
+      </x:c>
+      <x:c r="AI84" s="5"/>
+      <x:c r="AJ84" s="5">
+        <x:f>+(AK83-AJ83)*24</x:f>
+      </x:c>
+      <x:c r="AK84" s="5"/>
+      <x:c r="AL84" s="5">
+        <x:f>+(AM83-AL83)*24</x:f>
+      </x:c>
+      <x:c r="AM84" s="5"/>
+      <x:c r="AN84" s="5">
+        <x:f>+(AO83-AN83)*24</x:f>
+      </x:c>
+      <x:c r="AO84" s="5"/>
+      <x:c r="AP84" s="5">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="AQ83" s="5"/>
-      <x:c r="AR83" s="5">
-        <x:f>+(AS82-AR82)*24</x:f>
-      </x:c>
-      <x:c r="AS83" s="5"/>
-      <x:c r="AT83" s="5">
-        <x:f>+(AU82-AT82)*24</x:f>
-      </x:c>
-      <x:c r="AU83" s="5"/>
-      <x:c r="AV83" s="5">
-        <x:f>+(AW82-AV82)*24</x:f>
-      </x:c>
-      <x:c r="AW83" s="5"/>
-      <x:c r="AX83" s="5">
-        <x:f>+(AY82-AX82)*24</x:f>
-      </x:c>
-      <x:c r="AY83" s="5"/>
-      <x:c r="AZ83" s="5">
-        <x:f>+(BA82-AZ82)*24</x:f>
-      </x:c>
-      <x:c r="BA83" s="5"/>
-      <x:c r="BB83" s="5">
+      <x:c r="AQ84" s="5"/>
+      <x:c r="AR84" s="5">
+        <x:f>+(AS83-AR83)*24</x:f>
+      </x:c>
+      <x:c r="AS84" s="5"/>
+      <x:c r="AT84" s="5">
+        <x:f>+(AU83-AT83)*24</x:f>
+      </x:c>
+      <x:c r="AU84" s="5"/>
+      <x:c r="AV84" s="5">
+        <x:f>+(AW83-AV83)*24</x:f>
+      </x:c>
+      <x:c r="AW84" s="5"/>
+      <x:c r="AX84" s="5">
+        <x:f>+(AY83-AX83)*24</x:f>
+      </x:c>
+      <x:c r="AY84" s="5"/>
+      <x:c r="AZ84" s="5">
+        <x:f>+(BA83-AZ83)*24</x:f>
+      </x:c>
+      <x:c r="BA84" s="5"/>
+      <x:c r="BB84" s="5">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="BC83" s="5"/>
-      <x:c r="BD83" s="5">
-        <x:f>+(BE82-BD82)*24</x:f>
-      </x:c>
-      <x:c r="BE83" s="5"/>
-      <x:c r="BF83" s="5">
-        <x:f>+(BG82-BF82)*24</x:f>
-      </x:c>
-      <x:c r="BG83" s="5"/>
-      <x:c r="BH83" s="5">
-        <x:f>+(BI82-BH82)*24</x:f>
-      </x:c>
-      <x:c r="BI83" s="1"/>
-      <x:c r="BJ83" s="55">
-        <x:f>SUM(B83:BI83)</x:f>
-      </x:c>
-    </x:row>
-    <x:row r="85" spans="1:63" x14ac:dyDescent="0.25">
-      <x:c r="A85" s="25"/>
-      <x:c r="B85" s="26" t="s">
-        <x:v>45</x:v>
-      </x:c>
-      <x:c r="C85" s="26"/>
+      <x:c r="BC84" s="5"/>
+      <x:c r="BD84" s="5">
+        <x:f>+(BE83-BD83)*24</x:f>
+      </x:c>
+      <x:c r="BE84" s="5"/>
+      <x:c r="BF84" s="5">
+        <x:f>+(BG83-BF83)*24</x:f>
+      </x:c>
+      <x:c r="BG84" s="5"/>
+      <x:c r="BH84" s="5">
+        <x:f>+(BI83-BH83)*24</x:f>
+      </x:c>
+      <x:c r="BI84" s="1"/>
+      <x:c r="BJ84" s="55">
+        <x:f>SUM(B84:BI84)</x:f>
+      </x:c>
     </x:row>
     <x:row r="86" spans="1:63" x14ac:dyDescent="0.25">
       <x:c r="A86" s="25"/>
       <x:c r="B86" s="26" t="s">
-        <x:v>46</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="C86" s="26"/>
     </x:row>
     <x:row r="87" spans="1:63" x14ac:dyDescent="0.25">
-      <x:c r="A87" s="27" t="s">
-        <x:v>47</x:v>
-      </x:c>
+      <x:c r="A87" s="25"/>
       <x:c r="B87" s="26" t="s">
-        <x:v>48</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="C87" s="26"/>
     </x:row>
     <x:row r="88" spans="1:63" x14ac:dyDescent="0.25">
-      <x:c r="A88" s="83"/>
-      <x:c r="B88" s="18" t="s">
-        <x:v>49</x:v>
-      </x:c>
-      <x:c r="C88" s="0"/>
+      <x:c r="A88" s="27" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="B88" s="26" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="C88" s="26"/>
     </x:row>
     <x:row r="89" spans="1:63" x14ac:dyDescent="0.25">
-      <x:c r="A89" s="84"/>
+      <x:c r="A89" s="83"/>
       <x:c r="B89" s="18" t="s">
-        <x:v>50</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="C89" s="0"/>
     </x:row>
     <x:row r="90" spans="1:63" x14ac:dyDescent="0.25">
-      <x:c r="A90" s="85"/>
+      <x:c r="A90" s="84"/>
       <x:c r="B90" s="18" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="C90" s="0"/>
+    </x:row>
+    <x:row r="91" spans="1:63" x14ac:dyDescent="0.25">
+      <x:c r="A91" s="85"/>
+      <x:c r="B91" s="18" t="s">
         <x:v>51</x:v>
       </x:c>
-      <x:c r="C90" s="0"/>
+      <x:c r="C91" s="0"/>
     </x:row>
   </x:sheetData>
   <x:mergeCells count="1232">
@@ -12294,366 +12363,366 @@
     <x:mergeCell ref="BD59:BE59"/>
     <x:mergeCell ref="BF59:BG59"/>
     <x:mergeCell ref="BH59:BI59"/>
-    <x:mergeCell ref="B61:C61"/>
-    <x:mergeCell ref="D61:E61"/>
-    <x:mergeCell ref="F61:G61"/>
-    <x:mergeCell ref="H61:I61"/>
-    <x:mergeCell ref="J61:K61"/>
-    <x:mergeCell ref="L61:M61"/>
-    <x:mergeCell ref="N61:O61"/>
-    <x:mergeCell ref="P61:Q61"/>
-    <x:mergeCell ref="R61:S61"/>
-    <x:mergeCell ref="T61:U61"/>
-    <x:mergeCell ref="V61:W61"/>
-    <x:mergeCell ref="X61:Y61"/>
-    <x:mergeCell ref="Z61:AA61"/>
-    <x:mergeCell ref="AB61:AC61"/>
-    <x:mergeCell ref="AD61:AE61"/>
-    <x:mergeCell ref="AF61:AG61"/>
-    <x:mergeCell ref="AH61:AI61"/>
-    <x:mergeCell ref="AJ61:AK61"/>
-    <x:mergeCell ref="AL61:AM61"/>
-    <x:mergeCell ref="AN61:AO61"/>
-    <x:mergeCell ref="AP61:AQ61"/>
-    <x:mergeCell ref="AR61:AS61"/>
-    <x:mergeCell ref="AT61:AU61"/>
-    <x:mergeCell ref="AV61:AW61"/>
-    <x:mergeCell ref="AX61:AY61"/>
-    <x:mergeCell ref="AZ61:BA61"/>
-    <x:mergeCell ref="BB61:BC61"/>
-    <x:mergeCell ref="BD61:BE61"/>
-    <x:mergeCell ref="BF61:BG61"/>
-    <x:mergeCell ref="BH61:BI61"/>
-    <x:mergeCell ref="B63:C63"/>
-    <x:mergeCell ref="D63:E63"/>
-    <x:mergeCell ref="F63:G63"/>
-    <x:mergeCell ref="H63:I63"/>
-    <x:mergeCell ref="J63:K63"/>
-    <x:mergeCell ref="L63:M63"/>
-    <x:mergeCell ref="N63:O63"/>
-    <x:mergeCell ref="P63:Q63"/>
-    <x:mergeCell ref="R63:S63"/>
-    <x:mergeCell ref="T63:U63"/>
-    <x:mergeCell ref="V63:W63"/>
-    <x:mergeCell ref="X63:Y63"/>
-    <x:mergeCell ref="Z63:AA63"/>
-    <x:mergeCell ref="AB63:AC63"/>
-    <x:mergeCell ref="AD63:AE63"/>
-    <x:mergeCell ref="AF63:AG63"/>
-    <x:mergeCell ref="AH63:AI63"/>
-    <x:mergeCell ref="AJ63:AK63"/>
-    <x:mergeCell ref="AL63:AM63"/>
-    <x:mergeCell ref="AN63:AO63"/>
-    <x:mergeCell ref="AP63:AQ63"/>
-    <x:mergeCell ref="AR63:AS63"/>
-    <x:mergeCell ref="AT63:AU63"/>
-    <x:mergeCell ref="AV63:AW63"/>
-    <x:mergeCell ref="AX63:AY63"/>
-    <x:mergeCell ref="AZ63:BA63"/>
-    <x:mergeCell ref="BB63:BC63"/>
-    <x:mergeCell ref="BD63:BE63"/>
-    <x:mergeCell ref="BF63:BG63"/>
-    <x:mergeCell ref="BH63:BI63"/>
-    <x:mergeCell ref="B65:C65"/>
-    <x:mergeCell ref="D65:E65"/>
-    <x:mergeCell ref="F65:G65"/>
-    <x:mergeCell ref="H65:I65"/>
-    <x:mergeCell ref="J65:K65"/>
-    <x:mergeCell ref="L65:M65"/>
-    <x:mergeCell ref="N65:O65"/>
-    <x:mergeCell ref="P65:Q65"/>
-    <x:mergeCell ref="R65:S65"/>
-    <x:mergeCell ref="T65:U65"/>
-    <x:mergeCell ref="V65:W65"/>
-    <x:mergeCell ref="X65:Y65"/>
-    <x:mergeCell ref="Z65:AA65"/>
-    <x:mergeCell ref="AB65:AC65"/>
-    <x:mergeCell ref="AD65:AE65"/>
-    <x:mergeCell ref="AF65:AG65"/>
-    <x:mergeCell ref="AH65:AI65"/>
-    <x:mergeCell ref="AJ65:AK65"/>
-    <x:mergeCell ref="AL65:AM65"/>
-    <x:mergeCell ref="AN65:AO65"/>
-    <x:mergeCell ref="AP65:AQ65"/>
-    <x:mergeCell ref="AR65:AS65"/>
-    <x:mergeCell ref="AT65:AU65"/>
-    <x:mergeCell ref="AV65:AW65"/>
-    <x:mergeCell ref="AX65:AY65"/>
-    <x:mergeCell ref="AZ65:BA65"/>
-    <x:mergeCell ref="BB65:BC65"/>
-    <x:mergeCell ref="BD65:BE65"/>
-    <x:mergeCell ref="BF65:BG65"/>
-    <x:mergeCell ref="BH65:BI65"/>
-    <x:mergeCell ref="B67:C67"/>
-    <x:mergeCell ref="D67:E67"/>
-    <x:mergeCell ref="F67:G67"/>
-    <x:mergeCell ref="H67:I67"/>
-    <x:mergeCell ref="J67:K67"/>
-    <x:mergeCell ref="L67:M67"/>
-    <x:mergeCell ref="N67:O67"/>
-    <x:mergeCell ref="P67:Q67"/>
-    <x:mergeCell ref="R67:S67"/>
-    <x:mergeCell ref="T67:U67"/>
-    <x:mergeCell ref="V67:W67"/>
-    <x:mergeCell ref="X67:Y67"/>
-    <x:mergeCell ref="Z67:AA67"/>
-    <x:mergeCell ref="AB67:AC67"/>
-    <x:mergeCell ref="AD67:AE67"/>
-    <x:mergeCell ref="AF67:AG67"/>
-    <x:mergeCell ref="AH67:AI67"/>
-    <x:mergeCell ref="AJ67:AK67"/>
-    <x:mergeCell ref="AL67:AM67"/>
-    <x:mergeCell ref="AN67:AO67"/>
-    <x:mergeCell ref="AP67:AQ67"/>
-    <x:mergeCell ref="AR67:AS67"/>
-    <x:mergeCell ref="AT67:AU67"/>
-    <x:mergeCell ref="AV67:AW67"/>
-    <x:mergeCell ref="AX67:AY67"/>
-    <x:mergeCell ref="AZ67:BA67"/>
-    <x:mergeCell ref="BB67:BC67"/>
-    <x:mergeCell ref="BD67:BE67"/>
-    <x:mergeCell ref="BF67:BG67"/>
-    <x:mergeCell ref="BH67:BI67"/>
-    <x:mergeCell ref="B69:C69"/>
-    <x:mergeCell ref="D69:E69"/>
-    <x:mergeCell ref="F69:G69"/>
-    <x:mergeCell ref="H69:I69"/>
-    <x:mergeCell ref="J69:K69"/>
-    <x:mergeCell ref="L69:M69"/>
-    <x:mergeCell ref="N69:O69"/>
-    <x:mergeCell ref="P69:Q69"/>
-    <x:mergeCell ref="R69:S69"/>
-    <x:mergeCell ref="T69:U69"/>
-    <x:mergeCell ref="V69:W69"/>
-    <x:mergeCell ref="X69:Y69"/>
-    <x:mergeCell ref="Z69:AA69"/>
-    <x:mergeCell ref="AB69:AC69"/>
-    <x:mergeCell ref="AD69:AE69"/>
-    <x:mergeCell ref="AF69:AG69"/>
-    <x:mergeCell ref="AH69:AI69"/>
-    <x:mergeCell ref="AJ69:AK69"/>
-    <x:mergeCell ref="AL69:AM69"/>
-    <x:mergeCell ref="AN69:AO69"/>
-    <x:mergeCell ref="AP69:AQ69"/>
-    <x:mergeCell ref="AR69:AS69"/>
-    <x:mergeCell ref="AT69:AU69"/>
-    <x:mergeCell ref="AV69:AW69"/>
-    <x:mergeCell ref="AX69:AY69"/>
-    <x:mergeCell ref="AZ69:BA69"/>
-    <x:mergeCell ref="BB69:BC69"/>
-    <x:mergeCell ref="BD69:BE69"/>
-    <x:mergeCell ref="BF69:BG69"/>
-    <x:mergeCell ref="BH69:BI69"/>
-    <x:mergeCell ref="B71:C71"/>
-    <x:mergeCell ref="D71:E71"/>
-    <x:mergeCell ref="F71:G71"/>
-    <x:mergeCell ref="H71:I71"/>
-    <x:mergeCell ref="J71:K71"/>
-    <x:mergeCell ref="L71:M71"/>
-    <x:mergeCell ref="N71:O71"/>
-    <x:mergeCell ref="P71:Q71"/>
-    <x:mergeCell ref="R71:S71"/>
-    <x:mergeCell ref="T71:U71"/>
-    <x:mergeCell ref="V71:W71"/>
-    <x:mergeCell ref="X71:Y71"/>
-    <x:mergeCell ref="Z71:AA71"/>
-    <x:mergeCell ref="AB71:AC71"/>
-    <x:mergeCell ref="AD71:AE71"/>
-    <x:mergeCell ref="AF71:AG71"/>
-    <x:mergeCell ref="AH71:AI71"/>
-    <x:mergeCell ref="AJ71:AK71"/>
-    <x:mergeCell ref="AL71:AM71"/>
-    <x:mergeCell ref="AN71:AO71"/>
-    <x:mergeCell ref="AP71:AQ71"/>
-    <x:mergeCell ref="AR71:AS71"/>
-    <x:mergeCell ref="AT71:AU71"/>
-    <x:mergeCell ref="AV71:AW71"/>
-    <x:mergeCell ref="AX71:AY71"/>
-    <x:mergeCell ref="AZ71:BA71"/>
-    <x:mergeCell ref="BB71:BC71"/>
-    <x:mergeCell ref="BD71:BE71"/>
-    <x:mergeCell ref="BF71:BG71"/>
-    <x:mergeCell ref="BH71:BI71"/>
-    <x:mergeCell ref="B73:C73"/>
-    <x:mergeCell ref="D73:E73"/>
-    <x:mergeCell ref="F73:G73"/>
-    <x:mergeCell ref="H73:I73"/>
-    <x:mergeCell ref="J73:K73"/>
-    <x:mergeCell ref="L73:M73"/>
-    <x:mergeCell ref="N73:O73"/>
-    <x:mergeCell ref="P73:Q73"/>
-    <x:mergeCell ref="R73:S73"/>
-    <x:mergeCell ref="T73:U73"/>
-    <x:mergeCell ref="V73:W73"/>
-    <x:mergeCell ref="X73:Y73"/>
-    <x:mergeCell ref="Z73:AA73"/>
-    <x:mergeCell ref="AB73:AC73"/>
-    <x:mergeCell ref="AD73:AE73"/>
-    <x:mergeCell ref="AF73:AG73"/>
-    <x:mergeCell ref="AH73:AI73"/>
-    <x:mergeCell ref="AJ73:AK73"/>
-    <x:mergeCell ref="AL73:AM73"/>
-    <x:mergeCell ref="AN73:AO73"/>
-    <x:mergeCell ref="AP73:AQ73"/>
-    <x:mergeCell ref="AR73:AS73"/>
-    <x:mergeCell ref="AT73:AU73"/>
-    <x:mergeCell ref="AV73:AW73"/>
-    <x:mergeCell ref="AX73:AY73"/>
-    <x:mergeCell ref="AZ73:BA73"/>
-    <x:mergeCell ref="BB73:BC73"/>
-    <x:mergeCell ref="BD73:BE73"/>
-    <x:mergeCell ref="BF73:BG73"/>
-    <x:mergeCell ref="BH73:BI73"/>
-    <x:mergeCell ref="B75:C75"/>
-    <x:mergeCell ref="D75:E75"/>
-    <x:mergeCell ref="F75:G75"/>
-    <x:mergeCell ref="H75:I75"/>
-    <x:mergeCell ref="J75:K75"/>
-    <x:mergeCell ref="L75:M75"/>
-    <x:mergeCell ref="N75:O75"/>
-    <x:mergeCell ref="P75:Q75"/>
-    <x:mergeCell ref="R75:S75"/>
-    <x:mergeCell ref="T75:U75"/>
-    <x:mergeCell ref="V75:W75"/>
-    <x:mergeCell ref="X75:Y75"/>
-    <x:mergeCell ref="Z75:AA75"/>
-    <x:mergeCell ref="AB75:AC75"/>
-    <x:mergeCell ref="AD75:AE75"/>
-    <x:mergeCell ref="AF75:AG75"/>
-    <x:mergeCell ref="AH75:AI75"/>
-    <x:mergeCell ref="AJ75:AK75"/>
-    <x:mergeCell ref="AL75:AM75"/>
-    <x:mergeCell ref="AN75:AO75"/>
-    <x:mergeCell ref="AP75:AQ75"/>
-    <x:mergeCell ref="AR75:AS75"/>
-    <x:mergeCell ref="AT75:AU75"/>
-    <x:mergeCell ref="AV75:AW75"/>
-    <x:mergeCell ref="AX75:AY75"/>
-    <x:mergeCell ref="AZ75:BA75"/>
-    <x:mergeCell ref="BB75:BC75"/>
-    <x:mergeCell ref="BD75:BE75"/>
-    <x:mergeCell ref="BF75:BG75"/>
-    <x:mergeCell ref="BH75:BI75"/>
-    <x:mergeCell ref="B77:C77"/>
-    <x:mergeCell ref="D77:E77"/>
-    <x:mergeCell ref="F77:G77"/>
-    <x:mergeCell ref="H77:I77"/>
-    <x:mergeCell ref="J77:K77"/>
-    <x:mergeCell ref="L77:M77"/>
-    <x:mergeCell ref="N77:O77"/>
-    <x:mergeCell ref="P77:Q77"/>
-    <x:mergeCell ref="R77:S77"/>
-    <x:mergeCell ref="T77:U77"/>
-    <x:mergeCell ref="V77:W77"/>
-    <x:mergeCell ref="X77:Y77"/>
-    <x:mergeCell ref="Z77:AA77"/>
-    <x:mergeCell ref="AB77:AC77"/>
-    <x:mergeCell ref="AD77:AE77"/>
-    <x:mergeCell ref="AF77:AG77"/>
-    <x:mergeCell ref="AH77:AI77"/>
-    <x:mergeCell ref="AJ77:AK77"/>
-    <x:mergeCell ref="AL77:AM77"/>
-    <x:mergeCell ref="AN77:AO77"/>
-    <x:mergeCell ref="AP77:AQ77"/>
-    <x:mergeCell ref="AR77:AS77"/>
-    <x:mergeCell ref="AT77:AU77"/>
-    <x:mergeCell ref="AV77:AW77"/>
-    <x:mergeCell ref="AX77:AY77"/>
-    <x:mergeCell ref="AZ77:BA77"/>
-    <x:mergeCell ref="BB77:BC77"/>
-    <x:mergeCell ref="BD77:BE77"/>
-    <x:mergeCell ref="BF77:BG77"/>
-    <x:mergeCell ref="BH77:BI77"/>
-    <x:mergeCell ref="B79:C79"/>
-    <x:mergeCell ref="D79:E79"/>
-    <x:mergeCell ref="F79:G79"/>
-    <x:mergeCell ref="H79:I79"/>
-    <x:mergeCell ref="J79:K79"/>
-    <x:mergeCell ref="L79:M79"/>
-    <x:mergeCell ref="N79:O79"/>
-    <x:mergeCell ref="P79:Q79"/>
-    <x:mergeCell ref="R79:S79"/>
-    <x:mergeCell ref="T79:U79"/>
-    <x:mergeCell ref="V79:W79"/>
-    <x:mergeCell ref="X79:Y79"/>
-    <x:mergeCell ref="Z79:AA79"/>
-    <x:mergeCell ref="AB79:AC79"/>
-    <x:mergeCell ref="AD79:AE79"/>
-    <x:mergeCell ref="AF79:AG79"/>
-    <x:mergeCell ref="AH79:AI79"/>
-    <x:mergeCell ref="AJ79:AK79"/>
-    <x:mergeCell ref="AL79:AM79"/>
-    <x:mergeCell ref="AN79:AO79"/>
-    <x:mergeCell ref="AP79:AQ79"/>
-    <x:mergeCell ref="AR79:AS79"/>
-    <x:mergeCell ref="AT79:AU79"/>
-    <x:mergeCell ref="AV79:AW79"/>
-    <x:mergeCell ref="AX79:AY79"/>
-    <x:mergeCell ref="AZ79:BA79"/>
-    <x:mergeCell ref="BB79:BC79"/>
-    <x:mergeCell ref="BD79:BE79"/>
-    <x:mergeCell ref="BF79:BG79"/>
-    <x:mergeCell ref="BH79:BI79"/>
-    <x:mergeCell ref="B81:C81"/>
-    <x:mergeCell ref="D81:E81"/>
-    <x:mergeCell ref="F81:G81"/>
-    <x:mergeCell ref="H81:I81"/>
-    <x:mergeCell ref="J81:K81"/>
-    <x:mergeCell ref="L81:M81"/>
-    <x:mergeCell ref="N81:O81"/>
-    <x:mergeCell ref="P81:Q81"/>
-    <x:mergeCell ref="R81:S81"/>
-    <x:mergeCell ref="T81:U81"/>
-    <x:mergeCell ref="V81:W81"/>
-    <x:mergeCell ref="X81:Y81"/>
-    <x:mergeCell ref="Z81:AA81"/>
-    <x:mergeCell ref="AB81:AC81"/>
-    <x:mergeCell ref="AD81:AE81"/>
-    <x:mergeCell ref="AF81:AG81"/>
-    <x:mergeCell ref="AH81:AI81"/>
-    <x:mergeCell ref="AJ81:AK81"/>
-    <x:mergeCell ref="AL81:AM81"/>
-    <x:mergeCell ref="AN81:AO81"/>
-    <x:mergeCell ref="AP81:AQ81"/>
-    <x:mergeCell ref="AR81:AS81"/>
-    <x:mergeCell ref="AT81:AU81"/>
-    <x:mergeCell ref="AV81:AW81"/>
-    <x:mergeCell ref="AX81:AY81"/>
-    <x:mergeCell ref="AZ81:BA81"/>
-    <x:mergeCell ref="BB81:BC81"/>
-    <x:mergeCell ref="BD81:BE81"/>
-    <x:mergeCell ref="BF81:BG81"/>
-    <x:mergeCell ref="BH81:BI81"/>
-    <x:mergeCell ref="B83:C83"/>
-    <x:mergeCell ref="D83:E83"/>
-    <x:mergeCell ref="F83:G83"/>
-    <x:mergeCell ref="H83:I83"/>
-    <x:mergeCell ref="J83:K83"/>
-    <x:mergeCell ref="L83:M83"/>
-    <x:mergeCell ref="N83:O83"/>
-    <x:mergeCell ref="P83:Q83"/>
-    <x:mergeCell ref="R83:S83"/>
-    <x:mergeCell ref="T83:U83"/>
-    <x:mergeCell ref="V83:W83"/>
-    <x:mergeCell ref="X83:Y83"/>
-    <x:mergeCell ref="Z83:AA83"/>
-    <x:mergeCell ref="AB83:AC83"/>
-    <x:mergeCell ref="AD83:AE83"/>
-    <x:mergeCell ref="AF83:AG83"/>
-    <x:mergeCell ref="AH83:AI83"/>
-    <x:mergeCell ref="AJ83:AK83"/>
-    <x:mergeCell ref="AL83:AM83"/>
-    <x:mergeCell ref="AN83:AO83"/>
-    <x:mergeCell ref="AP83:AQ83"/>
-    <x:mergeCell ref="AR83:AS83"/>
-    <x:mergeCell ref="AT83:AU83"/>
-    <x:mergeCell ref="AV83:AW83"/>
-    <x:mergeCell ref="AX83:AY83"/>
-    <x:mergeCell ref="AZ83:BA83"/>
-    <x:mergeCell ref="BB83:BC83"/>
-    <x:mergeCell ref="BD83:BE83"/>
-    <x:mergeCell ref="BF83:BG83"/>
-    <x:mergeCell ref="BH83:BI83"/>
+    <x:mergeCell ref="B62:C62"/>
+    <x:mergeCell ref="D62:E62"/>
+    <x:mergeCell ref="F62:G62"/>
+    <x:mergeCell ref="H62:I62"/>
+    <x:mergeCell ref="J62:K62"/>
+    <x:mergeCell ref="L62:M62"/>
+    <x:mergeCell ref="N62:O62"/>
+    <x:mergeCell ref="P62:Q62"/>
+    <x:mergeCell ref="R62:S62"/>
+    <x:mergeCell ref="T62:U62"/>
+    <x:mergeCell ref="V62:W62"/>
+    <x:mergeCell ref="X62:Y62"/>
+    <x:mergeCell ref="Z62:AA62"/>
+    <x:mergeCell ref="AB62:AC62"/>
+    <x:mergeCell ref="AD62:AE62"/>
+    <x:mergeCell ref="AF62:AG62"/>
+    <x:mergeCell ref="AH62:AI62"/>
+    <x:mergeCell ref="AJ62:AK62"/>
+    <x:mergeCell ref="AL62:AM62"/>
+    <x:mergeCell ref="AN62:AO62"/>
+    <x:mergeCell ref="AP62:AQ62"/>
+    <x:mergeCell ref="AR62:AS62"/>
+    <x:mergeCell ref="AT62:AU62"/>
+    <x:mergeCell ref="AV62:AW62"/>
+    <x:mergeCell ref="AX62:AY62"/>
+    <x:mergeCell ref="AZ62:BA62"/>
+    <x:mergeCell ref="BB62:BC62"/>
+    <x:mergeCell ref="BD62:BE62"/>
+    <x:mergeCell ref="BF62:BG62"/>
+    <x:mergeCell ref="BH62:BI62"/>
+    <x:mergeCell ref="B64:C64"/>
+    <x:mergeCell ref="D64:E64"/>
+    <x:mergeCell ref="F64:G64"/>
+    <x:mergeCell ref="H64:I64"/>
+    <x:mergeCell ref="J64:K64"/>
+    <x:mergeCell ref="L64:M64"/>
+    <x:mergeCell ref="N64:O64"/>
+    <x:mergeCell ref="P64:Q64"/>
+    <x:mergeCell ref="R64:S64"/>
+    <x:mergeCell ref="T64:U64"/>
+    <x:mergeCell ref="V64:W64"/>
+    <x:mergeCell ref="X64:Y64"/>
+    <x:mergeCell ref="Z64:AA64"/>
+    <x:mergeCell ref="AB64:AC64"/>
+    <x:mergeCell ref="AD64:AE64"/>
+    <x:mergeCell ref="AF64:AG64"/>
+    <x:mergeCell ref="AH64:AI64"/>
+    <x:mergeCell ref="AJ64:AK64"/>
+    <x:mergeCell ref="AL64:AM64"/>
+    <x:mergeCell ref="AN64:AO64"/>
+    <x:mergeCell ref="AP64:AQ64"/>
+    <x:mergeCell ref="AR64:AS64"/>
+    <x:mergeCell ref="AT64:AU64"/>
+    <x:mergeCell ref="AV64:AW64"/>
+    <x:mergeCell ref="AX64:AY64"/>
+    <x:mergeCell ref="AZ64:BA64"/>
+    <x:mergeCell ref="BB64:BC64"/>
+    <x:mergeCell ref="BD64:BE64"/>
+    <x:mergeCell ref="BF64:BG64"/>
+    <x:mergeCell ref="BH64:BI64"/>
+    <x:mergeCell ref="B66:C66"/>
+    <x:mergeCell ref="D66:E66"/>
+    <x:mergeCell ref="F66:G66"/>
+    <x:mergeCell ref="H66:I66"/>
+    <x:mergeCell ref="J66:K66"/>
+    <x:mergeCell ref="L66:M66"/>
+    <x:mergeCell ref="N66:O66"/>
+    <x:mergeCell ref="P66:Q66"/>
+    <x:mergeCell ref="R66:S66"/>
+    <x:mergeCell ref="T66:U66"/>
+    <x:mergeCell ref="V66:W66"/>
+    <x:mergeCell ref="X66:Y66"/>
+    <x:mergeCell ref="Z66:AA66"/>
+    <x:mergeCell ref="AB66:AC66"/>
+    <x:mergeCell ref="AD66:AE66"/>
+    <x:mergeCell ref="AF66:AG66"/>
+    <x:mergeCell ref="AH66:AI66"/>
+    <x:mergeCell ref="AJ66:AK66"/>
+    <x:mergeCell ref="AL66:AM66"/>
+    <x:mergeCell ref="AN66:AO66"/>
+    <x:mergeCell ref="AP66:AQ66"/>
+    <x:mergeCell ref="AR66:AS66"/>
+    <x:mergeCell ref="AT66:AU66"/>
+    <x:mergeCell ref="AV66:AW66"/>
+    <x:mergeCell ref="AX66:AY66"/>
+    <x:mergeCell ref="AZ66:BA66"/>
+    <x:mergeCell ref="BB66:BC66"/>
+    <x:mergeCell ref="BD66:BE66"/>
+    <x:mergeCell ref="BF66:BG66"/>
+    <x:mergeCell ref="BH66:BI66"/>
+    <x:mergeCell ref="B68:C68"/>
+    <x:mergeCell ref="D68:E68"/>
+    <x:mergeCell ref="F68:G68"/>
+    <x:mergeCell ref="H68:I68"/>
+    <x:mergeCell ref="J68:K68"/>
+    <x:mergeCell ref="L68:M68"/>
+    <x:mergeCell ref="N68:O68"/>
+    <x:mergeCell ref="P68:Q68"/>
+    <x:mergeCell ref="R68:S68"/>
+    <x:mergeCell ref="T68:U68"/>
+    <x:mergeCell ref="V68:W68"/>
+    <x:mergeCell ref="X68:Y68"/>
+    <x:mergeCell ref="Z68:AA68"/>
+    <x:mergeCell ref="AB68:AC68"/>
+    <x:mergeCell ref="AD68:AE68"/>
+    <x:mergeCell ref="AF68:AG68"/>
+    <x:mergeCell ref="AH68:AI68"/>
+    <x:mergeCell ref="AJ68:AK68"/>
+    <x:mergeCell ref="AL68:AM68"/>
+    <x:mergeCell ref="AN68:AO68"/>
+    <x:mergeCell ref="AP68:AQ68"/>
+    <x:mergeCell ref="AR68:AS68"/>
+    <x:mergeCell ref="AT68:AU68"/>
+    <x:mergeCell ref="AV68:AW68"/>
+    <x:mergeCell ref="AX68:AY68"/>
+    <x:mergeCell ref="AZ68:BA68"/>
+    <x:mergeCell ref="BB68:BC68"/>
+    <x:mergeCell ref="BD68:BE68"/>
+    <x:mergeCell ref="BF68:BG68"/>
+    <x:mergeCell ref="BH68:BI68"/>
+    <x:mergeCell ref="B70:C70"/>
+    <x:mergeCell ref="D70:E70"/>
+    <x:mergeCell ref="F70:G70"/>
+    <x:mergeCell ref="H70:I70"/>
+    <x:mergeCell ref="J70:K70"/>
+    <x:mergeCell ref="L70:M70"/>
+    <x:mergeCell ref="N70:O70"/>
+    <x:mergeCell ref="P70:Q70"/>
+    <x:mergeCell ref="R70:S70"/>
+    <x:mergeCell ref="T70:U70"/>
+    <x:mergeCell ref="V70:W70"/>
+    <x:mergeCell ref="X70:Y70"/>
+    <x:mergeCell ref="Z70:AA70"/>
+    <x:mergeCell ref="AB70:AC70"/>
+    <x:mergeCell ref="AD70:AE70"/>
+    <x:mergeCell ref="AF70:AG70"/>
+    <x:mergeCell ref="AH70:AI70"/>
+    <x:mergeCell ref="AJ70:AK70"/>
+    <x:mergeCell ref="AL70:AM70"/>
+    <x:mergeCell ref="AN70:AO70"/>
+    <x:mergeCell ref="AP70:AQ70"/>
+    <x:mergeCell ref="AR70:AS70"/>
+    <x:mergeCell ref="AT70:AU70"/>
+    <x:mergeCell ref="AV70:AW70"/>
+    <x:mergeCell ref="AX70:AY70"/>
+    <x:mergeCell ref="AZ70:BA70"/>
+    <x:mergeCell ref="BB70:BC70"/>
+    <x:mergeCell ref="BD70:BE70"/>
+    <x:mergeCell ref="BF70:BG70"/>
+    <x:mergeCell ref="BH70:BI70"/>
+    <x:mergeCell ref="B72:C72"/>
+    <x:mergeCell ref="D72:E72"/>
+    <x:mergeCell ref="F72:G72"/>
+    <x:mergeCell ref="H72:I72"/>
+    <x:mergeCell ref="J72:K72"/>
+    <x:mergeCell ref="L72:M72"/>
+    <x:mergeCell ref="N72:O72"/>
+    <x:mergeCell ref="P72:Q72"/>
+    <x:mergeCell ref="R72:S72"/>
+    <x:mergeCell ref="T72:U72"/>
+    <x:mergeCell ref="V72:W72"/>
+    <x:mergeCell ref="X72:Y72"/>
+    <x:mergeCell ref="Z72:AA72"/>
+    <x:mergeCell ref="AB72:AC72"/>
+    <x:mergeCell ref="AD72:AE72"/>
+    <x:mergeCell ref="AF72:AG72"/>
+    <x:mergeCell ref="AH72:AI72"/>
+    <x:mergeCell ref="AJ72:AK72"/>
+    <x:mergeCell ref="AL72:AM72"/>
+    <x:mergeCell ref="AN72:AO72"/>
+    <x:mergeCell ref="AP72:AQ72"/>
+    <x:mergeCell ref="AR72:AS72"/>
+    <x:mergeCell ref="AT72:AU72"/>
+    <x:mergeCell ref="AV72:AW72"/>
+    <x:mergeCell ref="AX72:AY72"/>
+    <x:mergeCell ref="AZ72:BA72"/>
+    <x:mergeCell ref="BB72:BC72"/>
+    <x:mergeCell ref="BD72:BE72"/>
+    <x:mergeCell ref="BF72:BG72"/>
+    <x:mergeCell ref="BH72:BI72"/>
+    <x:mergeCell ref="B74:C74"/>
+    <x:mergeCell ref="D74:E74"/>
+    <x:mergeCell ref="F74:G74"/>
+    <x:mergeCell ref="H74:I74"/>
+    <x:mergeCell ref="J74:K74"/>
+    <x:mergeCell ref="L74:M74"/>
+    <x:mergeCell ref="N74:O74"/>
+    <x:mergeCell ref="P74:Q74"/>
+    <x:mergeCell ref="R74:S74"/>
+    <x:mergeCell ref="T74:U74"/>
+    <x:mergeCell ref="V74:W74"/>
+    <x:mergeCell ref="X74:Y74"/>
+    <x:mergeCell ref="Z74:AA74"/>
+    <x:mergeCell ref="AB74:AC74"/>
+    <x:mergeCell ref="AD74:AE74"/>
+    <x:mergeCell ref="AF74:AG74"/>
+    <x:mergeCell ref="AH74:AI74"/>
+    <x:mergeCell ref="AJ74:AK74"/>
+    <x:mergeCell ref="AL74:AM74"/>
+    <x:mergeCell ref="AN74:AO74"/>
+    <x:mergeCell ref="AP74:AQ74"/>
+    <x:mergeCell ref="AR74:AS74"/>
+    <x:mergeCell ref="AT74:AU74"/>
+    <x:mergeCell ref="AV74:AW74"/>
+    <x:mergeCell ref="AX74:AY74"/>
+    <x:mergeCell ref="AZ74:BA74"/>
+    <x:mergeCell ref="BB74:BC74"/>
+    <x:mergeCell ref="BD74:BE74"/>
+    <x:mergeCell ref="BF74:BG74"/>
+    <x:mergeCell ref="BH74:BI74"/>
+    <x:mergeCell ref="B76:C76"/>
+    <x:mergeCell ref="D76:E76"/>
+    <x:mergeCell ref="F76:G76"/>
+    <x:mergeCell ref="H76:I76"/>
+    <x:mergeCell ref="J76:K76"/>
+    <x:mergeCell ref="L76:M76"/>
+    <x:mergeCell ref="N76:O76"/>
+    <x:mergeCell ref="P76:Q76"/>
+    <x:mergeCell ref="R76:S76"/>
+    <x:mergeCell ref="T76:U76"/>
+    <x:mergeCell ref="V76:W76"/>
+    <x:mergeCell ref="X76:Y76"/>
+    <x:mergeCell ref="Z76:AA76"/>
+    <x:mergeCell ref="AB76:AC76"/>
+    <x:mergeCell ref="AD76:AE76"/>
+    <x:mergeCell ref="AF76:AG76"/>
+    <x:mergeCell ref="AH76:AI76"/>
+    <x:mergeCell ref="AJ76:AK76"/>
+    <x:mergeCell ref="AL76:AM76"/>
+    <x:mergeCell ref="AN76:AO76"/>
+    <x:mergeCell ref="AP76:AQ76"/>
+    <x:mergeCell ref="AR76:AS76"/>
+    <x:mergeCell ref="AT76:AU76"/>
+    <x:mergeCell ref="AV76:AW76"/>
+    <x:mergeCell ref="AX76:AY76"/>
+    <x:mergeCell ref="AZ76:BA76"/>
+    <x:mergeCell ref="BB76:BC76"/>
+    <x:mergeCell ref="BD76:BE76"/>
+    <x:mergeCell ref="BF76:BG76"/>
+    <x:mergeCell ref="BH76:BI76"/>
+    <x:mergeCell ref="B78:C78"/>
+    <x:mergeCell ref="D78:E78"/>
+    <x:mergeCell ref="F78:G78"/>
+    <x:mergeCell ref="H78:I78"/>
+    <x:mergeCell ref="J78:K78"/>
+    <x:mergeCell ref="L78:M78"/>
+    <x:mergeCell ref="N78:O78"/>
+    <x:mergeCell ref="P78:Q78"/>
+    <x:mergeCell ref="R78:S78"/>
+    <x:mergeCell ref="T78:U78"/>
+    <x:mergeCell ref="V78:W78"/>
+    <x:mergeCell ref="X78:Y78"/>
+    <x:mergeCell ref="Z78:AA78"/>
+    <x:mergeCell ref="AB78:AC78"/>
+    <x:mergeCell ref="AD78:AE78"/>
+    <x:mergeCell ref="AF78:AG78"/>
+    <x:mergeCell ref="AH78:AI78"/>
+    <x:mergeCell ref="AJ78:AK78"/>
+    <x:mergeCell ref="AL78:AM78"/>
+    <x:mergeCell ref="AN78:AO78"/>
+    <x:mergeCell ref="AP78:AQ78"/>
+    <x:mergeCell ref="AR78:AS78"/>
+    <x:mergeCell ref="AT78:AU78"/>
+    <x:mergeCell ref="AV78:AW78"/>
+    <x:mergeCell ref="AX78:AY78"/>
+    <x:mergeCell ref="AZ78:BA78"/>
+    <x:mergeCell ref="BB78:BC78"/>
+    <x:mergeCell ref="BD78:BE78"/>
+    <x:mergeCell ref="BF78:BG78"/>
+    <x:mergeCell ref="BH78:BI78"/>
+    <x:mergeCell ref="B80:C80"/>
+    <x:mergeCell ref="D80:E80"/>
+    <x:mergeCell ref="F80:G80"/>
+    <x:mergeCell ref="H80:I80"/>
+    <x:mergeCell ref="J80:K80"/>
+    <x:mergeCell ref="L80:M80"/>
+    <x:mergeCell ref="N80:O80"/>
+    <x:mergeCell ref="P80:Q80"/>
+    <x:mergeCell ref="R80:S80"/>
+    <x:mergeCell ref="T80:U80"/>
+    <x:mergeCell ref="V80:W80"/>
+    <x:mergeCell ref="X80:Y80"/>
+    <x:mergeCell ref="Z80:AA80"/>
+    <x:mergeCell ref="AB80:AC80"/>
+    <x:mergeCell ref="AD80:AE80"/>
+    <x:mergeCell ref="AF80:AG80"/>
+    <x:mergeCell ref="AH80:AI80"/>
+    <x:mergeCell ref="AJ80:AK80"/>
+    <x:mergeCell ref="AL80:AM80"/>
+    <x:mergeCell ref="AN80:AO80"/>
+    <x:mergeCell ref="AP80:AQ80"/>
+    <x:mergeCell ref="AR80:AS80"/>
+    <x:mergeCell ref="AT80:AU80"/>
+    <x:mergeCell ref="AV80:AW80"/>
+    <x:mergeCell ref="AX80:AY80"/>
+    <x:mergeCell ref="AZ80:BA80"/>
+    <x:mergeCell ref="BB80:BC80"/>
+    <x:mergeCell ref="BD80:BE80"/>
+    <x:mergeCell ref="BF80:BG80"/>
+    <x:mergeCell ref="BH80:BI80"/>
+    <x:mergeCell ref="B82:C82"/>
+    <x:mergeCell ref="D82:E82"/>
+    <x:mergeCell ref="F82:G82"/>
+    <x:mergeCell ref="H82:I82"/>
+    <x:mergeCell ref="J82:K82"/>
+    <x:mergeCell ref="L82:M82"/>
+    <x:mergeCell ref="N82:O82"/>
+    <x:mergeCell ref="P82:Q82"/>
+    <x:mergeCell ref="R82:S82"/>
+    <x:mergeCell ref="T82:U82"/>
+    <x:mergeCell ref="V82:W82"/>
+    <x:mergeCell ref="X82:Y82"/>
+    <x:mergeCell ref="Z82:AA82"/>
+    <x:mergeCell ref="AB82:AC82"/>
+    <x:mergeCell ref="AD82:AE82"/>
+    <x:mergeCell ref="AF82:AG82"/>
+    <x:mergeCell ref="AH82:AI82"/>
+    <x:mergeCell ref="AJ82:AK82"/>
+    <x:mergeCell ref="AL82:AM82"/>
+    <x:mergeCell ref="AN82:AO82"/>
+    <x:mergeCell ref="AP82:AQ82"/>
+    <x:mergeCell ref="AR82:AS82"/>
+    <x:mergeCell ref="AT82:AU82"/>
+    <x:mergeCell ref="AV82:AW82"/>
+    <x:mergeCell ref="AX82:AY82"/>
+    <x:mergeCell ref="AZ82:BA82"/>
+    <x:mergeCell ref="BB82:BC82"/>
+    <x:mergeCell ref="BD82:BE82"/>
+    <x:mergeCell ref="BF82:BG82"/>
+    <x:mergeCell ref="BH82:BI82"/>
+    <x:mergeCell ref="B84:C84"/>
+    <x:mergeCell ref="D84:E84"/>
+    <x:mergeCell ref="F84:G84"/>
+    <x:mergeCell ref="H84:I84"/>
+    <x:mergeCell ref="J84:K84"/>
+    <x:mergeCell ref="L84:M84"/>
+    <x:mergeCell ref="N84:O84"/>
+    <x:mergeCell ref="P84:Q84"/>
+    <x:mergeCell ref="R84:S84"/>
+    <x:mergeCell ref="T84:U84"/>
+    <x:mergeCell ref="V84:W84"/>
+    <x:mergeCell ref="X84:Y84"/>
+    <x:mergeCell ref="Z84:AA84"/>
+    <x:mergeCell ref="AB84:AC84"/>
+    <x:mergeCell ref="AD84:AE84"/>
+    <x:mergeCell ref="AF84:AG84"/>
+    <x:mergeCell ref="AH84:AI84"/>
+    <x:mergeCell ref="AJ84:AK84"/>
+    <x:mergeCell ref="AL84:AM84"/>
+    <x:mergeCell ref="AN84:AO84"/>
+    <x:mergeCell ref="AP84:AQ84"/>
+    <x:mergeCell ref="AR84:AS84"/>
+    <x:mergeCell ref="AT84:AU84"/>
+    <x:mergeCell ref="AV84:AW84"/>
+    <x:mergeCell ref="AX84:AY84"/>
+    <x:mergeCell ref="AZ84:BA84"/>
+    <x:mergeCell ref="BB84:BC84"/>
+    <x:mergeCell ref="BD84:BE84"/>
+    <x:mergeCell ref="BF84:BG84"/>
+    <x:mergeCell ref="BH84:BI84"/>
   </x:mergeCells>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
